--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arfc\Documents\GitHub\i2cner\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D0D3E-50FF-465D-BCA5-E615D1D23C06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B34EFC8F-6017-4EED-B7DB-79DCA6338DEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5655" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="HYD" sheetId="1" r:id="rId1"/>
     <sheet name="CCS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>H2 Method</t>
   </si>
@@ -76,9 +70,6 @@
     <t>ELC</t>
   </si>
   <si>
-    <t>1141.251 GWh</t>
-  </si>
-  <si>
     <t>Hyd</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>Injection</t>
   </si>
   <si>
-    <t>Transportation</t>
-  </si>
-  <si>
     <t>2800 JPY/t</t>
   </si>
   <si>
@@ -232,23 +220,53 @@
     <t xml:space="preserve">14-36 </t>
   </si>
   <si>
-    <t>33.GWh/Mt</t>
-  </si>
-  <si>
-    <t>Amount(t/y)</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
     <t>GWh</t>
+  </si>
+  <si>
+    <t>Transportation (pipeline)</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GWh</t>
+  </si>
+  <si>
+    <t>70 Mpa</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>186 million JPY/300</t>
+  </si>
+  <si>
+    <t>13h/day</t>
+  </si>
+  <si>
+    <t>MUSD/Mta</t>
+  </si>
+  <si>
+    <t>Mt/GWh</t>
+  </si>
+  <si>
+    <t>Amount(Mt)</t>
+  </si>
+  <si>
+    <t>H2 Cofiring</t>
+  </si>
+  <si>
+    <t>H2+LNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,16 +298,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -297,16 +327,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4AB0EE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4AB0EE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4AB0EE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4AB0EE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,34 +669,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47851EB-8A83-4629-AF5F-F0859B72869A}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="5" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5">
+        <f>70.8/1.8</f>
+        <v>39.333333333333329</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1">
+        <v>56</v>
+      </c>
+      <c r="K1">
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,175 +719,212 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>441.89</v>
+        <f>0.44189/1000000</f>
+        <v>4.4189E-7</v>
       </c>
       <c r="D3">
-        <f>C3*100/(SUM(C3:C5))</f>
-        <v>7.9136587576044661</v>
+        <f>C3/$C$6</f>
+        <v>3.8719790826032134E-7</v>
       </c>
       <c r="E3">
         <v>114</v>
       </c>
       <c r="F3">
-        <f>E3*$J$1*1000</f>
+        <f>E3*$K$1*1000</f>
         <v>1014.5999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>1538396</v>
       </c>
       <c r="I3">
-        <f>C20*H3*0.0000002777777777778</f>
-        <v>5.4271192222226556</v>
-      </c>
-      <c r="J3" s="1">
+        <f>(H3*G1)/1000000000</f>
+        <v>6.0510242666666658E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3*E21</f>
+        <v>2014.9910807999997</v>
+      </c>
+      <c r="K3" s="1">
         <v>0.7</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3428</v>
+        <f>3428/1000000</f>
+        <v>3.4280000000000001E-3</v>
       </c>
       <c r="D4">
-        <f>C4*100/(SUM(C3:C5))</f>
-        <v>61.390894161597032</v>
+        <f t="shared" ref="D4:D5" si="0">C4/$C$6</f>
+        <v>3.0037213548991413E-3</v>
       </c>
       <c r="E4">
         <v>300</v>
       </c>
       <c r="F4">
-        <f>E4*$J$1*1000</f>
+        <f>E4*$K$1*1000</f>
         <v>2670</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f>102/(1000000*0.27777)</f>
+        <v>3.6721028188789289E-4</v>
+      </c>
+      <c r="M4">
+        <f>186000000*K1/(I3*1000000)</f>
+        <v>27.357351863867372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1714</v>
+        <f>1714/1000000</f>
+        <v>1.714E-3</v>
       </c>
       <c r="D5">
-        <f>C5*100/(SUM(C3:C5))</f>
-        <v>30.695447080798516</v>
+        <f t="shared" si="0"/>
+        <v>1.5018606774495707E-3</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
       <c r="F5">
-        <f>E5*$J$1*1000</f>
+        <f>E5*$K$1*1000</f>
         <v>1780</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
+      <c r="C6">
+        <v>1.141251</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="D8" s="1">
         <v>0.62</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -835,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>12.7</v>
       </c>
@@ -843,38 +943,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>33.299999999999997</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>C21*1000</f>
+        <v>33300</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1">
         <v>0.42</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -883,197 +991,197 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O1">
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>17.600000000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2030</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>8.8000000000000007</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
         <v>55</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
       </c>
       <c r="L5">
         <v>4200</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <f>O1*L5</f>
         <v>37.380000000000003</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
       </c>
       <c r="D6">
         <v>14.7</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>3.2</v>
       </c>
       <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D9">
         <v>19.425999999999998</v>
       </c>
       <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
       </c>
       <c r="E11">
         <v>24.64</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
       </c>
       <c r="E12">
         <v>7.04</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <f>E11+E12</f>
         <v>31.68</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>2020</v>
@@ -1082,7 +1190,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2030</v>
       </c>
@@ -1090,7 +1198,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2040</v>
       </c>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B34EFC8F-6017-4EED-B7DB-79DCA6338DEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45259D84-3474-4E0E-B8C5-7D2C01FF17C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="HYD" sheetId="1" r:id="rId1"/>
-    <sheet name="CCS" sheetId="2" r:id="rId2"/>
+    <sheet name="CCS" sheetId="2" r:id="rId1"/>
+    <sheet name="H2 basics" sheetId="1" r:id="rId2"/>
+    <sheet name="H2 Steam Reforming" sheetId="3" r:id="rId3"/>
+    <sheet name="Photocatalytic H2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>H2 Method</t>
   </si>
@@ -79,51 +81,12 @@
     <t>Steam reforming</t>
   </si>
   <si>
-    <t>Alkaline Electrolysis</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Emi</t>
-  </si>
-  <si>
-    <t>102 gCO2/MJ</t>
-  </si>
-  <si>
-    <t>H2 Power</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>35-50%</t>
-  </si>
-  <si>
-    <t>INV COST</t>
-  </si>
-  <si>
     <t>186 million JPY</t>
   </si>
   <si>
-    <t>LCOE</t>
-  </si>
-  <si>
-    <t>60 JPY/m3</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Like fossil fuel plants</t>
-  </si>
-  <si>
     <t>CCU</t>
   </si>
   <si>
-    <t>Targets</t>
-  </si>
-  <si>
     <t>2000 JPY/tCO2</t>
   </si>
   <si>
@@ -133,15 +96,6 @@
     <t>MUSD/Mt</t>
   </si>
   <si>
-    <t>90-95</t>
-  </si>
-  <si>
-    <t>ELC Cost</t>
-  </si>
-  <si>
-    <t>Capture</t>
-  </si>
-  <si>
     <t>Liquefaction</t>
   </si>
   <si>
@@ -157,9 +111,6 @@
     <t>GWh/Mt</t>
   </si>
   <si>
-    <t>Current Costs</t>
-  </si>
-  <si>
     <t>Injection</t>
   </si>
   <si>
@@ -181,27 +132,12 @@
     <t>Gt</t>
   </si>
   <si>
-    <t>Costs</t>
-  </si>
-  <si>
     <t>monoethanolamine (MEA)</t>
   </si>
   <si>
-    <t>1.11 MWh/tCO2</t>
-  </si>
-  <si>
-    <t>1110 GWh/tCO2</t>
-  </si>
-  <si>
-    <t>Must be total</t>
-  </si>
-  <si>
     <t>JPY/USD</t>
   </si>
   <si>
-    <t xml:space="preserve"> JPY/tCO2</t>
-  </si>
-  <si>
     <t>EXCLUDING ELC</t>
   </si>
   <si>
@@ -211,15 +147,6 @@
     <t>Fusina (2009)</t>
   </si>
   <si>
-    <t>Cost( JPY/kg)</t>
-  </si>
-  <si>
-    <t>(MUSD/Mt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-36 </t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
@@ -232,41 +159,197 @@
     <t>Mt</t>
   </si>
   <si>
-    <t xml:space="preserve"> GWh</t>
-  </si>
-  <si>
-    <t>70 Mpa</t>
-  </si>
-  <si>
     <t>kg/m3</t>
   </si>
   <si>
-    <t>186 million JPY/300</t>
-  </si>
-  <si>
-    <t>13h/day</t>
-  </si>
-  <si>
-    <t>MUSD/Mta</t>
-  </si>
-  <si>
-    <t>Mt/GWh</t>
-  </si>
-  <si>
-    <t>Amount(Mt)</t>
-  </si>
-  <si>
-    <t>H2 Cofiring</t>
-  </si>
-  <si>
-    <t>H2+LNG</t>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>100km pipeline</t>
+  </si>
+  <si>
+    <t>1km pipeline</t>
+  </si>
+  <si>
+    <t>kJ/t</t>
+  </si>
+  <si>
+    <t>for shipping</t>
+  </si>
+  <si>
+    <t>1km,w/o shipping</t>
+  </si>
+  <si>
+    <t>MJ/Mt</t>
+  </si>
+  <si>
+    <t>1 MJ</t>
+  </si>
+  <si>
+    <t>Energy Cost</t>
+  </si>
+  <si>
+    <t>Capture Cost</t>
+  </si>
+  <si>
+    <t>Capture Cost Targets</t>
+  </si>
+  <si>
+    <t>1km pipe+ship</t>
+  </si>
+  <si>
+    <t>Mostly offshore</t>
+  </si>
+  <si>
+    <t>MJ/tCO2</t>
+  </si>
+  <si>
+    <t>500 JPY/tCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponds to </t>
+  </si>
+  <si>
+    <t>4200 JPY/t</t>
+  </si>
+  <si>
+    <t>Fixed Costs</t>
+  </si>
+  <si>
+    <t>Variable Cost</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>(Variable)</t>
+  </si>
+  <si>
+    <t>Conversion factors</t>
+  </si>
+  <si>
+    <t>13h/d*365 d</t>
+  </si>
+  <si>
+    <t>at 70 Mpa</t>
+  </si>
+  <si>
+    <t>300 Nm3/h</t>
+  </si>
+  <si>
+    <t>Unit Cost( JPY/unit)</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>(MUSD)</t>
+  </si>
+  <si>
+    <t>Amount(t or kWh)</t>
+  </si>
+  <si>
+    <t>Var Cost</t>
+  </si>
+  <si>
+    <t>MUSD/GWh</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>20 y</t>
+  </si>
+  <si>
+    <t>Mt/m3</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>60 JPY/Nm3</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Final value</t>
+  </si>
+  <si>
+    <t>ELC equivalent(GWh)</t>
+  </si>
+  <si>
+    <t>Energy value(GWh)</t>
+  </si>
+  <si>
+    <t>E/Mt H2</t>
+  </si>
+  <si>
+    <t>Theo = 70%</t>
+  </si>
+  <si>
+    <t>Effective:</t>
+  </si>
+  <si>
+    <t>(after combustion)</t>
+  </si>
+  <si>
+    <t>Error in ELCLNG</t>
+  </si>
+  <si>
+    <t>Our City Gas Cost</t>
+  </si>
+  <si>
+    <t>Model LNG Cost</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>MUSD</t>
+  </si>
+  <si>
+    <t>INV COST(MJPY or MUSD)/GWh)</t>
+  </si>
+  <si>
+    <t>Emi(Mt/GWh)</t>
+  </si>
+  <si>
+    <t>87 gCO2/MJ</t>
+  </si>
+  <si>
+    <t>Raw H2</t>
+  </si>
+  <si>
+    <t>GWh-H2</t>
+  </si>
+  <si>
+    <t>I2CNER Target</t>
+  </si>
+  <si>
+    <t>20% efficiency</t>
+  </si>
+  <si>
+    <t>Acar and Dincer(2014)</t>
+  </si>
+  <si>
+    <t>9$/kg</t>
+  </si>
+  <si>
+    <t>1.5$/kg</t>
+  </si>
+  <si>
+    <t>Investment Cost</t>
+  </si>
+  <si>
+    <t>No data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +386,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -346,13 +442,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,11 +769,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1">
+        <f>0.277778/1000000</f>
+        <v>2.7777800000000004E-7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2030</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2050</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <f>500*O1</f>
+        <v>4.45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>14.7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>14.7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>3.2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <f>(D9*1000)+(D11*1000)</f>
+        <v>17900</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="D13" s="7">
+        <f>D12*K1</f>
+        <v>4.9722262000000007E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7">
+        <f>D12+(D10*1000000)</f>
+        <v>52017900</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D15" s="6">
+        <f>D14*K1</f>
+        <v>14.449428226200002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>24.64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>7.04</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <f>E17+E18</f>
+        <v>31.68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>156</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>14.45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>31.68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47851EB-8A83-4629-AF5F-F0859B72869A}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,296 +1122,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="5">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="5">
         <f>70.8/1.8</f>
         <v>39.333333333333329</v>
       </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1">
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>8.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>12.7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f>C6*0.2777777</f>
+        <v>39.444433400000001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>C8*1000</f>
+        <v>39444.433400000002</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <f>0.44189/1000000</f>
-        <v>4.4189E-7</v>
-      </c>
-      <c r="D3">
-        <f>C3/$C$6</f>
-        <v>3.8719790826032134E-7</v>
-      </c>
-      <c r="E3">
-        <v>114</v>
-      </c>
-      <c r="F3">
-        <f>E3*$K$1*1000</f>
-        <v>1014.5999999999999</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>1538396</v>
-      </c>
-      <c r="I3">
-        <f>(H3*G1)/1000000000</f>
-        <v>6.0510242666666658E-2</v>
-      </c>
-      <c r="J3" s="3">
-        <f>I3*E21</f>
-        <v>2014.9910807999997</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <f>3428/1000000</f>
-        <v>3.4280000000000001E-3</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">C4/$C$6</f>
-        <v>3.0037213548991413E-3</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <f>E4*$K$1*1000</f>
-        <v>2670</v>
-      </c>
-      <c r="L4">
-        <f>102/(1000000*0.27777)</f>
-        <v>3.6721028188789289E-4</v>
-      </c>
-      <c r="M4">
-        <f>186000000*K1/(I3*1000000)</f>
-        <v>27.357351863867372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <f>1714/1000000</f>
-        <v>1.714E-3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.5018606774495707E-3</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <f>E5*$K$1*1000</f>
-        <v>1780</v>
-      </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>1.141251</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>142</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>12.7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <f>C21*1000</f>
-        <v>33300</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="1">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.42</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
+      <c r="C12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -986,228 +1248,438 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
-  <dimension ref="A1:P19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26522F16-178D-4C9D-9097-E5B0FFBFDA90}">
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1">
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1">
+        <v>39444.433400000002</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="5">
+        <f>70.8/(1.8*1000000000)</f>
+        <v>3.9333333333333335E-8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2">
         <v>8.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
+      <c r="N2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2030</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f>441.89</f>
+        <v>441.89</v>
+      </c>
+      <c r="C5">
+        <f>B5*1000*B15/1000000</f>
+        <v>6.8124708387833097</v>
+      </c>
+      <c r="D5">
+        <f>0.33*C5</f>
+        <v>2.2481153767984923</v>
+      </c>
+      <c r="E5">
+        <v>114000</v>
+      </c>
+      <c r="F5">
+        <f>E5*B5*$M$2/1000000</f>
+        <v>0.44834159400000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>1538396</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="3">
+        <f>C9*0.7</f>
+        <v>5.5676052871483162</v>
       </c>
       <c r="L5">
-        <v>4200</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
+        <f>K6/H6</f>
+        <v>30.363615543241984</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>95</v>
       </c>
       <c r="O5">
-        <f>O1*L5</f>
-        <v>37.380000000000003</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
+        <f>186/K6</f>
+        <v>101.2349716919415</v>
+      </c>
+      <c r="P5">
+        <f>(F9-G16)/K6</f>
+        <v>0.24122779924311022</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6">
-        <v>14.7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>3428</f>
+        <v>3428</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <f>E6*B6*$M$2/1000000</f>
+        <v>9.1527599999999994E-3</v>
+      </c>
+      <c r="H6">
+        <f>(H5*H2)</f>
+        <v>6.0510242666666672E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="6">
+        <f>0.33*K5</f>
+        <v>1.8373097447589444</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6">
+        <f>87/(1000000*0.27777)</f>
+        <v>3.1320876984555567E-4</v>
+      </c>
+      <c r="O6">
+        <f>O5*M2</f>
+        <v>0.90099124805827935</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f>1714</f>
+        <v>1714</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <f>E7*B7*$M$2/1000000</f>
+        <v>3.0509199999999999E-3</v>
+      </c>
+      <c r="H7">
+        <f>F1*H6</f>
+        <v>2386.7922368831719</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7">
+        <f>K6/D9</f>
+        <v>0.54208059575265499</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1141251</v>
+      </c>
+      <c r="C8">
+        <f>1141251/1000000</f>
+        <v>1.141251</v>
       </c>
       <c r="D8">
-        <v>3.2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
+        <f>1141251/1000000</f>
+        <v>1.141251</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <f>E8*B8*$M$2/1000000</f>
+        <v>0.16251414240000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>41</v>
+      <c r="C9">
+        <f>SUM(C5:C8)</f>
+        <v>7.9537218387833093</v>
       </c>
       <c r="D9">
-        <v>19.425999999999998</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
+        <f>SUM(D5:D8)</f>
+        <v>3.3893663767984923</v>
+      </c>
+      <c r="F9">
+        <f>SUM(F5:F8)</f>
+        <v>0.62305941640000007</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>24.64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <f>60*M2/(1000000*H2*L5)</f>
+        <v>0.44712301033802088</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12">
-        <v>7.04</v>
-      </c>
       <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13">
-        <f>E11+E12</f>
-        <v>31.68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>55.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="B15">
-        <v>156</v>
+        <f>55.5*0.277777778</f>
+        <v>15.416666678999999</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
-        <v>2020</v>
-      </c>
-      <c r="C17">
-        <v>31.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>2030</v>
-      </c>
-      <c r="C18">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>2040</v>
-      </c>
-      <c r="C19">
-        <v>8.8000000000000007</v>
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <f>F5/D5</f>
+        <v>0.19942997527043146</v>
+      </c>
+      <c r="F15">
+        <v>0.44834159400000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16">
+        <v>0.08</v>
+      </c>
+      <c r="F16">
+        <f>E16*D5</f>
+        <v>0.17984923014387938</v>
+      </c>
+      <c r="G16">
+        <f>F16</f>
+        <v>0.17984923014387938</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8D9EFC-D052-4551-86BD-609CA1895FF2}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1">
+        <v>2050</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2">
+        <f>9/(39.4*0.3)</f>
+        <v>0.76142131979695438</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>2050</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <f>1.5/(39.444*0.3)</f>
+        <v>0.12676199168441335</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45259D84-3474-4E0E-B8C5-7D2C01FF17C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04528D74-49AA-41C6-89A4-00F9A8BD279E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="2" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>H2 Method</t>
   </si>
@@ -237,9 +237,6 @@
     <t>300 Nm3/h</t>
   </si>
   <si>
-    <t>Unit Cost( JPY/unit)</t>
-  </si>
-  <si>
     <t>Total Cost</t>
   </si>
   <si>
@@ -343,6 +340,12 @@
   </si>
   <si>
     <t>No data</t>
+  </si>
+  <si>
+    <t>Cost( JPY/unit)</t>
+  </si>
+  <si>
+    <t>ELC share</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47851EB-8A83-4629-AF5F-F0859B72869A}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,10 +1175,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="1"/>
@@ -1250,131 +1253,134 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26522F16-178D-4C9D-9097-E5B0FFBFDA90}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="16.21875" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>39444.433400000002</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <f>70.8/(1.8*1000000000)</f>
         <v>3.9333333333333335E-8</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
         <v>67</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1391,45 +1397,49 @@
         <v>2.2481153767984923</v>
       </c>
       <c r="E5">
+        <f>D5/D9</f>
+        <v>0.66328485235107681</v>
+      </c>
+      <c r="F5">
         <v>114000</v>
       </c>
-      <c r="F5">
-        <f>E5*B5*$M$2/1000000</f>
+      <c r="G5">
+        <f>F5*B5*$N$2/1000000</f>
         <v>0.44834159400000001</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1538396</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f>C9*0.7</f>
         <v>5.5676052871483162</v>
       </c>
-      <c r="L5">
-        <f>K6/H6</f>
+      <c r="M5">
+        <f>L6/I6</f>
         <v>30.363615543241984</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5">
-        <f>186/K6</f>
+      <c r="N5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5">
+        <f>186/L6</f>
         <v>101.2349716919415</v>
       </c>
-      <c r="P5">
-        <f>(F9-G16)/K6</f>
+      <c r="Q5">
+        <f>(G9-G16)/L6</f>
         <v>0.24122779924311022</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1437,40 +1447,40 @@
         <f>3428</f>
         <v>3428</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>300</v>
       </c>
-      <c r="F6">
-        <f>E6*B6*$M$2/1000000</f>
+      <c r="G6">
+        <f>F6*B6*$N$2/1000000</f>
         <v>9.1527599999999994E-3</v>
       </c>
-      <c r="H6">
-        <f>(H5*H2)</f>
+      <c r="I6">
+        <f>(I5*I2)</f>
         <v>6.0510242666666672E-2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="6">
-        <f>0.33*K5</f>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="6">
+        <f>0.33*L5</f>
         <v>1.8373097447589444</v>
       </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6">
         <f>87/(1000000*0.27777)</f>
         <v>3.1320876984555567E-4</v>
       </c>
-      <c r="O6">
-        <f>O5*M2</f>
+      <c r="P6">
+        <f>P5*N2</f>
         <v>0.90099124805827935</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1478,29 +1488,29 @@
         <f>1714</f>
         <v>1714</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>200</v>
       </c>
-      <c r="F7">
-        <f>E7*B7*$M$2/1000000</f>
+      <c r="G7">
+        <f>F7*B7*$N$2/1000000</f>
         <v>3.0509199999999999E-3</v>
       </c>
-      <c r="H7">
-        <f>F1*H6</f>
+      <c r="I7">
+        <f>G1*I6</f>
         <v>2386.7922368831719</v>
       </c>
-      <c r="I7" t="s">
-        <v>97</v>
-      </c>
       <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7">
-        <f>K6/D9</f>
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7">
+        <f>L6/D9</f>
         <v>0.54208059575265499</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1516,14 +1526,18 @@
         <v>1.141251</v>
       </c>
       <c r="E8">
+        <f>D8/D9</f>
+        <v>0.33671514764892313</v>
+      </c>
+      <c r="F8">
         <v>16</v>
       </c>
-      <c r="F8">
-        <f>E8*B8*$M$2/1000000</f>
+      <c r="G8">
+        <f>F8*B8*$N$2/1000000</f>
         <v>0.16251414240000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>SUM(C5:C8)</f>
         <v>7.9537218387833093</v>
@@ -1532,31 +1546,31 @@
         <f>SUM(D5:D8)</f>
         <v>3.3893663767984923</v>
       </c>
-      <c r="F9">
-        <f>SUM(F5:F8)</f>
+      <c r="G9">
+        <f>SUM(G5:G8)</f>
         <v>0.62305941640000007</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11">
+        <f>60*N2/(1000000*I2*M5)</f>
+        <v>0.44712301033802088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>79</v>
-      </c>
-      <c r="F11">
-        <f>60*M2/(1000000*H2*L5)</f>
-        <v>0.44712301033802088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>80</v>
       </c>
       <c r="B14">
         <v>55.5</v>
@@ -1565,19 +1579,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>55.5*0.277777778</f>
         <v>15.416666678999999</v>
@@ -1586,19 +1600,19 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15">
-        <f>F5/D5</f>
+        <f>G5/D5</f>
         <v>0.19942997527043146</v>
       </c>
       <c r="F15">
         <v>0.44834159400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>0.08</v>
@@ -1632,28 +1646,28 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1">
         <v>2050</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
       </c>
       <c r="F2">
         <f>9/(39.4*0.3)</f>
         <v>0.76142131979695438</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1661,22 +1675,22 @@
         <v>2050</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <f>1.5/(39.444*0.3)</f>
         <v>0.12676199168441335</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04528D74-49AA-41C6-89A4-00F9A8BD279E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2254764E-2B08-4F40-A8F0-884726151901}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="2" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>H2 Method</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>ELC share</t>
+  </si>
+  <si>
+    <t>ELC/LNG:</t>
   </si>
 </sst>
 </file>
@@ -1447,6 +1450,10 @@
         <f>3428</f>
         <v>3428</v>
       </c>
+      <c r="E6">
+        <f>D8/D9</f>
+        <v>0.33671514764892313</v>
+      </c>
       <c r="F6">
         <v>300</v>
       </c>
@@ -1488,6 +1495,9 @@
         <f>1714</f>
         <v>1714</v>
       </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
       <c r="F7">
         <v>200</v>
       </c>
@@ -1526,8 +1536,8 @@
         <v>1.141251</v>
       </c>
       <c r="E8">
-        <f>D8/D9</f>
-        <v>0.33671514764892313</v>
+        <f>D8/D5</f>
+        <v>0.50764787776383546</v>
       </c>
       <c r="F8">
         <v>16</v>
@@ -1628,6 +1638,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2254764E-2B08-4F40-A8F0-884726151901}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A87543A-5948-4776-8883-C8F5A5308814}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="2" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>H2 Method</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>ELC/LNG:</t>
+  </si>
+  <si>
+    <t>LNG input only:</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1262,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,6 +1549,9 @@
         <f>F8*B8*$N$2/1000000</f>
         <v>0.16251414240000001</v>
       </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9">
@@ -1559,6 +1565,10 @@
       <c r="G9">
         <f>SUM(G5:G8)</f>
         <v>0.62305941640000007</v>
+      </c>
+      <c r="N9">
+        <f>L6/D5</f>
+        <v>0.81726665976344592</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8A87543A-5948-4776-8883-C8F5A5308814}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67368366-9A3C-4022-B2D0-4B4E6669A7EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="2" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,8 +952,8 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <f>(D9*1000)+(D11*1000)</f>
-        <v>17900</v>
+        <f>(D9+D11)*1000000</f>
+        <v>17900000</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -963,7 +963,7 @@
       <c r="B13" s="2"/>
       <c r="D13" s="7">
         <f>D12*K1</f>
-        <v>4.9722262000000007E-3</v>
+        <v>4.9722262000000006</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="D14" s="7">
         <f>D12+(D10*1000000)</f>
-        <v>52017900</v>
+        <v>69900000</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -985,7 +985,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D15" s="6">
         <f>D14*K1</f>
-        <v>14.449428226200002</v>
+        <v>19.416682200000004</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -1002,7 +1002,8 @@
         <v>28</v>
       </c>
       <c r="E17">
-        <v>24.64</v>
+        <f>2800*0.0089</f>
+        <v>24.919999999999998</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
@@ -1016,7 +1017,8 @@
         <v>29</v>
       </c>
       <c r="E18">
-        <v>7.04</v>
+        <f>800*0.0089</f>
+        <v>7.12</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
@@ -1028,7 +1030,7 @@
       </c>
       <c r="E19">
         <f>E17+E18</f>
-        <v>31.68</v>
+        <v>32.04</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
@@ -1059,7 +1061,8 @@
         <v>52</v>
       </c>
       <c r="C23">
-        <v>14.45</v>
+        <f>D15</f>
+        <v>19.416682200000004</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1078,6 +1081,10 @@
       <c r="E24">
         <v>2030</v>
       </c>
+      <c r="G24">
+        <f>E19+E3</f>
+        <v>40.840000000000003</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -1092,13 +1099,18 @@
       <c r="E25">
         <v>2050</v>
       </c>
+      <c r="G25">
+        <f>E19+E4</f>
+        <v>36.49</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26">
-        <v>31.68</v>
+        <f>E19</f>
+        <v>32.04</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1261,7 +1273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26522F16-178D-4C9D-9097-E5B0FFBFDA90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67368366-9A3C-4022-B2D0-4B4E6669A7EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6865086-ABC1-43C1-A030-F71CEFA5078A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>H2 Method</t>
   </si>
@@ -352,12 +352,36 @@
   </si>
   <si>
     <t>LNG input only:</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>Mt/GWh</t>
+  </si>
+  <si>
+    <t>CCS Penalty</t>
+  </si>
+  <si>
+    <t>Resid CO2(Mt)</t>
+  </si>
+  <si>
+    <t>New Emi(Mt/GWh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -465,6 +489,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,7 +816,11 @@
     <col min="2" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -889,6 +918,21 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -905,6 +949,27 @@
       </c>
       <c r="E8" t="s">
         <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="9">
+        <v>9.4300000000000004E-4</v>
+      </c>
+      <c r="K8" s="9">
+        <f>1/J8</f>
+        <v>1060.4453870625662</v>
+      </c>
+      <c r="L8" s="9">
+        <f>K8-$D$15</f>
+        <v>1041.0287048625662</v>
+      </c>
+      <c r="M8">
+        <v>0.05</v>
+      </c>
+      <c r="N8" s="9">
+        <f>M8/L8</f>
+        <v>4.8029415295134311E-5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -918,6 +983,27 @@
       <c r="E9" t="s">
         <v>47</v>
       </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5.9900000000000003E-4</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" ref="K9:K10" si="0">1/J9</f>
+        <v>1669.4490818030049</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" ref="L9:L10" si="1">K9-$D$15</f>
+        <v>1650.0323996030049</v>
+      </c>
+      <c r="M9">
+        <v>0.05</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" ref="N9:N10" si="2">M9/L9</f>
+        <v>3.0302435280682926E-5</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -932,6 +1018,27 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="9">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
+        <v>1355.0135501355012</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="1"/>
+        <v>1335.5968679355012</v>
+      </c>
+      <c r="M10">
+        <v>0.05</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="2"/>
+        <v>3.7436445981853416E-5</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -957,6 +1064,13 @@
       </c>
       <c r="E12" t="s">
         <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="9">
+        <f>L8/8760</f>
+        <v>0.11883889324915139</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -968,6 +1082,10 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
+      <c r="L13" s="9">
+        <f t="shared" ref="L13:L14" si="3">L9/8760</f>
+        <v>0.18835986296837956</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
@@ -980,6 +1098,10 @@
       </c>
       <c r="E14" t="s">
         <v>50</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="3"/>
+        <v>0.15246539588304808</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6865086-ABC1-43C1-A030-F71CEFA5078A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F272FF2-8FD1-4B48-8ABC-D381F144C189}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" firstSheet="1" activeTab="3" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
   <si>
     <t>H2 Method</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>New Emi(Mt/GWh)</t>
+  </si>
+  <si>
+    <t>based on competitive cost of h2/elc projections</t>
+  </si>
+  <si>
+    <t>No emissions due to high energy density, uses less steel/concrete than nuclear</t>
+  </si>
+  <si>
+    <t>no data on emissions intensity anyway :(</t>
   </si>
 </sst>
 </file>
@@ -806,7 +815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8:N10"/>
     </sheetView>
   </sheetViews>
@@ -1788,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8D9EFC-D052-4551-86BD-609CA1895FF2}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,7 +1808,7 @@
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>99</v>
       </c>
@@ -1825,7 +1834,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>2050</v>
       </c>
@@ -1839,13 +1848,24 @@
       <c r="G3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1F272FF2-8FD1-4B48-8ABC-D381F144C189}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4EE17-D02A-4AC3-8CA1-11C61F263665}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" firstSheet="1" activeTab="3" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="33780" yWindow="3360" windowWidth="11520" windowHeight="12360" firstSheet="5" activeTab="6" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
-    <sheet name="H2 basics" sheetId="1" r:id="rId2"/>
-    <sheet name="H2 Steam Reforming" sheetId="3" r:id="rId3"/>
-    <sheet name="Photocatalytic H2" sheetId="4" r:id="rId4"/>
+    <sheet name="JHFC" sheetId="1" r:id="rId2"/>
+    <sheet name="Acar and Dincer" sheetId="6" r:id="rId3"/>
+    <sheet name="H2 Steam Reforming" sheetId="3" r:id="rId4"/>
+    <sheet name="Photocatalytic H2" sheetId="4" r:id="rId5"/>
+    <sheet name="Kato_H2" sheetId="7" r:id="rId6"/>
+    <sheet name="Keipi_SMR" sheetId="5" r:id="rId7"/>
+    <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
   <si>
     <t>H2 Method</t>
   </si>
@@ -39,9 +49,6 @@
     <t>MJ/kg</t>
   </si>
   <si>
-    <t>MJ/m3</t>
-  </si>
-  <si>
     <t>kWh/kg</t>
   </si>
   <si>
@@ -51,9 +58,6 @@
     <t>DSCINV</t>
   </si>
   <si>
-    <t>300 m3/h</t>
-  </si>
-  <si>
     <t>Comm IN</t>
   </si>
   <si>
@@ -81,9 +85,6 @@
     <t>Steam reforming</t>
   </si>
   <si>
-    <t>186 million JPY</t>
-  </si>
-  <si>
     <t>CCU</t>
   </si>
   <si>
@@ -141,12 +142,6 @@
     <t>EXCLUDING ELC</t>
   </si>
   <si>
-    <t>Cap Fac</t>
-  </si>
-  <si>
-    <t>Fusina (2009)</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
@@ -159,9 +154,6 @@
     <t>Mt</t>
   </si>
   <si>
-    <t>kg/m3</t>
-  </si>
-  <si>
     <t>Transport</t>
   </si>
   <si>
@@ -255,9 +247,6 @@
     <t>Lifetime</t>
   </si>
   <si>
-    <t>20 y</t>
-  </si>
-  <si>
     <t>Mt/m3</t>
   </si>
   <si>
@@ -382,6 +371,300 @@
   </si>
   <si>
     <t>no data on emissions intensity anyway :(</t>
+  </si>
+  <si>
+    <t>kg/Nm3</t>
+  </si>
+  <si>
+    <t>MJ/Nm3</t>
+  </si>
+  <si>
+    <t>kWh/MJ</t>
+  </si>
+  <si>
+    <t>kWh/Nm3</t>
+  </si>
+  <si>
+    <t>Nm3/yr</t>
+  </si>
+  <si>
+    <t>kg/yr</t>
+  </si>
+  <si>
+    <t>ELC input</t>
+  </si>
+  <si>
+    <t>Clean Water</t>
+  </si>
+  <si>
+    <t>Waste Water</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Investment cost</t>
+  </si>
+  <si>
+    <t>ELC/kg H2</t>
+  </si>
+  <si>
+    <t>kWh/kgH2</t>
+  </si>
+  <si>
+    <t>kWhe/kWh-H2</t>
+  </si>
+  <si>
+    <t>Annual Stats</t>
+  </si>
+  <si>
+    <t>Output H2</t>
+  </si>
+  <si>
+    <t>ELC  based H2output</t>
+  </si>
+  <si>
+    <t>H2 OP ELC worth</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>USD/JPY</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USD/kWh-H2</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>yen</t>
+  </si>
+  <si>
+    <t>kW/yr</t>
+  </si>
+  <si>
+    <t>$/kWh</t>
+  </si>
+  <si>
+    <t>$/kWh-cap</t>
+  </si>
+  <si>
+    <t>$/kW</t>
+  </si>
+  <si>
+    <t>Emissions</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0196890417312153</t>
+  </si>
+  <si>
+    <t>kg/MWh-H2</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M Costs</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M Costs</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>JPY/yr</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>https://www.topsoe.com/sites/default/files/topsoe_large_scale_hydrogen_produc.pdf</t>
+  </si>
+  <si>
+    <t>20 y @13h/d</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>USD/yr</t>
+  </si>
+  <si>
+    <t>FOM Cost</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>total h2</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>ELC input for 1 kg of H2</t>
+  </si>
+  <si>
+    <t>Cost of H2</t>
+  </si>
+  <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>ELC to H2 direct conversion</t>
+  </si>
+  <si>
+    <t>Steam Reforming</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Emissions 1</t>
+  </si>
+  <si>
+    <t>g/MJ</t>
+  </si>
+  <si>
+    <t>g/kWh</t>
+  </si>
+  <si>
+    <t>Electrolysis</t>
+  </si>
+  <si>
+    <t>H2 Output</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>GWh/yr</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>MEUR</t>
+  </si>
+  <si>
+    <t>MEUR/GW</t>
+  </si>
+  <si>
+    <t>VarOM</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Other OM</t>
+  </si>
+  <si>
+    <t>EUR/yr</t>
+  </si>
+  <si>
+    <t>Unit cost</t>
+  </si>
+  <si>
+    <t>EUR/MWh</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>MUSD/yr</t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>MEUR/yr</t>
+  </si>
+  <si>
+    <t>FixedOM</t>
+  </si>
+  <si>
+    <t>Total(w/o ELC)</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>MUSD/GW</t>
+  </si>
+  <si>
+    <t>Input/yr</t>
+  </si>
+  <si>
+    <t>H2/ELC ratio</t>
+  </si>
+  <si>
+    <t>H2/(ELC+LNG)</t>
+  </si>
+  <si>
+    <t>Total Output</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>ELC/LNG</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>water+fuel</t>
+  </si>
+  <si>
+    <t>H2/ELC</t>
+  </si>
+  <si>
+    <t>OtherOM</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>FOM</t>
+  </si>
+  <si>
+    <t>GW/yr</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Output conversion factor</t>
+  </si>
+  <si>
+    <t>added to make unit price match the paper</t>
   </si>
 </sst>
 </file>
@@ -391,7 +674,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +725,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -481,10 +786,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,8 +805,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -819,148 +1135,148 @@
       <selection activeCell="N8" sqref="N8:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K1">
         <f>0.277778/1000000</f>
         <v>2.7777800000000004E-7</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O1">
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>17.600000000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2030</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>8.8000000000000007</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2050</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <f>500*O1</f>
         <v>4.45</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>4000</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>14.7</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J8" s="9">
         <v>9.4300000000000004E-4</v>
@@ -981,19 +1297,19 @@
         <v>4.8029415295134311E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>14.7</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J9" s="9">
         <v>5.9900000000000003E-4</v>
@@ -1014,21 +1330,21 @@
         <v>3.0302435280682926E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J10" s="9">
         <v>7.3800000000000005E-4</v>
@@ -1049,165 +1365,165 @@
         <v>3.7436445981853416E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>3.2</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <f>(D9+D11)*1000000</f>
         <v>17900000</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="9">
         <f>L8/8760</f>
         <v>0.11883889324915139</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="D13" s="7">
         <f>D12*K1</f>
         <v>4.9722262000000006</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" ref="L13:L14" si="3">L9/8760</f>
         <v>0.18835986296837956</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
         <f>D12+(D10*1000000)</f>
         <v>69900000</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="3"/>
         <v>0.15246539588304808</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="6">
         <f>D14*K1</f>
         <v>19.416682200000004</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <f>2800*0.0089</f>
         <v>24.919999999999998</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <f>800*0.0089</f>
         <v>7.12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <f>E17+E18</f>
         <v>32.04</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <f>D15</f>
         <v>19.416682200000004</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>8.8000000000000007</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>2030</v>
@@ -1217,15 +1533,15 @@
         <v>40.840000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>4.4000000000000004</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>2050</v>
@@ -1235,16 +1551,16 @@
         <v>36.49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <f>E19</f>
         <v>32.04</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1255,65 +1571,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47851EB-8A83-4629-AF5F-F0859B72869A}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E2" sqref="E2:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5">
-        <f>70.8/1.8</f>
-        <v>39.333333333333329</v>
+        <v>41.869</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K2">
-        <v>8.8999999999999999E-3</v>
+        <f>1/110</f>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="10">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1322,76 +1635,885 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>G4*G2</f>
+        <v>5024.28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4">
+        <f>G3*I4</f>
+        <v>1395.7449839999999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4">
+        <f>G4*G3</f>
+        <v>33.335999999999999</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5">
+        <v>9.31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5">
+        <f>G5/M4</f>
+        <v>0.27927765778737701</v>
+      </c>
+      <c r="J5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1538396</v>
+      </c>
+      <c r="M8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="12">
+        <f>G2*L8</f>
+        <v>64411102.123999998</v>
+      </c>
+      <c r="O8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <f>186*1000000</f>
+        <v>186000000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1141251</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>B9*K2</f>
+        <v>1690909.0909090908</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <f>B10/L11</f>
+        <v>0.41378551295067767</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10">
+        <f>B10/N11</f>
+        <v>3624.7610934479362</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="12">
+        <f>L9/G5</f>
+        <v>122583.35123523093</v>
+      </c>
+      <c r="M10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="12">
+        <f>M4*L10</f>
+        <v>4086438.5967776584</v>
+      </c>
+      <c r="M11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="12">
+        <f>L11/8760</f>
+        <v>466.48842428968703</v>
+      </c>
+      <c r="O11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>441890</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="12">
+        <f>114*B13</f>
+        <v>50375460</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="12">
+        <f>D13*$K$2</f>
+        <v>457958.72727272724</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="12">
+        <f>B13*53*G3</f>
+        <v>6506123.2259999998</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <v>3428000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="12">
+        <f>300*B14</f>
+        <v>1028400000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" ref="F14:F15" si="0">D14*$K$2</f>
+        <v>9349090.9090909082</v>
+      </c>
+      <c r="G14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15">
+        <v>1714000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="12">
+        <f>B15*200</f>
+        <v>342800000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>3116363.6363636362</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="D16" s="12">
+        <f>SUM(D13:D15)</f>
+        <v>1421575460</v>
+      </c>
+      <c r="F16" s="12">
+        <f>SUM(F13:F15)</f>
+        <v>12923413.272727272</v>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17">
+        <f>F16/L11</f>
+        <v>3.1625125317967502</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20">
+        <f>7000000*1.5</f>
+        <v>10500000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21">
+        <f>0.03*B9/20</f>
+        <v>279000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22">
+        <f>0.0077*0.55*B9/20</f>
+        <v>39385.5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23">
+        <f>0.014*0.55*B9/20</f>
+        <v>71610.000000000015</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>10889995.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24">
+        <f>B24*K2</f>
+        <v>98999.959090909091</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24">
+        <v>1690909.0909090908</v>
+      </c>
+      <c r="I24">
+        <f>4086438.59677766*20</f>
+        <v>81728771.935553193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25">
+        <f>D24/N11</f>
+        <v>212.22382793668336</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25">
+        <f>D24*20</f>
+        <v>1979999.1818181819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f>F16*20</f>
+        <v>258468265.45454544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>SUM(G24:G26)/(L10*20)</f>
+        <v>106.92282886941211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="G28">
+        <f>SUM(G24:G26)/I24</f>
+        <v>3.2074282718206168</v>
+      </c>
+      <c r="H28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="9">
+        <f>B29/1000000</f>
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{177C782A-8AA1-4D91-B9EC-1036244F9B44}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{DB1ADAF0-30AF-4C87-848C-F1A882EFDD60}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F6EB48-4038-4170-8B3C-AD75DD5549D7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1">
+        <v>9.31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26522F16-178D-4C9D-9097-E5B0FFBFDA90}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1">
+        <v>39444.433400000002</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="5">
+        <f>70.8/(1.8*1000000000)</f>
+        <v>3.9333333333333335E-8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>441.89</f>
+        <v>441.89</v>
+      </c>
+      <c r="C5">
+        <f>B5*1000*B15/1000000</f>
+        <v>6.8124708387833097</v>
+      </c>
+      <c r="D5">
+        <f>0.33*C5</f>
+        <v>2.2481153767984923</v>
+      </c>
+      <c r="E5">
+        <f>D5/D9</f>
+        <v>0.66328485235107681</v>
+      </c>
+      <c r="F5">
+        <v>114000</v>
+      </c>
+      <c r="G5">
+        <f>F5*B5*$N$2/1000000</f>
+        <v>0.44834159400000001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>1538396</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3">
+        <f>C9*0.7</f>
+        <v>5.5676052871483162</v>
+      </c>
+      <c r="M5">
+        <f>L6/I6</f>
+        <v>30.363615543241984</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5">
+        <f>186/L6</f>
+        <v>101.2349716919415</v>
+      </c>
+      <c r="Q5">
+        <f>(G9-G16)/L6</f>
+        <v>0.24122779924311022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>142</v>
-      </c>
-      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>3428</f>
+        <v>3428</v>
+      </c>
+      <c r="E6">
+        <f>D8/D9</f>
+        <v>0.33671514764892313</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <f>F6*B6*$N$2/1000000</f>
+        <v>9.1527599999999994E-3</v>
+      </c>
+      <c r="I6">
+        <f>(I5*I2)</f>
+        <v>6.0510242666666672E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="6">
+        <f>0.33*L5</f>
+        <v>1.8373097447589444</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6">
+        <f>87/(1000000*0.27777)</f>
+        <v>3.1320876984555567E-4</v>
+      </c>
+      <c r="P6">
+        <f>P5*N2</f>
+        <v>0.90099124805827935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <f>1714</f>
+        <v>1714</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <f>F7*B7*$N$2/1000000</f>
+        <v>3.0509199999999999E-3</v>
+      </c>
+      <c r="I7">
+        <f>G1*I6</f>
+        <v>2386.7922368831719</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7">
+        <f>L6/D9</f>
+        <v>0.54208059575265499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1141251</v>
+      </c>
+      <c r="C8">
+        <f>1141251/1000000</f>
+        <v>1.141251</v>
+      </c>
+      <c r="D8">
+        <f>1141251/1000000</f>
+        <v>1.141251</v>
+      </c>
+      <c r="E8">
+        <f>D8/D5</f>
+        <v>0.50764787776383546</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <f>F8*B8*$N$2/1000000</f>
+        <v>0.16251414240000001</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>SUM(C5:C8)</f>
+        <v>7.9537218387833093</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D5:D8)</f>
+        <v>3.3893663767984923</v>
+      </c>
+      <c r="G9">
+        <f>SUM(G5:G8)</f>
+        <v>0.62305941640000007</v>
+      </c>
+      <c r="N9">
+        <f>L6/D5</f>
+        <v>0.81726665976344592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <f>60*N2/(1000000*I2*M5)</f>
+        <v>0.44712301033802088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <v>55.5</v>
+      </c>
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>12.7</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>55.5*0.277777778</f>
+        <v>15.416666678999999</v>
+      </c>
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <f>C6*0.2777777</f>
-        <v>39.444433400000001</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <f>C8*1000</f>
-        <v>39444.433400000002</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="I9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <f>G5/D5</f>
+        <v>0.19942997527043146</v>
+      </c>
+      <c r="F15">
+        <v>0.44834159400000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>0.08</v>
+      </c>
+      <c r="F16">
+        <f>E16*D5</f>
+        <v>0.17984923014387938</v>
+      </c>
+      <c r="G16">
+        <f>F16</f>
+        <v>0.17984923014387938</v>
       </c>
     </row>
   </sheetData>
@@ -1400,393 +2522,618 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26522F16-178D-4C9D-9097-E5B0FFBFDA90}">
-  <dimension ref="A1:Q16"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8D9EFC-D052-4551-86BD-609CA1895FF2}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" customWidth="1"/>
-    <col min="17" max="17" width="15.109375" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1">
+        <v>2050</v>
+      </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2">
+        <f>9/(39.4*0.3)</f>
+        <v>0.76142131979695438</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2050</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3">
+        <f>1.5/(39.444*0.3)</f>
+        <v>0.12676199168441335</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E890F7-EE40-41D8-8D6F-926E6C8520D6}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="10">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="3">
+        <f>B4/I1</f>
+        <v>313.17494600431968</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="3">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="9">
+        <f>B18/1000000</f>
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{C66773E2-8228-41BA-9227-1EE786CABB8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5DFEF8-915B-4056-B382-3EF1CD6D8429}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="5">
+        <v>41.869</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
       </c>
       <c r="G1">
-        <v>39444.433400000002</v>
+        <f>1/110</f>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="10">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>C3*C1</f>
+        <v>5024.28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3">
+        <f>C2*E3</f>
+        <v>1395.7449839999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3">
+        <f>C3*C2</f>
+        <v>33.335999999999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>9.31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <f>C4/I3</f>
+        <v>0.27927765778737701</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <f>B8*(365*24*60*60)</f>
+        <v>78840000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8">
+        <f>(D8*I3*C6/(1000000))</f>
+        <v>1708.3366559999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8">
+        <f>F8/8760</f>
+        <v>0.19501559999999998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
+        <f>133815/1000</f>
+        <v>133.815</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10">
+        <f>B10/I8</f>
+        <v>686.17587516075639</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10">
+        <f>D10*I1</f>
+        <v>754.79346267683206</v>
+      </c>
+      <c r="G10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="5">
-        <f>70.8/(1.8*1000000000)</f>
-        <v>3.9333333333333335E-8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <f>61753*1000</f>
+        <v>61753000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14">
+        <f>B14/(D14*1000)</f>
+        <v>3087.65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <f>F8/F15</f>
+        <v>48.167386917293229</v>
+      </c>
+      <c r="J14">
+        <f>F8/(F15+F14)</f>
+        <v>0.54699738701190581</v>
+      </c>
+      <c r="K14">
+        <f>F15/F14</f>
+        <v>1.1486621432696928E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>1064000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="2">
+        <f>B15/(D15*1000)</f>
+        <v>35.466666666666669</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>1089000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17">
+        <f>B17/1000000</f>
+        <v>1.089</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>B19*(365*24*60*60)</f>
+        <v>378432000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>B20*0.3</f>
+        <v>113529600</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <f>B21*G1/(1000000)</f>
+        <v>1.0320872727272727</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21">
+        <f>D21/I1</f>
+        <v>0.93826115702479329</v>
+      </c>
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23">
+        <f>(B14/1000000)+F21</f>
+        <v>62.69126115702479</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23">
+        <f>B23*I1</f>
+        <v>68.960387272727274</v>
+      </c>
+      <c r="E23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23">
+        <f>D23/F8</f>
+        <v>4.0366977451736702E-2</v>
+      </c>
+      <c r="G23" t="s">
         <v>67</v>
       </c>
-      <c r="N2">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <f>441.89</f>
-        <v>441.89</v>
-      </c>
-      <c r="C5">
-        <f>B5*1000*B15/1000000</f>
-        <v>6.8124708387833097</v>
-      </c>
-      <c r="D5">
-        <f>0.33*C5</f>
-        <v>2.2481153767984923</v>
-      </c>
-      <c r="E5">
-        <f>D5/D9</f>
-        <v>0.66328485235107681</v>
-      </c>
-      <c r="F5">
-        <v>114000</v>
-      </c>
-      <c r="G5">
-        <f>F5*B5*$N$2/1000000</f>
-        <v>0.44834159400000001</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>1538396</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="3">
-        <f>C9*0.7</f>
-        <v>5.5676052871483162</v>
-      </c>
-      <c r="M5">
-        <f>L6/I6</f>
-        <v>30.363615543241984</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5">
-        <f>186/L6</f>
-        <v>101.2349716919415</v>
-      </c>
-      <c r="Q5">
-        <f>(G9-G16)/L6</f>
-        <v>0.24122779924311022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <f>3428</f>
-        <v>3428</v>
-      </c>
-      <c r="E6">
-        <f>D8/D9</f>
-        <v>0.33671514764892313</v>
-      </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
-      <c r="G6">
-        <f>F6*B6*$N$2/1000000</f>
-        <v>9.1527599999999994E-3</v>
-      </c>
-      <c r="I6">
-        <f>(I5*I2)</f>
-        <v>6.0510242666666672E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="6">
-        <f>0.33*L5</f>
-        <v>1.8373097447589444</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6">
-        <f>87/(1000000*0.27777)</f>
-        <v>3.1320876984555567E-4</v>
-      </c>
-      <c r="P6">
-        <f>P5*N2</f>
-        <v>0.90099124805827935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <f>1714</f>
-        <v>1714</v>
-      </c>
-      <c r="E7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="G7">
-        <f>F7*B7*$N$2/1000000</f>
-        <v>3.0509199999999999E-3</v>
-      </c>
-      <c r="I7">
-        <f>G1*I6</f>
-        <v>2386.7922368831719</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7">
-        <f>L6/D9</f>
-        <v>0.54208059575265499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1141251</v>
-      </c>
-      <c r="C8">
-        <f>1141251/1000000</f>
-        <v>1.141251</v>
-      </c>
-      <c r="D8">
-        <f>1141251/1000000</f>
-        <v>1.141251</v>
-      </c>
-      <c r="E8">
-        <f>D8/D5</f>
-        <v>0.50764787776383546</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <f>F8*B8*$N$2/1000000</f>
-        <v>0.16251414240000001</v>
-      </c>
-      <c r="N8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <f>SUM(C5:C8)</f>
-        <v>7.9537218387833093</v>
-      </c>
-      <c r="D9">
-        <f>SUM(D5:D8)</f>
-        <v>3.3893663767984923</v>
-      </c>
-      <c r="G9">
-        <f>SUM(G5:G8)</f>
-        <v>0.62305941640000007</v>
-      </c>
-      <c r="N9">
-        <f>L6/D5</f>
-        <v>0.81726665976344592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11">
-        <f>60*N2/(1000000*I2*M5)</f>
-        <v>0.44712301033802088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14">
-        <v>55.5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <f>55.5*0.277777778</f>
-        <v>15.416666678999999</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15">
-        <f>G5/D5</f>
-        <v>0.19942997527043146</v>
-      </c>
-      <c r="F15">
-        <v>0.44834159400000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16">
-        <v>0.08</v>
-      </c>
-      <c r="F16">
-        <f>E16*D5</f>
-        <v>0.17984923014387938</v>
-      </c>
-      <c r="G16">
-        <f>F16</f>
-        <v>0.17984923014387938</v>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26">
+        <f>D17</f>
+        <v>1.089</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26">
+        <f>B26*I1</f>
+        <v>1.1979</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26">
+        <f>D26/I8</f>
+        <v>6.1425855162356244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29">
+        <f>F8*B11*1000</f>
+        <v>34166733.119999997</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30">
+        <f>(B10*1000000)+(70005000*B11)</f>
+        <v>1533915000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31">
+        <f>B30/B29</f>
+        <v>44.894985851079227</v>
+      </c>
+      <c r="C31" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1795,80 +3142,283 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8D9EFC-D052-4551-86BD-609CA1895FF2}">
-  <dimension ref="A1:I6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1">
-        <v>2050</v>
-      </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>5024.28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1">
+        <v>1395.7449839999999</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1">
+        <v>33.335999999999999</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>1/110</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <f>9/(39.4*0.3)</f>
-        <v>0.76142131979695438</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D3">
-        <v>2050</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3">
-        <f>1.5/(39.444*0.3)</f>
-        <v>0.12676199168441335</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4">
+        <f>1000*D2</f>
+        <v>1100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4">
+        <f>600*D2</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>2974000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6">
+        <f>B6/(1000000*L10)</f>
+        <v>1239.0675412633659</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6">
+        <f>D6*D2</f>
+        <v>1362.9742953897025</v>
+      </c>
+      <c r="G6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8">
+        <v>0.22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+      <c r="K8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B8*(365*24*60*60)</f>
+        <v>6937920</v>
+      </c>
+      <c r="C9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>117</v>
+      <c r="J9">
+        <f>J8*(365*24*60*60)</f>
+        <v>630720</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9">
+        <f>J9*J1/1000000</f>
+        <v>21.025681919999997</v>
+      </c>
+      <c r="M9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>0.3*B9</f>
+        <v>2081376</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10">
+        <f>B10*B2/1000000</f>
+        <v>1.89216E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10">
+        <f>D10/D2</f>
+        <v>1.7201454545454544E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10">
+        <f>L9/8760</f>
+        <v>2.4001919999999998E-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>F10*1000000</f>
+        <v>17201.454545454544</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12">
+        <f>D10/L9</f>
+        <v>8.9992800575953936E-4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14">
+        <f>J1/B14</f>
+        <v>0.6410769230769231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16">
+        <v>15000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16">
+        <f>B16*D2/(1000000*L10)</f>
+        <v>6.8744500439964815</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19">
+        <f>L9*B4/1000</f>
+        <v>0.42051363839999994</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20">
+        <f>B6+(B16*B4)+(F11*B4)</f>
+        <v>3618029.0909090908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21">
+        <f>B20/B19</f>
+        <v>8603832.9331605602</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4EE17-D02A-4AC3-8CA1-11C61F263665}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F730DAAD-5F76-409C-A4C2-30821CBECAAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33780" yWindow="3360" windowWidth="11520" windowHeight="12360" firstSheet="5" activeTab="6" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Photocatalytic H2" sheetId="4" r:id="rId5"/>
     <sheet name="Kato_H2" sheetId="7" r:id="rId6"/>
     <sheet name="Keipi_SMR" sheetId="5" r:id="rId7"/>
-    <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId8"/>
+    <sheet name="KEIPI_CCSSMR" sheetId="9" r:id="rId8"/>
+    <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="214">
   <si>
     <t>H2 Method</t>
   </si>
@@ -665,6 +666,21 @@
   </si>
   <si>
     <t>added to make unit price match the paper</t>
+  </si>
+  <si>
+    <t>CCS cost</t>
+  </si>
+  <si>
+    <t>EUR/MWh-H2</t>
+  </si>
+  <si>
+    <t>CCS ELC</t>
+  </si>
+  <si>
+    <t>CCSELC</t>
+  </si>
+  <si>
+    <t>Total /yr</t>
   </si>
 </sst>
 </file>
@@ -809,11 +825,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1135,20 +1151,20 @@
       <selection activeCell="N8" sqref="N8:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -1189,7 +1205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2030</v>
       </c>
@@ -1203,7 +1219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2050</v>
       </c>
@@ -1218,10 +1234,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="J7" t="s">
         <v>104</v>
@@ -1259,7 +1275,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1297,7 +1313,7 @@
         <v>4.8029415295134311E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="C9" t="s">
         <v>40</v>
@@ -1330,7 +1346,7 @@
         <v>3.0302435280682926E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -1365,7 +1381,7 @@
         <v>3.7436445981853416E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1414,7 @@
         <v>0.11883889324915139</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="D13" s="7">
         <f>D12*K1</f>
@@ -1412,7 +1428,7 @@
         <v>0.18835986296837956</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" t="s">
         <v>49</v>
@@ -1429,7 +1445,7 @@
         <v>0.15246539588304808</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D15" s="6">
         <f>D14*K1</f>
         <v>19.416682200000004</v>
@@ -1438,7 +1454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1456,7 +1472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1471,7 +1487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1500,7 +1516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -1515,7 +1531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1533,7 +1549,7 @@
         <v>40.840000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -1551,7 +1567,7 @@
         <v>36.49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1574,26 +1590,26 @@
   <dimension ref="A2:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:N5"/>
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1630,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1635,7 +1651,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>123</v>
       </c>
@@ -1685,7 +1701,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>68</v>
       </c>
@@ -1701,7 +1717,7 @@
       <c r="L7" s="12"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
         <v>127</v>
       </c>
@@ -1719,7 +1735,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>122</v>
       </c>
@@ -1741,7 +1757,7 @@
       </c>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>B9*K2</f>
         <v>1690909.0909090908</v>
@@ -1763,10 +1779,10 @@
       <c r="G10" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="12">
         <f>L9/G5</f>
         <v>122583.35123523093</v>
@@ -1775,11 +1791,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J11" s="14" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="12">
         <f>M4*L10</f>
         <v>4086438.5967776584</v>
@@ -1795,7 +1811,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>144</v>
       </c>
@@ -1810,7 +1826,7 @@
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1840,7 +1856,7 @@
       </c>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -1890,7 +1906,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1907,7 +1923,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -1920,12 +1936,12 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -1937,7 +1953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>148</v>
       </c>
@@ -1950,7 +1966,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -1962,7 +1978,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -1980,7 +1996,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2009,7 +2025,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>154</v>
       </c>
@@ -2025,19 +2041,19 @@
         <v>1979999.1818181819</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G26">
         <f>F16*20</f>
         <v>258468265.45454544</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I27">
         <f>SUM(G24:G26)/(L10*20)</f>
         <v>106.92282886941211</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="G28">
         <f>SUM(G24:G26)/I24</f>
@@ -2047,7 +2063,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -2095,9 +2111,9 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -2111,7 +2127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -2135,23 +2151,23 @@
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="4" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2189,7 +2205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2315,7 +2331,7 @@
         <v>0.24122779924311022</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>0.90099124805827935</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2393,7 +2409,7 @@
         <v>0.54208059575265499</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +2439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>SUM(C5:C8)</f>
         <v>7.9537218387833093</v>
@@ -2441,7 +2457,7 @@
         <v>0.81726665976344592</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>70</v>
       </c>
@@ -2453,12 +2469,12 @@
         <v>0.44712301033802088</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2481,7 +2497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>55.5*0.277777778</f>
         <v>15.416666678999999</v>
@@ -2500,7 +2516,7 @@
         <v>0.44834159400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>82</v>
       </c>
@@ -2530,12 +2546,12 @@
       <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -2546,7 +2562,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>92</v>
       </c>
@@ -2561,7 +2577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>2050</v>
       </c>
@@ -2579,7 +2595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2590,7 +2606,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>110</v>
       </c>
@@ -2605,16 +2621,16 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>161</v>
       </c>
@@ -2625,12 +2641,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2657,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -2659,12 +2675,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +2688,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -2690,7 +2706,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -2710,22 +2726,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5DFEF8-915B-4056-B382-3EF1CD6D8429}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" s="5">
         <v>41.869</v>
       </c>
@@ -2749,7 +2765,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="10">
@@ -2765,7 +2781,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -2815,18 +2831,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>207</v>
       </c>
       <c r="C6">
         <v>0.65</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -2858,7 +2874,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>171</v>
       </c>
@@ -2884,7 +2900,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -2895,7 +2911,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>174</v>
       </c>
@@ -2915,7 +2931,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -2952,7 +2968,7 @@
         <v>1.1486621432696928E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -2976,10 +2992,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -2997,7 +3013,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -3008,7 +3024,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <f>B19*(365*24*60*60)</f>
         <v>378432000</v>
@@ -3017,7 +3033,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>B20*0.3</f>
         <v>113529600</v>
@@ -3040,7 +3056,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>186</v>
       </c>
@@ -3066,12 +3082,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>185</v>
       </c>
@@ -3097,10 +3113,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>192</v>
       </c>
@@ -3112,7 +3128,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>195</v>
       </c>
@@ -3124,7 +3140,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>197</v>
       </c>
@@ -3143,22 +3159,553 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA85B1-F75D-401E-9CDA-9DC2F24930C6}">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C1" s="5">
+        <v>41.869</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1">
+        <f>1/110</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="10">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>C3*C1</f>
+        <v>5024.28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3">
+        <f>C2*E3</f>
+        <v>1395.7449839999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3">
+        <f>C3*C2</f>
+        <v>33.335999999999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4">
+        <v>9.31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <f>C4/I3</f>
+        <v>0.27927765778737701</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <f>B8*(365*24*60*60)</f>
+        <v>78840000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8">
+        <f>(D8*I3*C6/(1000000))</f>
+        <v>1708.3366559999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8">
+        <f>F8/8760</f>
+        <v>0.19501559999999998</v>
+      </c>
+      <c r="J8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10">
+        <f>133815/1000</f>
+        <v>133.815</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10">
+        <f>B10/I8</f>
+        <v>686.17587516075639</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10">
+        <f>D10*I1</f>
+        <v>754.79346267683206</v>
+      </c>
+      <c r="G10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <f>61753*1000</f>
+        <v>61753000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14">
+        <f>B14/(D14*1000)</f>
+        <v>3087.65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <f>B14/(D14*1000)</f>
+        <v>3087.65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <f>F8/J15</f>
+        <v>7.7067866558804763</v>
+      </c>
+      <c r="N14">
+        <f>F8/(J15+J14)</f>
+        <v>0.5162203858341059</v>
+      </c>
+      <c r="O14">
+        <f>J15/J14</f>
+        <v>7.1791339714719973E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>1064000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="2">
+        <f>B15/(D15*1000)</f>
+        <v>35.466666666666669</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2">
+        <f>H15+F16</f>
+        <v>221.66653007015515</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16">
+        <v>186.19986340348848</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>1089000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17">
+        <f>B17/1000000</f>
+        <v>1.089</v>
+      </c>
+      <c r="E17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>B19*(365*24*60*60)</f>
+        <v>378432000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>B20*0.3</f>
+        <v>113529600</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <f>B21*G1/(1000000)</f>
+        <v>1.0320872727272727</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21">
+        <f>D21/I1</f>
+        <v>0.93826115702479329</v>
+      </c>
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23">
+        <f>(B14/1000000)+F21</f>
+        <v>62.69126115702479</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23">
+        <f>B23*I1</f>
+        <v>68.960387272727274</v>
+      </c>
+      <c r="E23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23">
+        <f>D23/F8</f>
+        <v>4.0366977451736702E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26">
+        <f>D17</f>
+        <v>1.089</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26">
+        <f>B26*I1</f>
+        <v>1.1979</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26">
+        <f>D26/I8</f>
+        <v>6.1425855162356244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29">
+        <f>F8*B11*1000</f>
+        <v>34166733.119999997</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30">
+        <f>(B10*1000000)+(70005000*B11)</f>
+        <v>1533915000</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31">
+        <f>B30/B29</f>
+        <v>44.894985851079227</v>
+      </c>
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <f>B33*F8</f>
+        <v>0.22720877524800001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35">
+        <v>14.95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f>B35*I1/1000</f>
+        <v>1.6445000000000001E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37">
+        <v>2950</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <f>B37*C2</f>
+        <v>819.51</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f>D37*B34</f>
+        <v>186.19986340348848</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -3186,8 +3733,14 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="10">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>1/110</f>
         <v>9.0909090909090905E-3</v>
@@ -3202,7 +3755,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3227,7 +3780,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>203</v>
       </c>
@@ -3252,7 +3805,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -3272,7 +3825,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <f>B8*(365*24*60*60)</f>
         <v>6937920</v>
@@ -3295,7 +3848,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>0.3*B9</f>
         <v>2081376</v>
@@ -3325,7 +3878,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F11">
         <f>F10*1000000</f>
         <v>17201.454545454544</v>
@@ -3334,7 +3887,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>206</v>
       </c>
@@ -3346,7 +3899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -3364,7 +3917,7 @@
         <v>0.6410769230769231</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>204</v>
       </c>
@@ -3382,12 +3935,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>192</v>
       </c>
@@ -3399,7 +3952,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>195</v>
       </c>
@@ -3408,7 +3961,7 @@
         <v>3618029.0909090908</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F730DAAD-5F76-409C-A4C2-30821CBECAAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD86F2AE-1E36-47A8-A619-6179D077983E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="216">
   <si>
     <t>H2 Method</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>Total /yr</t>
+  </si>
+  <si>
+    <t>CCS Efficiency</t>
+  </si>
+  <si>
+    <t>Captured CO2</t>
   </si>
 </sst>
 </file>
@@ -3160,10 +3166,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA85B1-F75D-401E-9CDA-9DC2F24930C6}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3270,416 +3276,428 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>207</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.65</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>168</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2.5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>169</v>
       </c>
-      <c r="D8">
-        <f>B8*(365*24*60*60)</f>
+      <c r="D9">
+        <f>B9*(365*24*60*60)</f>
         <v>78840000</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>116</v>
       </c>
-      <c r="F8">
-        <f>(D8*I3*C6/(1000000))</f>
+      <c r="F9">
+        <f>(D9*I3*C7/(1000000))</f>
         <v>1708.3366559999999</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>170</v>
       </c>
-      <c r="I8">
-        <f>F8/8760</f>
+      <c r="I9">
+        <f>F9/8760</f>
         <v>0.19501559999999998</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>133815/1000</f>
         <v>133.815</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>172</v>
       </c>
-      <c r="D10">
-        <f>B10/I8</f>
+      <c r="D11">
+        <f>B11/I9</f>
         <v>686.17587516075639</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>173</v>
       </c>
-      <c r="F10">
-        <f>D10*I1</f>
+      <c r="F11">
+        <f>D11*I1</f>
         <v>754.79346267683206</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M14" t="s">
         <v>201</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N14" t="s">
         <v>191</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>175</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f>61753*1000</f>
         <v>61753000</v>
       </c>
-      <c r="C14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14">
-        <f>B14/(D14*1000)</f>
-        <v>3087.65</v>
-      </c>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14">
-        <f>B14/(D14*1000)</f>
-        <v>3087.65</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <f>F8/J15</f>
-        <v>7.7067866558804763</v>
-      </c>
-      <c r="N14">
-        <f>F8/(J15+J14)</f>
-        <v>0.5162203858341059</v>
-      </c>
-      <c r="O14">
-        <f>J15/J14</f>
-        <v>7.1791339714719973E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15">
-        <v>1064000</v>
-      </c>
       <c r="C15" t="s">
         <v>178</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>180</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <f>B15/(D15*1000)</f>
-        <v>35.466666666666669</v>
+        <v>3087.65</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="2">
-        <f>H15+F16</f>
-        <v>221.66653007015515</v>
+      <c r="J15">
+        <f>B15/(D15*1000)</f>
+        <v>3087.65</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
       </c>
+      <c r="M15">
+        <f>F9/J16</f>
+        <v>8.4135224595267211</v>
+      </c>
+      <c r="N15">
+        <f>F9/(J16+J15)</f>
+        <v>0.51914135299261088</v>
+      </c>
+      <c r="O15">
+        <f>J16/J15</f>
+        <v>6.5760867886517679E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16">
-        <v>186.19986340348848</v>
-      </c>
-      <c r="G16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16">
+        <v>1064000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="2">
+        <f>B16/(D16*1000)</f>
+        <v>35.466666666666669</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2">
+        <f>H16+F17</f>
+        <v>203.0465437298063</v>
+      </c>
+      <c r="K16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17">
+        <f>B39</f>
+        <v>167.57987706313963</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>177</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1089000</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>178</v>
       </c>
-      <c r="D17">
-        <f>B17/1000000</f>
+      <c r="D18">
+        <f>B18/1000000</f>
         <v>1.089</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>181</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f>B19*(365*24*60*60)</f>
-        <v>378432000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21">
-        <f>B20*0.3</f>
+        <f>B20*(365*24*60*60)</f>
+        <v>378432000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>B21*0.3</f>
         <v>113529600</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>147</v>
       </c>
-      <c r="D21">
-        <f>B21*G1/(1000000)</f>
+      <c r="D22">
+        <f>B22*G1/(1000000)</f>
         <v>1.0320872727272727</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>182</v>
       </c>
-      <c r="F21">
-        <f>D21/I1</f>
+      <c r="F22">
+        <f>D22/I1</f>
         <v>0.93826115702479329</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B23">
-        <f>(B14/1000000)+F21</f>
+      <c r="B24">
+        <f>(B15/1000000)+F22</f>
         <v>62.69126115702479</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>184</v>
       </c>
-      <c r="D23">
-        <f>B23*I1</f>
+      <c r="D24">
+        <f>B24*I1</f>
         <v>68.960387272727274</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>182</v>
       </c>
-      <c r="F23">
-        <f>D23/F8</f>
+      <c r="F24">
+        <f>D24/F9</f>
         <v>4.0366977451736702E-2</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B26">
-        <f>D17</f>
+      <c r="B27">
+        <f>D18</f>
         <v>1.089</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>184</v>
       </c>
-      <c r="D26">
-        <f>B26*I1</f>
+      <c r="D27">
+        <f>B27*I1</f>
         <v>1.1979</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>182</v>
       </c>
-      <c r="F26">
-        <f>D26/I8</f>
+      <c r="F27">
+        <f>D27/I9</f>
         <v>6.1425855162356244</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29">
-        <f>F8*B11*1000</f>
-        <v>34166733.119999997</v>
-      </c>
-      <c r="C29" t="s">
-        <v>194</v>
-      </c>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B30">
-        <f>(B10*1000000)+(70005000*B11)</f>
-        <v>1533915000</v>
+        <f>F9*B12*1000</f>
+        <v>34166733.119999997</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31">
+        <f>(B11*1000000)+(70005000*B12)</f>
+        <v>1533915000</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B31">
-        <f>B30/B29</f>
+      <c r="B32">
+        <f>B31/B30</f>
         <v>44.894985851079227</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>1.3300000000000001E-4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <f>B33*F8</f>
-        <v>0.22720877524800001</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35">
+        <f>B34*F9*B5</f>
+        <v>0.2044878977232</v>
+      </c>
+      <c r="C35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>14.95</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <f>B35*I1/1000</f>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f>B36*I1/1000</f>
         <v>1.6445000000000001E-2</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>211</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>2950</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="D37">
-        <f>B37*C2</f>
+      <c r="D38">
+        <f>B38*C2</f>
         <v>819.51</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <f>D37*B34</f>
-        <v>186.19986340348848</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <f>D38*B35</f>
+        <v>167.57987706313963</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD86F2AE-1E36-47A8-A619-6179D077983E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192ABA5-BCB4-4D15-A6A9-C8189946C44B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="25995" yWindow="3600" windowWidth="21600" windowHeight="11325" firstSheet="5" activeTab="8" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="219">
   <si>
     <t>H2 Method</t>
   </si>
@@ -599,9 +599,6 @@
     <t>FixedOM</t>
   </si>
   <si>
-    <t>Total(w/o ELC)</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
@@ -687,6 +684,18 @@
   </si>
   <si>
     <t>Captured CO2</t>
+  </si>
+  <si>
+    <t>VAROM(w/o ELC)</t>
+  </si>
+  <si>
+    <t>other OM</t>
+  </si>
+  <si>
+    <t>Difference(CCS)</t>
+  </si>
+  <si>
+    <t>water+fuel+CCS material</t>
   </si>
 </sst>
 </file>
@@ -770,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,6 +789,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -836,6 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2733,12 +2749,12 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:XFD1048576"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -2839,13 +2855,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6">
         <v>0.65</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2877,7 +2893,7 @@
         <v>0.19501559999999998</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2898,12 +2914,12 @@
       <c r="E10" t="s">
         <v>173</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="17">
         <f>D10*I1</f>
         <v>754.79346267683206</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2914,7 +2930,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2925,16 +2941,16 @@
         <v>179</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" t="s">
         <v>189</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>190</v>
       </c>
-      <c r="J13" t="s">
-        <v>191</v>
-      </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2969,7 +2985,7 @@
         <f>F8/(F15+F14)</f>
         <v>0.54699738701190581</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="17">
         <f>F15/F14</f>
         <v>1.1486621432696928E-2</v>
       </c>
@@ -3064,7 +3080,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="B23">
         <f>(B14/1000000)+F21</f>
@@ -3080,7 +3096,7 @@
       <c r="E23" t="s">
         <v>182</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="17">
         <f>D23/F8</f>
         <v>4.0366977451736702E-2</v>
       </c>
@@ -3090,7 +3106,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3111,44 +3127,46 @@
       <c r="E26" t="s">
         <v>182</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="17">
         <f>D26/I8</f>
         <v>6.1425855162356244</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="15" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29">
         <f>F8*B11*1000</f>
         <v>34166733.119999997</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30">
         <f>(B10*1000000)+(70005000*B11)</f>
         <v>1533915000</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31">
         <f>B30/B29</f>
@@ -3166,10 +3184,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA85B1-F75D-401E-9CDA-9DC2F24930C6}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3186,7 +3204,7 @@
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" s="5">
         <v>41.869</v>
       </c>
@@ -3210,7 +3228,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="10">
@@ -3226,7 +3244,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3258,7 +3276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -3276,26 +3294,26 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C7">
-        <v>0.65</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -3314,46 +3332,45 @@
       </c>
       <c r="F9">
         <f>(D9*I3*C7/(1000000))</f>
-        <v>1708.3366559999999</v>
+        <v>1839.7471680000001</v>
       </c>
       <c r="G9" t="s">
         <v>170</v>
       </c>
       <c r="I9">
         <f>F9/8760</f>
-        <v>0.19501559999999998</v>
+        <v>0.2100168</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B11">
-        <f>133815/1000</f>
-        <v>133.815</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>172</v>
       </c>
       <c r="D11">
         <f>B11/I9</f>
-        <v>686.17587516075639</v>
+        <v>771.36686207960508</v>
       </c>
       <c r="E11" t="s">
         <v>173</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="17">
         <f>D11*I1</f>
-        <v>754.79346267683206</v>
+        <v>848.50354828756565</v>
       </c>
       <c r="G11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -3361,10 +3378,10 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>174</v>
       </c>
@@ -3372,28 +3389,19 @@
         <v>179</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="M14" t="s">
-        <v>201</v>
-      </c>
-      <c r="N14" t="s">
-        <v>191</v>
-      </c>
-      <c r="O14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>175</v>
       </c>
       <c r="B15">
-        <f>61753*1000</f>
-        <v>61753000</v>
+        <f>64546*1000</f>
+        <v>64546000</v>
       </c>
       <c r="C15" t="s">
         <v>178</v>
@@ -3406,32 +3414,20 @@
       </c>
       <c r="H15">
         <f>B15/(D15*1000)</f>
-        <v>3087.65</v>
+        <v>3227.3</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
       </c>
       <c r="J15">
         <f>B15/(D15*1000)</f>
-        <v>3087.65</v>
+        <v>3227.3</v>
       </c>
       <c r="K15" t="s">
         <v>35</v>
       </c>
-      <c r="M15">
-        <f>F9/J16</f>
-        <v>8.4135224595267211</v>
-      </c>
-      <c r="N15">
-        <f>F9/(J16+J15)</f>
-        <v>0.51914135299261088</v>
-      </c>
-      <c r="O15">
-        <f>J16/J15</f>
-        <v>6.5760867886517679E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3456,25 +3452,25 @@
       </c>
       <c r="J16" s="2">
         <f>H16+F17</f>
-        <v>203.0465437298063</v>
+        <v>215.93730350389399</v>
       </c>
       <c r="K16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17">
-        <f>B39</f>
-        <v>167.57987706313963</v>
+        <f>B40</f>
+        <v>180.47063683722732</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3492,212 +3488,254 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19">
+        <f>(97662-64546-2778-1064-1089)*1000</f>
+        <v>28185000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f>F9/J16</f>
+        <v>8.5198209764938735</v>
+      </c>
+      <c r="I20">
+        <f>F9/(J16+J15)</f>
+        <v>0.53430739906536318</v>
+      </c>
+      <c r="J20" s="17">
+        <f>J16/J15</f>
+        <v>6.6909584948376039E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>181</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <f>B20*(365*24*60*60)</f>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>B21*(365*24*60*60)</f>
         <v>378432000</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <f>B21*0.3</f>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>B22*0.3</f>
         <v>113529600</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>147</v>
       </c>
-      <c r="D22">
-        <f>B22*G1/(1000000)</f>
+      <c r="D23">
+        <f>B23*G1/(1000000)</f>
         <v>1.0320872727272727</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>182</v>
       </c>
-      <c r="F22">
-        <f>D22/I1</f>
+      <c r="F23">
+        <f>D23/I1</f>
         <v>0.93826115702479329</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24">
-        <f>(B15/1000000)+F22</f>
-        <v>62.69126115702479</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25">
+        <f>(B15/1000000)+F23</f>
+        <v>65.484261157024804</v>
+      </c>
+      <c r="C25" t="s">
         <v>184</v>
       </c>
-      <c r="D24">
-        <f>B24*I1</f>
-        <v>68.960387272727274</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D25">
+        <f>B25*I1</f>
+        <v>72.032687272727287</v>
+      </c>
+      <c r="E25" t="s">
         <v>182</v>
       </c>
-      <c r="F24">
-        <f>D24/F9</f>
-        <v>4.0366977451736702E-2</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F25" s="17">
+        <f>(D25/F9)+B38</f>
+        <v>5.5653579647052503E-2</v>
+      </c>
+      <c r="G25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <f>D18</f>
         <v>1.089</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>184</v>
       </c>
-      <c r="D27">
-        <f>B27*I1</f>
+      <c r="D28">
+        <f>B28*I1</f>
         <v>1.1979</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>182</v>
       </c>
-      <c r="F27">
-        <f>D27/I9</f>
-        <v>6.1425855162356244</v>
-      </c>
-      <c r="G27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30">
+      <c r="F28" s="17">
+        <f>D28/I9</f>
+        <v>5.7038294079330791</v>
+      </c>
+      <c r="G28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31">
         <f>F9*B12*1000</f>
-        <v>34166733.119999997</v>
-      </c>
-      <c r="C30" t="s">
+        <v>36794943.360000007</v>
+      </c>
+      <c r="C31" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B32">
+        <f>(B11*1000000)+(97662000*B12)</f>
+        <v>2115240000</v>
+      </c>
+      <c r="C32" t="s">
         <v>195</v>
       </c>
-      <c r="B31">
-        <f>(B11*1000000)+(70005000*B12)</f>
-        <v>1533915000</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32">
-        <f>B31/B30</f>
-        <v>44.894985851079227</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33">
+        <f>B32/B31</f>
+        <v>57.487247073723978</v>
+      </c>
+      <c r="C33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>1.3300000000000001E-4</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35">
-        <f>B34*F9*B5</f>
-        <v>0.2044878977232</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36">
+        <f>B35*F9*B5</f>
+        <v>0.22021773600960004</v>
+      </c>
+      <c r="C36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
         <v>209</v>
       </c>
-      <c r="B36">
-        <v>14.95</v>
-      </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="17">
+        <f>B37*I1/1000</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38">
+        <f>B38*F9*1000000/I1</f>
+        <v>27596207.52</v>
+      </c>
+      <c r="F38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <f>B36*I1/1000</f>
-        <v>1.6445000000000001E-2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38">
+      <c r="B39">
         <v>2950</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>51</v>
       </c>
-      <c r="D38">
-        <f>B38*C2</f>
+      <c r="D39">
+        <f>B39*C2</f>
         <v>819.51</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="3">
-        <f>D38*B35</f>
-        <v>167.57987706313963</v>
-      </c>
-      <c r="C39" s="3" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <f>D39*B36</f>
+        <v>180.47063683722732</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3711,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
@@ -3781,7 +3819,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>171</v>
@@ -3800,13 +3838,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>2974000</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6">
         <f>B6/(1000000*L10)</f>
@@ -3820,7 +3858,7 @@
         <v>1362.9742953897025</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3834,7 +3872,7 @@
         <v>169</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J8">
         <v>0.02</v>
@@ -3893,7 +3931,7 @@
         <v>2.4001919999999998E-3</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3907,7 +3945,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12">
         <f>D10/L9</f>
@@ -3928,7 +3966,7 @@
         <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J14">
         <f>J1/B14</f>
@@ -3937,7 +3975,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16">
         <v>15000</v>
@@ -3950,29 +3988,29 @@
         <v>6.8744500439964815</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19">
         <f>L9*B4/1000</f>
         <v>0.42051363839999994</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20">
         <f>B6+(B16*B4)+(F11*B4)</f>
@@ -3981,7 +4019,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21">
         <f>B20/B19</f>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F192ABA5-BCB4-4D15-A6A9-C8189946C44B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0D1D17-3A33-4C12-9C9A-3DE787AD042E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25995" yWindow="3600" windowWidth="21600" windowHeight="11325" firstSheet="5" activeTab="8" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="33165" yWindow="3345" windowWidth="13830" windowHeight="7170" firstSheet="4" activeTab="10" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="Keipi_SMR" sheetId="5" r:id="rId7"/>
     <sheet name="KEIPI_CCSSMR" sheetId="9" r:id="rId8"/>
     <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId9"/>
+    <sheet name="Simons_PEMFC" sheetId="10" r:id="rId10"/>
+    <sheet name="EIA_LCOE" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="241">
   <si>
     <t>H2 Method</t>
   </si>
@@ -696,6 +698,72 @@
   </si>
   <si>
     <t>water+fuel+CCS material</t>
+  </si>
+  <si>
+    <t>10y</t>
+  </si>
+  <si>
+    <t>Lifetime emissions</t>
+  </si>
+  <si>
+    <t>kg/kW</t>
+  </si>
+  <si>
+    <t>Total kWh over life</t>
+  </si>
+  <si>
+    <t>Emi coeff</t>
+  </si>
+  <si>
+    <t>gCO2/kWh</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>LCOE</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>Onshore</t>
+  </si>
+  <si>
+    <t>Offshore</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>WOFX</t>
+  </si>
+  <si>
+    <t>WOFL</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>g/H2</t>
+  </si>
+  <si>
+    <t>Net energy</t>
+  </si>
+  <si>
+    <t>ELCPVN17</t>
+  </si>
+  <si>
+    <t>LCoE</t>
+  </si>
+  <si>
+    <t>WOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -705,7 +773,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +846,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -823,11 +902,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -848,14 +928,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{0400114F-3974-41D3-B8FB-B111E4BDB3F4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1607,6 +1698,372 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8767C190-EC74-43BE-8FB1-1D4B5E66E226}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3">
+        <f>8760*10*0.5</f>
+        <v>43800</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4">
+        <f>C2*1000/C3</f>
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4">
+        <f>F2*1000/C3</f>
+        <v>0.34246575342465752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f>C4/1000000</f>
+        <v>5.7077625570776257E-7</v>
+      </c>
+      <c r="F5">
+        <f>F4/1000000</f>
+        <v>3.424657534246575E-7</v>
+      </c>
+      <c r="I5" s="18">
+        <f>942/1000000</f>
+        <v>9.4200000000000002E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AAF198-3247-41A0-820F-167859A4EE2B}">
+  <dimension ref="A3:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21">
+        <v>2040</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5">
+        <f>(B18+(25*C18))/(8760*0.2*25)</f>
+        <v>3.8510273972602739E-2</v>
+      </c>
+      <c r="C5">
+        <f>35.74/1000</f>
+        <v>3.5740000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <f>29.7/1000</f>
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <f>E5/C5</f>
+        <v>0.83100167879127029</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6">
+        <f>(B20+(25*C20))/(8760*0.4*25)</f>
+        <v>2.2539954337899543E-2</v>
+      </c>
+      <c r="C6">
+        <f>39.95/1000</f>
+        <v>3.9949999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <f>35.97/1000</f>
+        <v>3.5970000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <f>E6/C6</f>
+        <v>0.9003754693366709</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7">
+        <f>(B21+(25*C21))/(8760*0.44*20)</f>
+        <v>0.1061708696554587</v>
+      </c>
+      <c r="C7">
+        <f>122.25/1000</f>
+        <v>0.12225</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <f>85.53/1000</f>
+        <v>8.5529999999999995E-2</v>
+      </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <f>E7/C7</f>
+        <v>0.69963190184049073</v>
+      </c>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2040</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12">
+        <v>1307</v>
+      </c>
+      <c r="D12" s="16">
+        <f>B12*G5</f>
+        <v>1086.1191941801903</v>
+      </c>
+      <c r="E12" s="16">
+        <f>D12*G5</f>
+        <v>902.56687373115983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13">
+        <v>3454</v>
+      </c>
+      <c r="D13" s="16">
+        <f>G6*B13</f>
+        <v>3109.8968710888612</v>
+      </c>
+      <c r="E13" s="16">
+        <f>G6*D13</f>
+        <v>2800.0748548952779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14">
+        <v>7772.73</v>
+      </c>
+      <c r="D14" s="16">
+        <f>G7*B14</f>
+        <v>5438.0498723926376</v>
+      </c>
+      <c r="E14" s="16">
+        <f>D14*G7</f>
+        <v>3804.6331745254988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15">
+        <v>12897</v>
+      </c>
+      <c r="D15" s="16">
+        <f>G7*B15</f>
+        <v>9023.1526380368086</v>
+      </c>
+      <c r="E15" s="16">
+        <f>D15*G7</f>
+        <v>6312.8854407467334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18">
+        <v>1307</v>
+      </c>
+      <c r="C18">
+        <v>15.19</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20">
+        <v>1319</v>
+      </c>
+      <c r="C20">
+        <v>26.22</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21">
+        <v>5446</v>
+      </c>
+      <c r="C21">
+        <v>109.54</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47851EB-8A83-4629-AF5F-F0859B72869A}">
   <dimension ref="A2:P30"/>
@@ -1801,10 +2258,10 @@
       <c r="G10" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="12">
         <f>L9/G5</f>
         <v>122583.35123523093</v>
@@ -1814,10 +2271,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="12">
         <f>M4*L10</f>
         <v>4086438.5967776584</v>
@@ -2643,7 +3100,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2749,7 +3206,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H2" sqref="H2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,9 +3256,15 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2828,8 +3291,8 @@
         <v>114</v>
       </c>
       <c r="I3">
-        <f>C3*C2</f>
-        <v>33.335999999999999</v>
+        <f>(C3*C2)-I2</f>
+        <v>29.436</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -2847,7 +3310,7 @@
       </c>
       <c r="E4">
         <f>C4/I3</f>
-        <v>0.27927765778737701</v>
+        <v>0.31627938578611225</v>
       </c>
       <c r="F4" t="s">
         <v>125</v>
@@ -2883,14 +3346,14 @@
       </c>
       <c r="F8">
         <f>(D8*I3*C6/(1000000))</f>
-        <v>1708.3366559999999</v>
+        <v>1508.4772559999999</v>
       </c>
       <c r="G8" t="s">
         <v>170</v>
       </c>
       <c r="I8">
         <f>F8/8760</f>
-        <v>0.19501559999999998</v>
+        <v>0.17220059999999998</v>
       </c>
       <c r="J8" t="s">
         <v>186</v>
@@ -2909,14 +3372,14 @@
       </c>
       <c r="D10">
         <f>B10/I8</f>
-        <v>686.17587516075639</v>
+        <v>777.08788471120317</v>
       </c>
       <c r="E10" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f>D10*I1</f>
-        <v>754.79346267683206</v>
+        <v>854.79667318232362</v>
       </c>
       <c r="G10" t="s">
         <v>187</v>
@@ -2979,13 +3442,13 @@
       </c>
       <c r="I14">
         <f>F8/F15</f>
-        <v>48.167386917293229</v>
+        <v>42.532253458646615</v>
       </c>
       <c r="J14">
         <f>F8/(F15+F14)</f>
-        <v>0.54699738701190581</v>
-      </c>
-      <c r="K14" s="17">
+        <v>0.48300381221749639</v>
+      </c>
+      <c r="K14" s="16">
         <f>F15/F14</f>
         <v>1.1486621432696928E-2</v>
       </c>
@@ -3096,9 +3559,9 @@
       <c r="E23" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <f>D23/F8</f>
-        <v>4.0366977451736702E-2</v>
+        <v>4.5715231700336145E-2</v>
       </c>
       <c r="G23" t="s">
         <v>67</v>
@@ -3127,9 +3590,9 @@
       <c r="E26" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <f>D26/I8</f>
-        <v>6.1425855162356244</v>
+        <v>6.9564217546280336</v>
       </c>
       <c r="G26" t="s">
         <v>187</v>
@@ -3146,7 +3609,7 @@
       </c>
       <c r="B29">
         <f>F8*B11*1000</f>
-        <v>34166733.119999997</v>
+        <v>30169545.119999997</v>
       </c>
       <c r="C29" t="s">
         <v>193</v>
@@ -3170,7 +3633,7 @@
       </c>
       <c r="B31">
         <f>B30/B29</f>
-        <v>44.894985851079227</v>
+        <v>50.843159679697557</v>
       </c>
       <c r="C31" t="s">
         <v>180</v>
@@ -3362,7 +3825,7 @@
       <c r="E11" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <f>D11*I1</f>
         <v>848.50354828756565</v>
       </c>
@@ -3518,7 +3981,7 @@
         <f>F9/(J16+J15)</f>
         <v>0.53430739906536318</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="16">
         <f>J16/J15</f>
         <v>6.6909584948376039E-2</v>
       </c>
@@ -3584,7 +4047,7 @@
       <c r="E25" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <f>(D25/F9)+B38</f>
         <v>5.5653579647052503E-2</v>
       </c>
@@ -3615,7 +4078,7 @@
       <c r="E28" t="s">
         <v>182</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <f>D28/I9</f>
         <v>5.7038294079330791</v>
       </c>
@@ -3697,7 +4160,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <f>B37*I1/1000</f>
         <v>1.6500000000000001E-2</v>
       </c>
@@ -3747,10 +4210,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3810,6 +4273,28 @@
       <c r="E2" t="s">
         <v>183</v>
       </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <f>3.9</f>
+        <v>3.9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3">
+        <f>J1-J2</f>
+        <v>29.436</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3991,12 +4476,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>191</v>
       </c>
@@ -4008,7 +4493,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>194</v>
       </c>
@@ -4017,13 +4502,52 @@
         <v>3618029.0909090908</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B21">
         <f>B20/B19</f>
         <v>8603832.9331605602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24">
+        <v>2017</v>
+      </c>
+      <c r="C24">
+        <v>1160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24">
+        <f>C24/J3</f>
+        <v>39.407528196765867</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2050</v>
+      </c>
+      <c r="C25">
+        <v>480</v>
+      </c>
+      <c r="D25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25">
+        <f>C25/J3</f>
+        <v>16.306563391765184</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0D1D17-3A33-4C12-9C9A-3DE787AD042E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B096D-F042-435E-869B-F93B49E7F92D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33165" yWindow="3345" windowWidth="13830" windowHeight="7170" firstSheet="4" activeTab="10" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="32895" yWindow="4095" windowWidth="21600" windowHeight="11325" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
-    <sheet name="JHFC" sheetId="1" r:id="rId2"/>
-    <sheet name="Acar and Dincer" sheetId="6" r:id="rId3"/>
-    <sheet name="H2 Steam Reforming" sheetId="3" r:id="rId4"/>
-    <sheet name="Photocatalytic H2" sheetId="4" r:id="rId5"/>
-    <sheet name="Kato_H2" sheetId="7" r:id="rId6"/>
-    <sheet name="Keipi_SMR" sheetId="5" r:id="rId7"/>
-    <sheet name="KEIPI_CCSSMR" sheetId="9" r:id="rId8"/>
-    <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId9"/>
-    <sheet name="Simons_PEMFC" sheetId="10" r:id="rId10"/>
-    <sheet name="EIA_LCOE" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="JHFC" sheetId="1" r:id="rId3"/>
+    <sheet name="Acar and Dincer" sheetId="6" r:id="rId4"/>
+    <sheet name="H2 Steam Reforming" sheetId="3" r:id="rId5"/>
+    <sheet name="Photocatalytic H2" sheetId="4" r:id="rId6"/>
+    <sheet name="Kato_H2" sheetId="7" r:id="rId7"/>
+    <sheet name="Keipi_SMR" sheetId="5" r:id="rId8"/>
+    <sheet name="KEIPI_CCSSMR" sheetId="9" r:id="rId9"/>
+    <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId10"/>
+    <sheet name="Simons_PEMFC" sheetId="10" r:id="rId11"/>
+    <sheet name="EIA_LCOE" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="247">
   <si>
     <t>H2 Method</t>
   </si>
@@ -764,14 +765,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CCS Trend</t>
+  </si>
+  <si>
+    <t>example: Hadi</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>Total(Mt)</t>
+  </si>
+  <si>
+    <t>Value(Mt)</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000000E+00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -907,7 +927,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -929,14 +949,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1258,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,6 +1291,7 @@
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
@@ -1692,6 +1714,125 @@
         <v>18</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>2E-3</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <f>C29*$D$29</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2025</v>
+      </c>
+      <c r="C30">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E36" si="4">C30*$D$29</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2030</v>
+      </c>
+      <c r="C31">
+        <v>0.02</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2035</v>
+      </c>
+      <c r="C32">
+        <v>0.06</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2040</v>
+      </c>
+      <c r="C33">
+        <v>0.2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>2045</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2050</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>2100</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1699,6 +1840,354 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>5024.28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1">
+        <v>1395.7449839999999</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1">
+        <v>33.335999999999999</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="10">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <f>1/110</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <f>3.9</f>
+        <v>3.9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3">
+        <f>J1-J2</f>
+        <v>29.436</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4">
+        <f>1000*D2</f>
+        <v>1100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4">
+        <f>600*D2</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6">
+        <v>2974000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6">
+        <f>B6/(1000000*L10)</f>
+        <v>1239.0675412633659</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6">
+        <f>D6*D2</f>
+        <v>1362.9742953897025</v>
+      </c>
+      <c r="G6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8">
+        <v>0.22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+      <c r="K8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>B8*(365*24*60*60)</f>
+        <v>6937920</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9">
+        <f>J8*(365*24*60*60)</f>
+        <v>630720</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9">
+        <f>J9*J1/1000000</f>
+        <v>21.025681919999997</v>
+      </c>
+      <c r="M9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>0.3*B9</f>
+        <v>2081376</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10">
+        <f>B10*B2/1000000</f>
+        <v>1.89216E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10">
+        <f>D10/D2</f>
+        <v>1.7201454545454544E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10">
+        <f>L9/8760</f>
+        <v>2.4001919999999998E-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f>F10*1000000</f>
+        <v>17201.454545454544</v>
+      </c>
+      <c r="G11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12">
+        <f>D10/L9</f>
+        <v>8.9992800575953936E-4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <f>J1/B14</f>
+        <v>0.6410769230769231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16">
+        <v>15000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16">
+        <f>B16*D2/(1000000*L10)</f>
+        <v>6.8744500439964815</v>
+      </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19">
+        <f>L9*B4/1000</f>
+        <v>0.42051363839999994</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20">
+        <f>B6+(B16*B4)+(F11*B4)</f>
+        <v>3618029.0909090908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21">
+        <f>B20/B19</f>
+        <v>8603832.9331605602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24">
+        <v>2017</v>
+      </c>
+      <c r="C24">
+        <v>1160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24">
+        <f>C24/J3</f>
+        <v>39.407528196765867</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2050</v>
+      </c>
+      <c r="C25">
+        <v>480</v>
+      </c>
+      <c r="D25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25">
+        <f>C25/J3</f>
+        <v>16.306563391765184</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8767C190-EC74-43BE-8FB1-1D4B5E66E226}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1781,7 +2270,7 @@
         <f>F4/1000000</f>
         <v>3.424657534246575E-7</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <f>942/1000000</f>
         <v>9.4200000000000002E-4</v>
       </c>
@@ -1792,11 +2281,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AAF198-3247-41A0-820F-167859A4EE2B}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1809,19 +2298,19 @@
       <c r="B3" s="2">
         <v>2017</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>2025</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21">
+      <c r="D3" s="19"/>
+      <c r="E3" s="22">
         <v>2040</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="22"/>
       <c r="G3" t="s">
         <v>234</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1839,8 +2328,8 @@
       <c r="F4" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1868,8 +2357,8 @@
         <f>E5/C5</f>
         <v>0.83100167879127029</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1897,8 +2386,8 @@
         <f>E6/C6</f>
         <v>0.9003754693366709</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1926,7 +2415,7 @@
         <f>E7/C7</f>
         <v>0.69963190184049073</v>
       </c>
-      <c r="R7" s="19"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -2065,6 +2554,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6C6BEB-6091-4743-A766-86BDD24D0263}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47851EB-8A83-4629-AF5F-F0859B72869A}">
   <dimension ref="A2:P30"/>
   <sheetViews>
@@ -2258,10 +2759,10 @@
       <c r="G10" t="s">
         <v>139</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="12">
         <f>L9/G5</f>
         <v>122583.35123523093</v>
@@ -2271,10 +2772,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="12">
         <f>M4*L10</f>
         <v>4086438.5967776584</v>
@@ -2582,7 +3083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F6EB48-4038-4170-8B3C-AD75DD5549D7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2622,16 +3123,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26522F16-178D-4C9D-9097-E5B0FFBFDA90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
@@ -2640,8 +3142,7 @@
     <col min="10" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="15" max="16" width="16.33203125" customWidth="1"/>
     <col min="17" max="17" width="15.109375" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
@@ -2846,7 +3347,7 @@
       <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="20">
         <f>87/(1000000*0.27777)</f>
         <v>3.1320876984555567E-4</v>
       </c>
@@ -3017,7 +3518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8D9EFC-D052-4551-86BD-609CA1895FF2}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3095,7 +3596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E890F7-EE40-41D8-8D6F-926E6C8520D6}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -3201,7 +3702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5DFEF8-915B-4056-B382-3EF1CD6D8429}">
   <dimension ref="A1:K31"/>
   <sheetViews>
@@ -3645,7 +4146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA85B1-F75D-401E-9CDA-9DC2F24930C6}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -4206,352 +4707,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
-  <dimension ref="A1:N25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>120</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>5024.28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1">
-        <v>1395.7449839999999</v>
-      </c>
-      <c r="I1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1">
-        <v>33.335999999999999</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="10">
-        <v>0.27779999999999999</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <f>1/110</f>
-        <v>9.0909090909090905E-3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <f>3.9</f>
-        <v>3.9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I3" t="s">
-        <v>236</v>
-      </c>
-      <c r="J3">
-        <f>J1-J2</f>
-        <v>29.436</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4">
-        <f>1000*D2</f>
-        <v>1100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4">
-        <f>600*D2</f>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6">
-        <v>2974000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6">
-        <f>B6/(1000000*L10)</f>
-        <v>1239.0675412633659</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6">
-        <f>D6*D2</f>
-        <v>1362.9742953897025</v>
-      </c>
-      <c r="G6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8">
-        <v>0.22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8">
-        <v>0.02</v>
-      </c>
-      <c r="K8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f>B8*(365*24*60*60)</f>
-        <v>6937920</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9">
-        <f>J8*(365*24*60*60)</f>
-        <v>630720</v>
-      </c>
-      <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9">
-        <f>J9*J1/1000000</f>
-        <v>21.025681919999997</v>
-      </c>
-      <c r="M9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f>0.3*B9</f>
-        <v>2081376</v>
-      </c>
-      <c r="C10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10">
-        <f>B10*B2/1000000</f>
-        <v>1.89216E-2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10">
-        <f>D10/D2</f>
-        <v>1.7201454545454544E-2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10">
-        <f>L9/8760</f>
-        <v>2.4001919999999998E-3</v>
-      </c>
-      <c r="M10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F11">
-        <f>F10*1000000</f>
-        <v>17201.454545454544</v>
-      </c>
-      <c r="G11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12">
-        <f>D10/L9</f>
-        <v>8.9992800575953936E-4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" t="s">
-        <v>200</v>
-      </c>
-      <c r="J14">
-        <f>J1/B14</f>
-        <v>0.6410769230769231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16">
-        <v>15000</v>
-      </c>
-      <c r="C16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16">
-        <f>B16*D2/(1000000*L10)</f>
-        <v>6.8744500439964815</v>
-      </c>
-      <c r="E16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19">
-        <f>L9*B4/1000</f>
-        <v>0.42051363839999994</v>
-      </c>
-      <c r="C19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20">
-        <f>B6+(B16*B4)+(F11*B4)</f>
-        <v>3618029.0909090908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B21">
-        <f>B20/B19</f>
-        <v>8603832.9331605602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24">
-        <v>2017</v>
-      </c>
-      <c r="C24">
-        <v>1160</v>
-      </c>
-      <c r="D24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24">
-        <f>C24/J3</f>
-        <v>39.407528196765867</v>
-      </c>
-      <c r="F24" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>2050</v>
-      </c>
-      <c r="C25">
-        <v>480</v>
-      </c>
-      <c r="D25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25">
-        <f>C25/J3</f>
-        <v>16.306563391765184</v>
-      </c>
-      <c r="F25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B096D-F042-435E-869B-F93B49E7F92D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA52F9-A34D-4A12-A3B1-3237F833B882}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32895" yWindow="4095" windowWidth="21600" windowHeight="11325" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="34485" yWindow="3705" windowWidth="21600" windowHeight="11325" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS" sheetId="2" r:id="rId1"/>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1742,11 +1742,11 @@
         <v>2E-3</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E29">
         <f>C29*$D$29</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="E30">
         <f t="shared" ref="E30:E36" si="4">C30*$D$29</f>
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA52F9-A34D-4A12-A3B1-3237F833B882}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03AC8B-67F2-4E38-8C8B-B1C8D6D585AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34485" yWindow="3705" windowWidth="21600" windowHeight="11325" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="36405" yWindow="4095" windowWidth="17280" windowHeight="9060" firstSheet="1" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="CCS" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
-    <sheet name="JHFC" sheetId="1" r:id="rId3"/>
-    <sheet name="Acar and Dincer" sheetId="6" r:id="rId4"/>
-    <sheet name="H2 Steam Reforming" sheetId="3" r:id="rId5"/>
-    <sheet name="Photocatalytic H2" sheetId="4" r:id="rId6"/>
-    <sheet name="Kato_H2" sheetId="7" r:id="rId7"/>
-    <sheet name="Keipi_SMR" sheetId="5" r:id="rId8"/>
-    <sheet name="KEIPI_CCSSMR" sheetId="9" r:id="rId9"/>
-    <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId10"/>
-    <sheet name="Simons_PEMFC" sheetId="10" r:id="rId11"/>
-    <sheet name="EIA_LCOE" sheetId="11" r:id="rId12"/>
+    <sheet name="CCS_Kato" sheetId="2" r:id="rId1"/>
+    <sheet name="CCS_Rubin" sheetId="14" r:id="rId2"/>
+    <sheet name="CCS reservoir trends" sheetId="13" r:id="rId3"/>
+    <sheet name="JHFC" sheetId="1" r:id="rId4"/>
+    <sheet name="Acar and Dincer" sheetId="6" r:id="rId5"/>
+    <sheet name="H2 Steam Reforming" sheetId="3" r:id="rId6"/>
+    <sheet name="Photocatalytic H2" sheetId="4" r:id="rId7"/>
+    <sheet name="Kato_H2" sheetId="7" r:id="rId8"/>
+    <sheet name="Keipi_SMR" sheetId="5" r:id="rId9"/>
+    <sheet name="GARBAGE_KEIPI_CCSSMR" sheetId="9" r:id="rId10"/>
+    <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId11"/>
+    <sheet name="Simons_PEMFC" sheetId="10" r:id="rId12"/>
+    <sheet name="EIA_LCOE" sheetId="11" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="262">
   <si>
     <t>H2 Method</t>
   </si>
@@ -59,9 +61,6 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>DSCINV</t>
-  </si>
-  <si>
     <t>Comm IN</t>
   </si>
   <si>
@@ -92,12 +91,6 @@
     <t>CCU</t>
   </si>
   <si>
-    <t>2000 JPY/tCO2</t>
-  </si>
-  <si>
-    <t>1000 JPY/tCO2</t>
-  </si>
-  <si>
     <t>MUSD/Mt</t>
   </si>
   <si>
@@ -119,33 +112,9 @@
     <t>Injection</t>
   </si>
   <si>
-    <t>2800 JPY/t</t>
-  </si>
-  <si>
-    <t>800 JPY/t</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MUSD/Mt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t>Max Limit</t>
-  </si>
-  <si>
-    <t>Gt</t>
-  </si>
-  <si>
-    <t>monoethanolamine (MEA)</t>
-  </si>
-  <si>
     <t>JPY/USD</t>
   </si>
   <si>
-    <t>EXCLUDING ELC</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
@@ -161,66 +130,21 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>100km pipeline</t>
-  </si>
-  <si>
-    <t>1km pipeline</t>
-  </si>
-  <si>
     <t>kJ/t</t>
   </si>
   <si>
-    <t>for shipping</t>
-  </si>
-  <si>
-    <t>1km,w/o shipping</t>
-  </si>
-  <si>
-    <t>MJ/Mt</t>
-  </si>
-  <si>
     <t>1 MJ</t>
   </si>
   <si>
-    <t>Energy Cost</t>
-  </si>
-  <si>
     <t>Capture Cost</t>
   </si>
   <si>
     <t>Capture Cost Targets</t>
   </si>
   <si>
-    <t>1km pipe+ship</t>
-  </si>
-  <si>
-    <t>Mostly offshore</t>
-  </si>
-  <si>
     <t>MJ/tCO2</t>
   </si>
   <si>
-    <t>500 JPY/tCO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponds to </t>
-  </si>
-  <si>
-    <t>4200 JPY/t</t>
-  </si>
-  <si>
-    <t>Fixed Costs</t>
-  </si>
-  <si>
-    <t>Variable Cost</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>(Variable)</t>
-  </si>
-  <si>
     <t>Conversion factors</t>
   </si>
   <si>
@@ -347,27 +271,12 @@
     <t>LNG input only:</t>
   </si>
   <si>
-    <t>COA</t>
-  </si>
-  <si>
     <t>LNG</t>
   </si>
   <si>
-    <t>OIL</t>
-  </si>
-  <si>
     <t>Mt/GWh</t>
   </si>
   <si>
-    <t>CCS Penalty</t>
-  </si>
-  <si>
-    <t>Resid CO2(Mt)</t>
-  </si>
-  <si>
-    <t>New Emi(Mt/GWh)</t>
-  </si>
-  <si>
     <t>based on competitive cost of h2/elc projections</t>
   </si>
   <si>
@@ -783,6 +692,144 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>JPY/tCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JPY/t</t>
+  </si>
+  <si>
+    <t>Assumption = Capture/liquefaction plant is atmost 1km away</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Energy Penalty</t>
+  </si>
+  <si>
+    <t>Assuming EIA excludes pipeline cost</t>
+  </si>
+  <si>
+    <t>(affects CF)</t>
+  </si>
+  <si>
+    <t>EIA Numbers(90% CCS)</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>VOM</t>
+  </si>
+  <si>
+    <t>Base emission Coeff</t>
+  </si>
+  <si>
+    <t>LNG Surcharges</t>
+  </si>
+  <si>
+    <t>Ratio to 90%</t>
+  </si>
+  <si>
+    <t>Capture</t>
+  </si>
+  <si>
+    <t>CO2 Captured(Mt/GWh)</t>
+  </si>
+  <si>
+    <t>Capture Cost(MUSD/GWh)</t>
+  </si>
+  <si>
+    <t>New CF</t>
+  </si>
+  <si>
+    <t>(100km)</t>
+  </si>
+  <si>
+    <t>1km pipe</t>
+  </si>
+  <si>
+    <t>Inject+transport Costs</t>
+  </si>
+  <si>
+    <t>Total (excluding capture)</t>
+  </si>
+  <si>
+    <t>New VOM</t>
+  </si>
+  <si>
+    <t>USC Surcharges</t>
+  </si>
+  <si>
+    <t>SREF Surcharges</t>
+  </si>
+  <si>
+    <t>CO2 output</t>
+  </si>
+  <si>
+    <t>CO2 Captured</t>
+  </si>
+  <si>
+    <t>kg(lifetime)</t>
+  </si>
+  <si>
+    <t>Capture @ 90%</t>
+  </si>
+  <si>
+    <t>Transport to Capture</t>
+  </si>
+  <si>
+    <t>Efficiency Penalty 90%CCS</t>
+  </si>
+  <si>
+    <t>Pipeline 100k</t>
+  </si>
+  <si>
+    <t>GWh reqd for capture for 1 GWh output</t>
+  </si>
+  <si>
+    <t>GWh for 1 Mt CO2</t>
+  </si>
+  <si>
+    <t>Total Penalty</t>
+  </si>
+  <si>
+    <t>Net Production</t>
+  </si>
+  <si>
+    <t>Captured Mt CO2/GWh</t>
+  </si>
+  <si>
+    <t>GWh for capture/Mt</t>
+  </si>
+  <si>
+    <t>% (excluding cap/cap)</t>
+  </si>
+  <si>
+    <t>Capture Cost(GWh)</t>
+  </si>
+  <si>
+    <t>Remaining OP</t>
+  </si>
+  <si>
+    <t>CO2 Cap(Mt/GWh-gen)</t>
+  </si>
+  <si>
+    <t>Energy Ratio</t>
+  </si>
+  <si>
+    <t>Steam Reforming (0%CCS)</t>
+  </si>
+  <si>
+    <t>Eff</t>
+  </si>
+  <si>
+    <t>NewEFF</t>
+  </si>
+  <si>
+    <t>SREF +90% CCS</t>
   </si>
 </sst>
 </file>
@@ -878,7 +925,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +941,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +980,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,6 +1016,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1279,558 +1337,2200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="K1">
         <f>0.277778/1000000</f>
         <v>2.7777800000000004E-7</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1">
+        <f>1/110</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="J3" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <f>B5*$K$1/(0.000001)</f>
+        <v>1111.1120000000003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="J5">
+        <v>0.85</v>
+      </c>
+      <c r="K5">
+        <f>$B$31*J5</f>
+        <v>5.0914999999999999E-4</v>
+      </c>
+      <c r="L5">
+        <f>$D$15*K5</f>
+        <v>1.9440272727272726E-2</v>
+      </c>
+      <c r="M5">
+        <f>L5/$L$10</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="N5">
+        <f>K5*$B$11</f>
+        <v>0.57515610040229004</v>
+      </c>
+      <c r="O5">
+        <f>(1-N5)*0.55</f>
+        <v>0.23366414477874051</v>
+      </c>
+      <c r="P5">
+        <f>$B$18*K5</f>
+        <v>1.6663090909090909E-2</v>
+      </c>
+      <c r="Q5">
+        <f>($D$26*M5)+P5</f>
+        <v>2.2159757575757576E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6">
+        <v>14.7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D9" si="0">B6*$K$1/(0.000001)</f>
+        <v>4.0833366</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6">
+        <v>0.86</v>
+      </c>
+      <c r="K6">
+        <f>$B$31*J6</f>
+        <v>5.1513999999999998E-4</v>
+      </c>
+      <c r="L6">
+        <f>$D$15*K6</f>
+        <v>1.9668981818181816E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="1">L6/$L$10</f>
+        <v>0.95555555555555538</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N15" si="2">K6*$B$11</f>
+        <v>0.58192264275996408</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O15" si="3">(1-N6)*0.55</f>
+        <v>0.22994254648201978</v>
+      </c>
+      <c r="P6">
+        <f>$B$18*K6</f>
+        <v>1.6859127272727273E-2</v>
+      </c>
+      <c r="Q6">
+        <f>($D$26*M6)+P6</f>
+        <v>2.2420460606060604E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>14.7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.0833366</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7">
+        <v>0.87</v>
+      </c>
+      <c r="K7">
+        <f>$B$31*J7</f>
+        <v>5.2113000000000007E-4</v>
+      </c>
+      <c r="L7">
+        <f>$D$15*K7</f>
+        <v>1.9897690909090909E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.58868918511763824</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>0.22622094818529898</v>
+      </c>
+      <c r="P7">
+        <f>$B$18*K7</f>
+        <v>1.7055163636363637E-2</v>
+      </c>
+      <c r="Q7">
+        <f>($D$26*M7)+P7</f>
+        <v>2.2681163636363636E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>14.444456000000002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8">
+        <v>0.88</v>
+      </c>
+      <c r="K8">
+        <f>$B$31*J8</f>
+        <v>5.2712000000000006E-4</v>
+      </c>
+      <c r="L8">
+        <f>$D$15*K8</f>
+        <v>2.0126400000000003E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.97777777777777786</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.59545572747531217</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>0.22249934988857833</v>
+      </c>
+      <c r="P8">
+        <f>$B$18*K8</f>
+        <v>1.7251200000000001E-2</v>
+      </c>
+      <c r="Q8">
+        <f>($D$26*M8)+P8</f>
+        <v>2.2941866666666668E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.88888960000000017</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>0.89</v>
+      </c>
+      <c r="K9">
+        <f>$B$31*J9</f>
+        <v>5.3311000000000005E-4</v>
+      </c>
+      <c r="L9">
+        <f>$D$15*K9</f>
+        <v>2.0355109090909092E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.60222226983298621</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0.21877775159185761</v>
+      </c>
+      <c r="P9">
+        <f>$B$18*K9</f>
+        <v>1.7447236363636365E-2</v>
+      </c>
+      <c r="Q9">
+        <f>($D$26*M9)+P9</f>
+        <v>2.3202569696969697E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B5+B6+B8</f>
+        <v>4066.7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>0.9</v>
+      </c>
+      <c r="K10">
+        <f>$B$31*J10</f>
+        <v>5.3910000000000004E-4</v>
+      </c>
+      <c r="L10">
+        <f>$D$15*K10</f>
+        <v>2.0583818181818182E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0.60898881219066014</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.21505615329513694</v>
+      </c>
+      <c r="P10">
+        <f>$B$18*K10</f>
+        <v>1.764327272727273E-2</v>
+      </c>
+      <c r="Q10">
+        <f>($D$26*M10)+P10</f>
+        <v>2.3463272727272728E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f>B10*K1/(0.000001)</f>
+        <v>1129.6397926000002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="J11">
+        <v>0.91</v>
+      </c>
+      <c r="K11">
+        <f>$B$31*J11</f>
+        <v>5.4509000000000003E-4</v>
+      </c>
+      <c r="L11">
+        <f>$D$15*K11</f>
+        <v>2.0812527272727272E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>0.61575535454833419</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.21133455499841622</v>
+      </c>
+      <c r="P11">
+        <f>$B$18*K11</f>
+        <v>1.783930909090909E-2</v>
+      </c>
+      <c r="Q11">
+        <f>($D$26*M11)+P11</f>
+        <v>2.3723975757575757E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12">
+        <f>(B9+B8+B6)/B5</f>
+        <v>1.7475000000000001E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.92</v>
+      </c>
+      <c r="K12">
+        <f>$B$31*J12</f>
+        <v>5.5108000000000002E-4</v>
+      </c>
+      <c r="L12">
+        <f>$D$15*K12</f>
+        <v>2.1041236363636362E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1.0222222222222221</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.62252189690600812</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.20761295670169555</v>
+      </c>
+      <c r="P12">
+        <f>$B$18*K12</f>
+        <v>1.8035345454545455E-2</v>
+      </c>
+      <c r="Q12">
+        <f>($D$26*M12)+P12</f>
+        <v>2.3984678787878785E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>0.93</v>
+      </c>
+      <c r="K13">
+        <f>$B$31*J13</f>
+        <v>5.5707E-4</v>
+      </c>
+      <c r="L13">
+        <f>$D$15*K13</f>
+        <v>2.1269945454545455E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.62928843926368216</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.20389135840497483</v>
+      </c>
+      <c r="P13">
+        <f>$B$18*K13</f>
+        <v>1.8231381818181819E-2</v>
+      </c>
+      <c r="Q13">
+        <f>($D$26*M13)+P13</f>
+        <v>2.4245381818181817E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>0.94</v>
+      </c>
+      <c r="K14">
+        <f>$B$31*J14</f>
+        <v>5.6305999999999999E-4</v>
+      </c>
+      <c r="L14">
+        <f>$D$15*K14</f>
+        <v>2.1498654545454545E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.6360549816213561</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>0.20016976010825416</v>
+      </c>
+      <c r="P14">
+        <f>$B$18*K14</f>
+        <v>1.842741818181818E-2</v>
+      </c>
+      <c r="Q14">
+        <f>($D$26*M14)+P14</f>
+        <v>2.4506084848484846E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15">
+        <v>4200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15">
+        <f>B15*$O$1</f>
+        <v>38.18181818181818</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>0.95</v>
+      </c>
+      <c r="K15">
+        <f>$B$31*J15</f>
+        <v>5.6904999999999998E-4</v>
+      </c>
+      <c r="L15">
+        <f>$D$15*K15</f>
+        <v>2.1727363636363635E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.64282152397903014</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0.19644816181153343</v>
+      </c>
+      <c r="P15">
+        <f>$B$18*K15</f>
+        <v>1.8623454545454544E-2</v>
+      </c>
+      <c r="Q15">
+        <f>($D$26*M15)+P15</f>
+        <v>2.4766787878787874E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D17" si="4">B16*$O$1</f>
+        <v>25.454545454545453</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>800</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>7.2727272727272725</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="2">
+        <f>(B16+B17)*O1</f>
+        <v>32.727272727272727</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>0.85</v>
+      </c>
+      <c r="K19">
+        <f>$B$30*J19</f>
+        <v>8.007E-4</v>
+      </c>
+      <c r="L19">
+        <f>$D$15*K19</f>
+        <v>3.0572181818181818E-2</v>
+      </c>
+      <c r="M19">
+        <f>L19/$L$24</f>
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="N19">
+        <f>K19*$B$11</f>
+        <v>0.90450258193482014</v>
+      </c>
+      <c r="O19">
+        <f>(1-N19)*0.55</f>
+        <v>5.2523579935848927E-2</v>
+      </c>
+      <c r="P19">
+        <f>$B$18*K19</f>
+        <v>2.6204727272727272E-2</v>
+      </c>
+      <c r="Q19">
+        <f>($D$26*M19)+P19</f>
+        <v>3.1701393939393939E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20">
+        <v>2000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>0.86</v>
+      </c>
+      <c r="K20">
+        <f>$B$30*J20</f>
+        <v>8.1012E-4</v>
+      </c>
+      <c r="L20">
+        <f>$D$15*K20</f>
+        <v>3.0931854545454544E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M29" si="5">L20/$L$24</f>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N29" si="6">K20*$B$11</f>
+        <v>0.91514378878111213</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O29" si="7">(1-N20)*0.55</f>
+        <v>4.6670916170388328E-2</v>
+      </c>
+      <c r="P20">
+        <f>$B$18*K20</f>
+        <v>2.6513018181818181E-2</v>
+      </c>
+      <c r="Q20">
+        <f>($D$26*M20)+P20</f>
+        <v>3.2074351515151513E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2030</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>0.87</v>
+      </c>
+      <c r="K21">
+        <f>$B$30*J21</f>
+        <v>8.1954E-4</v>
+      </c>
+      <c r="L21">
+        <f>$D$15*K21</f>
+        <v>3.1291527272727271E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0.92578499562740413</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>4.081825240492773E-2</v>
+      </c>
+      <c r="P21">
+        <f>$B$18*K21</f>
+        <v>2.6821309090909091E-2</v>
+      </c>
+      <c r="Q21">
+        <f>($D$26*M21)+P21</f>
+        <v>3.2447309090909093E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>2050</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <f>500*O1</f>
+        <v>4.545454545454545</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>0.88</v>
+      </c>
+      <c r="K22">
+        <f>$B$30*J22</f>
+        <v>8.2896000000000001E-4</v>
+      </c>
+      <c r="L22">
+        <f>$D$15*K22</f>
+        <v>3.1651199999999997E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.97777777777777786</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0.93642620247369612</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>3.4965588639467138E-2</v>
+      </c>
+      <c r="P22">
+        <f>$B$18*K22</f>
+        <v>2.71296E-2</v>
+      </c>
+      <c r="Q22">
+        <f>($D$26*M22)+P22</f>
+        <v>3.2820266666666667E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="J23">
+        <v>0.89</v>
+      </c>
+      <c r="K23">
+        <f>$B$30*J23</f>
+        <v>8.3838000000000001E-4</v>
+      </c>
+      <c r="L23">
+        <f>$D$15*K23</f>
+        <v>3.2010872727272724E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0.94706740931998812</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>2.9112924874006536E-2</v>
+      </c>
+      <c r="P23">
+        <f>$B$18*K23</f>
+        <v>2.743789090909091E-2</v>
+      </c>
+      <c r="Q23">
+        <f>($D$26*M23)+P23</f>
+        <v>3.3193224242424241E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+      <c r="K24">
+        <f>$B$30*J24</f>
+        <v>8.4780000000000001E-4</v>
+      </c>
+      <c r="L24">
+        <f>$D$15*K24</f>
+        <v>3.237054545454545E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>0.95770861616628022</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>2.3260261108545878E-2</v>
+      </c>
+      <c r="P24">
+        <f>$B$18*K24</f>
+        <v>2.7746181818181819E-2</v>
+      </c>
+      <c r="Q24">
+        <f>($D$26*M24)+P24</f>
+        <v>3.3566181818181821E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="23">
+        <v>5997</v>
+      </c>
+      <c r="C25" s="23">
+        <v>59.29</v>
+      </c>
+      <c r="D25" s="23">
+        <f>10.93*1000/1000000</f>
+        <v>1.093E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.91</v>
+      </c>
+      <c r="K25">
+        <f>$B$30*J25</f>
+        <v>8.5722000000000001E-4</v>
+      </c>
+      <c r="L25">
+        <f>$D$15*K25</f>
+        <v>3.2730218181818184E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>1.0111111111111113</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0.96834982301257222</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>1.7407597343085279E-2</v>
+      </c>
+      <c r="P25">
+        <f>$B$18*K25</f>
+        <v>2.8054472727272729E-2</v>
+      </c>
+      <c r="Q25">
+        <f>($D$26*M25)+P25</f>
+        <v>3.3939139393939395E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="23">
+        <v>2569</v>
+      </c>
+      <c r="C26" s="23">
+        <v>27.48</v>
+      </c>
+      <c r="D26" s="23">
+        <f>5.82*1000/1000000</f>
+        <v>5.8199999999999997E-3</v>
+      </c>
+      <c r="J26">
+        <v>0.92</v>
+      </c>
+      <c r="K26">
+        <f>$B$30*J26</f>
+        <v>8.6664000000000001E-4</v>
+      </c>
+      <c r="L26">
+        <f>$D$15*K26</f>
+        <v>3.308989090909091E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0.97899102985886421</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>1.1554933577624682E-2</v>
+      </c>
+      <c r="P26">
+        <f>$B$18*K26</f>
+        <v>2.8362763636363635E-2</v>
+      </c>
+      <c r="Q26">
+        <f>($D$26*M26)+P26</f>
+        <v>3.4312096969696969E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="23">
+        <v>848.5</v>
+      </c>
+      <c r="C27" s="23">
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="D27" s="23">
+        <v>5.57E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.93</v>
+      </c>
+      <c r="K27">
+        <f>$B$30*J27</f>
+        <v>8.7606000000000001E-4</v>
+      </c>
+      <c r="L27">
+        <f>$D$15*K27</f>
+        <v>3.3449563636363637E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>0.98963223670515621</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>5.7022698121640854E-3</v>
+      </c>
+      <c r="P27">
+        <f>$B$18*K27</f>
+        <v>2.8671054545454544E-2</v>
+      </c>
+      <c r="Q27">
+        <f>($D$26*M27)+P27</f>
+        <v>3.4685054545454543E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="J28">
+        <v>0.94</v>
+      </c>
+      <c r="K28">
+        <f>$B$30*J28</f>
+        <v>8.8548000000000001E-4</v>
+      </c>
+      <c r="L28">
+        <f>$D$15*K28</f>
+        <v>3.3809236363636364E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>1.0002734435514482</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>-1.5039395329651263E-4</v>
+      </c>
+      <c r="P28">
+        <f>$B$18*K28</f>
+        <v>2.8979345454545453E-2</v>
+      </c>
+      <c r="Q28">
+        <f>($D$26*M28)+P28</f>
+        <v>3.5058012121212123E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29">
+        <v>0.95</v>
+      </c>
+      <c r="K29">
+        <f>$B$30*J29</f>
+        <v>8.9490000000000001E-4</v>
+      </c>
+      <c r="L29">
+        <f>$D$15*K29</f>
+        <v>3.416890909090909E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>1.0109146503977402</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>-6.0030577187571103E-3</v>
+      </c>
+      <c r="P29">
+        <f>$B$18*K29</f>
+        <v>2.9287636363636363E-2</v>
+      </c>
+      <c r="Q29">
+        <f>($D$26*M29)+P29</f>
+        <v>3.5430969696969697E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="24">
+        <f>942/1000000</f>
+        <v>9.4200000000000002E-4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="24">
+        <f>599/1000000</f>
+        <v>5.9900000000000003E-4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="24">
+        <f>313/1000000</f>
+        <v>3.1300000000000002E-4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>0.85</v>
+      </c>
+      <c r="K33">
+        <f>$B$32*J33</f>
+        <v>2.6604999999999999E-4</v>
+      </c>
+      <c r="L33">
+        <f>$D$15*K33</f>
+        <v>1.0158272727272726E-2</v>
+      </c>
+      <c r="M33">
+        <f>L33/$L$38</f>
+        <v>0.94444444444444431</v>
+      </c>
+      <c r="N33">
+        <f>K33*$B$11</f>
+        <v>0.30054066682123004</v>
+      </c>
+      <c r="O33">
+        <f>(1-N33)*0.547</f>
+        <v>0.38260425524878722</v>
+      </c>
+      <c r="P33">
+        <f>$B$18*K33</f>
+        <v>8.7070909090909091E-3</v>
+      </c>
+      <c r="Q33">
+        <f>($D$27*M33)+P33</f>
+        <v>6.1312646464646452E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>0.86</v>
+      </c>
+      <c r="K34">
+        <f>$B$32*J34</f>
+        <v>2.6917999999999999E-4</v>
+      </c>
+      <c r="L34">
+        <f>$D$15*K34</f>
+        <v>1.0277781818181817E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ref="M34:M43" si="8">L34/$L$38</f>
+        <v>0.95555555555555538</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N43" si="9">K34*$B$11</f>
+        <v>0.30407643937206802</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:O43" si="10">(1-N34)*0.547</f>
+        <v>0.38067018766347877</v>
+      </c>
+      <c r="P34">
+        <f>$B$18*K34</f>
+        <v>8.8095272727272723E-3</v>
+      </c>
+      <c r="Q34">
+        <f>($D$27*M34)+P34</f>
+        <v>6.2033971717171704E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>0.87</v>
+      </c>
+      <c r="K35">
+        <f>$B$32*J35</f>
+        <v>2.7231E-4</v>
+      </c>
+      <c r="L35">
+        <f>$D$15*K35</f>
+        <v>1.0397290909090908E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="8"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>0.30761221192290605</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="10"/>
+        <v>0.37873612007817037</v>
+      </c>
+      <c r="P35">
+        <f>$B$18*K35</f>
+        <v>8.9119636363636356E-3</v>
+      </c>
+      <c r="Q35">
+        <f>($D$27*M35)+P35</f>
+        <v>6.2755296969696964E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>0.88</v>
+      </c>
+      <c r="K36">
+        <f>$B$32*J36</f>
+        <v>2.7544000000000001E-4</v>
+      </c>
+      <c r="L36">
+        <f>$D$15*K36</f>
+        <v>1.05168E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="8"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="9"/>
+        <v>0.31114798447374403</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>0.37680205249286203</v>
+      </c>
+      <c r="P36">
+        <f>$B$18*K36</f>
+        <v>9.0144000000000005E-3</v>
+      </c>
+      <c r="Q36">
+        <f>($D$27*M36)+P36</f>
+        <v>6.3476622222222223E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>0.89</v>
+      </c>
+      <c r="K37">
+        <f>$B$32*J37</f>
+        <v>2.7857000000000001E-4</v>
+      </c>
+      <c r="L37">
+        <f>$D$15*K37</f>
+        <v>1.0636309090909091E-2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="8"/>
+        <v>0.98888888888888882</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>0.31468375702458207</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>0.37486798490755363</v>
+      </c>
+      <c r="P37">
+        <f>$B$18*K37</f>
+        <v>9.1168363636363638E-3</v>
+      </c>
+      <c r="Q37">
+        <f>($D$27*M37)+P37</f>
+        <v>6.4197947474747469E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>0.9</v>
+      </c>
+      <c r="K38">
+        <f>$B$32*J38</f>
+        <v>2.8170000000000002E-4</v>
+      </c>
+      <c r="L38">
+        <f>$D$15*K38</f>
+        <v>1.0755818181818182E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>0.31821952957542005</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>0.37293391732224529</v>
+      </c>
+      <c r="P38">
+        <f>$B$18*K38</f>
+        <v>9.219272727272727E-3</v>
+      </c>
+      <c r="Q38">
+        <f>($D$27*M38)+P38</f>
+        <v>6.4919272727272728E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>0.91</v>
+      </c>
+      <c r="K39">
+        <f>$B$32*J39</f>
+        <v>2.8483000000000002E-4</v>
+      </c>
+      <c r="L39">
+        <f>$D$15*K39</f>
+        <v>1.0875327272727274E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="8"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>0.32175530212625808</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>0.37099984973693689</v>
+      </c>
+      <c r="P39">
+        <f>$B$18*K39</f>
+        <v>9.321709090909092E-3</v>
+      </c>
+      <c r="Q39">
+        <f>($D$27*M39)+P39</f>
+        <v>6.5640597979797974E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>0.92</v>
+      </c>
+      <c r="K40">
+        <f>$B$32*J40</f>
+        <v>2.8796000000000003E-4</v>
+      </c>
+      <c r="L40">
+        <f>$D$15*K40</f>
+        <v>1.0994836363636365E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="8"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="9"/>
+        <v>0.32529107467709606</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="10"/>
+        <v>0.3690657821516285</v>
+      </c>
+      <c r="P40">
+        <f>$B$18*K40</f>
+        <v>9.4241454545454552E-3</v>
+      </c>
+      <c r="Q40">
+        <f>($D$27*M40)+P40</f>
+        <v>6.6361923232323247E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>0.93</v>
+      </c>
+      <c r="K41">
+        <f>$B$32*J41</f>
+        <v>2.9109000000000003E-4</v>
+      </c>
+      <c r="L41">
+        <f>$D$15*K41</f>
+        <v>1.1114345454545455E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="8"/>
+        <v>1.0333333333333332</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="9"/>
+        <v>0.32882684722793409</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>0.3671317145663201</v>
+      </c>
+      <c r="P41">
+        <f>$B$18*K41</f>
+        <v>9.5265818181818184E-3</v>
+      </c>
+      <c r="Q41">
+        <f>($D$27*M41)+P41</f>
+        <v>6.7083248484848479E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>0.94</v>
+      </c>
+      <c r="K42">
+        <f>$B$32*J42</f>
+        <v>2.9421999999999999E-4</v>
+      </c>
+      <c r="L42">
+        <f>$D$15*K42</f>
+        <v>1.1233854545454544E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="8"/>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>0.33236261977877202</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>0.36519764698101176</v>
+      </c>
+      <c r="P42">
+        <f>$B$18*K42</f>
+        <v>9.6290181818181816E-3</v>
+      </c>
+      <c r="Q42">
+        <f>($D$27*M42)+P42</f>
+        <v>6.7804573737373725E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>0.95</v>
+      </c>
+      <c r="K43">
+        <f>$B$32*J43</f>
+        <v>2.9734999999999999E-4</v>
+      </c>
+      <c r="L43">
+        <f>$D$15*K43</f>
+        <v>1.1353363636363635E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="8"/>
+        <v>1.0555555555555554</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>0.33589839232961005</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>0.36326357939570331</v>
+      </c>
+      <c r="P43">
+        <f>$B$18*K43</f>
+        <v>9.7314545454545449E-3</v>
+      </c>
+      <c r="Q43">
+        <f>($D$27*M43)+P43</f>
+        <v>6.8525898989898984E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J31:Q31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA85B1-F75D-401E-9CDA-9DC2F24930C6}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="5">
+        <v>41.869</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="G1">
+        <f>1/110</f>
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="10">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>C3*C1</f>
+        <v>5024.28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <f>C2*E3</f>
+        <v>1395.7449839999999</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3">
+        <f>C3*C2</f>
+        <v>33.335999999999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>9.31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <f>C4/I3</f>
+        <v>0.27927765778737701</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7">
+        <v>0.65</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9">
+        <f>B9*(365*24*60*60)</f>
+        <v>78840000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9">
+        <f>($D$9*I3*C7/(1000000))</f>
+        <v>1708.3366559999999</v>
+      </c>
+      <c r="G9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9">
+        <f>F9/8760</f>
+        <v>0.19501559999999998</v>
+      </c>
+      <c r="J9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D11" si="0">B10*(365*24*60*60)</f>
+        <v>346896000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <f>D10*20</f>
+        <v>6937920000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>441504000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <f>D11*B15</f>
+        <v>8830080000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12">
+        <f>F11/(F11+F10)</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <f>B14/I9</f>
+        <v>830.70277454726704</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="16">
+        <f>D14*I1</f>
+        <v>913.77305200199385</v>
+      </c>
+      <c r="G14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18">
+        <f>64546*1000</f>
+        <v>64546000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18">
+        <f>B18/(D18*1000)</f>
+        <v>3227.3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18">
+        <f>B18/(D18*1000)</f>
+        <v>3227.3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19">
+        <v>1064000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="2">
+        <f>B19/(D19*1000)</f>
+        <v>35.466666666666669</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2">
+        <f>H19+F20</f>
+        <v>429.84637734909302</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20">
+        <f>B43</f>
+        <v>394.37971068242638</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21">
+        <v>1089000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21">
+        <f>B21/1000000</f>
+        <v>1.089</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22">
+        <f>(97662-64546-2778-1064-1089)*1000</f>
+        <v>28185000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f>F9/J19</f>
+        <v>3.9742958089713083</v>
+      </c>
+      <c r="I23">
+        <f>F9/(J19+J18)</f>
+        <v>0.46712285474290999</v>
+      </c>
+      <c r="J23" s="16">
+        <f>J19/J18</f>
+        <v>0.13319070967963714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>B24*(365*24*60*60)</f>
+        <v>378432000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>B25*0.3</f>
+        <v>113529600</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26">
+        <f>B26*G1/(1000000)</f>
+        <v>1.0320872727272727</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26">
+        <f>D26/I1</f>
+        <v>0.93826115702479329</v>
+      </c>
+      <c r="G26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28">
+        <f>(B18/1000000)+F26</f>
+        <v>65.484261157024804</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28">
+        <f>B28*I1</f>
+        <v>72.032687272727287</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="16">
+        <f>(D28/F9)+B41</f>
+        <v>5.8665393466056544E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <f>D21</f>
+        <v>1.089</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31">
+        <f>B31*I1</f>
+        <v>1.1979</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="16">
+        <f>D31/I9</f>
+        <v>6.1425855162356244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34">
+        <f>F9*B15*1000</f>
+        <v>34166733.119999997</v>
+      </c>
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35">
+        <f>(B14*1000000)+(97662000*B15)</f>
+        <v>2115240000</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36">
+        <f>B35/B34</f>
+        <v>61.909343002471992</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38">
+        <v>3.1300000000000002E-4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39">
+        <f>B38*F9*B5</f>
+        <v>0.48123843599520005</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="16">
+        <f>B40*I1/1000</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <f>B41*F9*1000000/I1</f>
+        <v>25625049.84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42">
+        <v>2950</v>
+      </c>
+      <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="O1">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <v>2020</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2030</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2050</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4">
-        <f>500*O1</f>
-        <v>4.45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>4000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="J7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8">
-        <v>14.7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="9">
-        <v>9.4300000000000004E-4</v>
-      </c>
-      <c r="K8" s="9">
-        <f>1/J8</f>
-        <v>1060.4453870625662</v>
-      </c>
-      <c r="L8" s="9">
-        <f>K8-$D$15</f>
-        <v>1041.0287048625662</v>
-      </c>
-      <c r="M8">
-        <v>0.05</v>
-      </c>
-      <c r="N8" s="9">
-        <f>M8/L8</f>
-        <v>4.8029415295134311E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>14.7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="9">
-        <v>5.9900000000000003E-4</v>
-      </c>
-      <c r="K9" s="9">
-        <f t="shared" ref="K9:K10" si="0">1/J9</f>
-        <v>1669.4490818030049</v>
-      </c>
-      <c r="L9" s="9">
-        <f t="shared" ref="L9:L10" si="1">K9-$D$15</f>
-        <v>1650.0323996030049</v>
-      </c>
-      <c r="M9">
-        <v>0.05</v>
-      </c>
-      <c r="N9" s="9">
-        <f t="shared" ref="N9:N10" si="2">M9/L9</f>
-        <v>3.0302435280682926E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="9">
-        <v>7.3800000000000005E-4</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="0"/>
-        <v>1355.0135501355012</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="1"/>
-        <v>1335.5968679355012</v>
-      </c>
-      <c r="M10">
-        <v>0.05</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" si="2"/>
-        <v>3.7436445981853416E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="D42">
+        <f>B42*C2</f>
+        <v>819.51</v>
+      </c>
+      <c r="E42" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
-        <v>3.2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12">
-        <f>(D9+D11)*1000000</f>
-        <v>17900000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="9">
-        <f>L8/8760</f>
-        <v>0.11883889324915139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="D13" s="7">
-        <f>D12*K1</f>
-        <v>4.9722262000000006</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" ref="L13:L14" si="3">L9/8760</f>
-        <v>0.18835986296837956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="7">
-        <f>D12+(D10*1000000)</f>
-        <v>69900000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="3"/>
-        <v>0.15246539588304808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D15" s="6">
-        <f>D14*K1</f>
-        <v>19.416682200000004</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
+        <f>D42*B39</f>
+        <v>394.37971068242638</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <f>2800*0.0089</f>
-        <v>24.919999999999998</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <f>800*0.0089</f>
-        <v>7.12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19">
-        <f>E17+E18</f>
-        <v>32.04</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>156</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
-        <f>D15</f>
-        <v>19.416682200000004</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>2030</v>
-      </c>
-      <c r="G24">
-        <f>E19+E3</f>
-        <v>40.840000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>2050</v>
-      </c>
-      <c r="G25">
-        <f>E19+E4</f>
-        <v>36.49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26">
-        <f>E19</f>
-        <v>32.04</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29">
-        <v>2020</v>
-      </c>
-      <c r="C29">
-        <v>2E-3</v>
-      </c>
-      <c r="D29">
-        <v>400</v>
-      </c>
-      <c r="E29">
-        <f>C29*$D$29</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>2025</v>
-      </c>
-      <c r="C30">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ref="E30:E36" si="4">C30*$D$29</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>2030</v>
-      </c>
-      <c r="C31">
-        <v>0.02</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>2035</v>
-      </c>
-      <c r="C32">
-        <v>0.06</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>2040</v>
-      </c>
-      <c r="C33">
-        <v>0.2</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>2045</v>
-      </c>
-      <c r="C34">
-        <v>0.5</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>2050</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>2100</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="4"/>
-        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +3539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -1869,13 +3569,13 @@
         <v>5024.28</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="H1">
         <v>1395.7449839999999</v>
       </c>
       <c r="I1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="J1">
         <v>33.335999999999999</v>
@@ -1887,7 +3587,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1896,16 +3596,16 @@
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>1.1000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <f>3.9</f>
@@ -1917,7 +3617,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="J3">
         <f>J1-J2</f>
@@ -1929,23 +3629,23 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <f>1000*D2</f>
         <v>1100</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="G4">
         <f>600*D2</f>
@@ -1954,47 +3654,47 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B6">
         <v>2974000</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D6">
         <f>B6/(1000000*L10)</f>
         <v>1239.0675412633659</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <f>D6*D2</f>
         <v>1362.9742953897025</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>0.22</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="J8">
         <v>0.02</v>
       </c>
       <c r="K8" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -2003,21 +3703,21 @@
         <v>6937920</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <f>J8*(365*24*60*60)</f>
         <v>630720</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L9">
         <f>J9*J1/1000000</f>
         <v>21.025681919999997</v>
       </c>
       <c r="M9" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -2026,28 +3726,28 @@
         <v>2081376</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <f>B10*B2/1000000</f>
         <v>1.89216E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <f>D10/D2</f>
         <v>1.7201454545454544E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="L10">
         <f>L9/8760</f>
         <v>2.4001919999999998E-3</v>
       </c>
       <c r="M10" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -2056,33 +3756,33 @@
         <v>17201.454545454544</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <f>D10/L9</f>
         <v>8.9992800575953936E-4</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B14">
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="J14">
         <f>J1/B14</f>
@@ -2091,42 +3791,42 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B16">
         <v>15000</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D16">
         <f>B16*D2/(1000000*L10)</f>
         <v>6.8744500439964815</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B19">
         <f>L9*B4/1000</f>
         <v>0.42051363839999994</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B20">
         <f>B6+(B16*B4)+(F11*B4)</f>
@@ -2135,7 +3835,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B21">
         <f>B20/B19</f>
@@ -2144,7 +3844,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -2153,14 +3853,14 @@
         <v>1160</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="E24">
         <f>C24/J3</f>
         <v>39.407528196765867</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2171,14 +3871,14 @@
         <v>480</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="E25">
         <f>C25/J3</f>
         <v>16.306563391765184</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2187,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8767C190-EC74-43BE-8FB1-1D4B5E66E226}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -2203,10 +3903,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="D1">
         <v>2020</v>
@@ -2217,44 +3917,44 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="F2">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C3">
         <f>8760*10*0.5</f>
         <v>43800</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C4">
         <f>C2*1000/C3</f>
         <v>0.57077625570776258</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="F4">
         <f>F2*1000/C3</f>
@@ -2281,7 +3981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AAF198-3247-41A0-820F-167859A4EE2B}">
   <dimension ref="A3:R21"/>
   <sheetViews>
@@ -2307,33 +4007,33 @@
       </c>
       <c r="F3" s="22"/>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B5">
         <f>(B18+(25*C18))/(8760*0.2*25)</f>
@@ -2362,7 +4062,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="B6">
         <f>(B20+(25*C20))/(8760*0.4*25)</f>
@@ -2391,7 +4091,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="B7">
         <f>(B21+(25*C21))/(8760*0.44*20)</f>
@@ -2419,7 +4119,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="B11" s="2">
         <v>2017</v>
@@ -2436,7 +4136,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B12">
         <v>1307</v>
@@ -2452,7 +4152,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B13">
         <v>3454</v>
@@ -2468,7 +4168,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="B14">
         <v>7772.73</v>
@@ -2484,7 +4184,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B15">
         <v>12897</v>
@@ -2500,12 +4200,12 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B18">
         <v>1307</v>
@@ -2519,7 +4219,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B20">
         <v>1319</v>
@@ -2533,7 +4233,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B21">
         <v>5446</v>
@@ -2553,11 +4253,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6C6BEB-6091-4743-A766-86BDD24D0263}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2565,7 +4267,1529 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B25EB-4023-477D-80C4-74718858ACC8}">
+  <dimension ref="A1:P43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1">
+        <f>0.277778/1000000</f>
+        <v>2.7777800000000004E-7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4">
+        <v>0.18</v>
+      </c>
+      <c r="C4">
+        <f>0.55/(1+B4)</f>
+        <v>0.46610169491525427</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="J5">
+        <v>0.85</v>
+      </c>
+      <c r="K5">
+        <f>$B$36*J5</f>
+        <v>3.0600000000000001E-4</v>
+      </c>
+      <c r="L5">
+        <f>K5*$B$12</f>
+        <v>0.1759415047532</v>
+      </c>
+      <c r="M5">
+        <f>L5/$L$10</f>
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N9" si="0">$B$15/M5</f>
+        <v>0.46181170262583526</v>
+      </c>
+      <c r="O5">
+        <f>$B$21*K5</f>
+        <v>1.0014545454545455E-2</v>
+      </c>
+      <c r="P5">
+        <f>($D$30)+O5</f>
+        <v>1.5834545454545455E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6">
+        <v>0.18</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6">
+        <v>0.86</v>
+      </c>
+      <c r="K6">
+        <f>$B$36*J6</f>
+        <v>3.0959999999999999E-4</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L15" si="1">K6*$B$12</f>
+        <v>0.17801140480911998</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="2">L6/$L$10</f>
+        <v>0.95555555555555549</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.45644179910693028</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O15" si="3">$B$21*K6</f>
+        <v>1.0132363636363636E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P15" si="4">($D$30)+O6</f>
+        <v>1.5952363636363636E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>B36*0.9</f>
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="C7">
+        <f>0.9*B35</f>
+        <v>8.4780000000000001E-4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7">
+        <v>0.87</v>
+      </c>
+      <c r="K7">
+        <f>$B$36*J7</f>
+        <v>3.1320000000000002E-4</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.18008130486504001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.451195341645931</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>1.0250181818181818E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>1.6070181818181817E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B6/B7</f>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="C8">
+        <f>C6/C7</f>
+        <v>294.88086812927577</v>
+      </c>
+      <c r="E8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8">
+        <v>0.88</v>
+      </c>
+      <c r="K8">
+        <f>$B$36*J8</f>
+        <v>3.168E-4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.18215120492095999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.44606812185450007</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>1.0368E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>1.6188000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4.0833366</v>
+      </c>
+      <c r="C9">
+        <v>4.0833366</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J9">
+        <v>0.89</v>
+      </c>
+      <c r="K9">
+        <f>$B$36*J9</f>
+        <v>3.2040000000000004E-4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.18422110497688002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0.98888888888888904</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.44105612048534826</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>1.0485818181818183E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>1.6305818181818182E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>14.444456000000002</v>
+      </c>
+      <c r="C10">
+        <v>14.444456000000002</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>0.9</v>
+      </c>
+      <c r="K10">
+        <f>$B$36*J10</f>
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.18629100503279999</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>$B$15/M10</f>
+        <v>0.43615549692440003</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>1.0603636363636364E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>1.6423636363636362E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.88888960000000017</v>
+      </c>
+      <c r="C11">
+        <v>0.88888960000000017</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>0.91</v>
+      </c>
+      <c r="K11">
+        <f>$B$36*J11</f>
+        <v>3.2760000000000005E-4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.18836090508872003</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1.0111111111111113</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N15" si="5">$B$15/M11</f>
+        <v>0.43136257937578015</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>1.0721454545454546E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>1.6541454545454547E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B8:B11)</f>
+        <v>574.97223775555551</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C8:C11)</f>
+        <v>314.29755032927579</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>0.92</v>
+      </c>
+      <c r="K12">
+        <f>$B$36*J12</f>
+        <v>3.3120000000000003E-4</v>
+      </c>
+      <c r="L12">
+        <f>K12*$B$12</f>
+        <v>0.19043080514464</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0.42667385568691302</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>1.0839272727272729E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>1.6659272727272727E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13">
+        <f>1/B36</f>
+        <v>2777.7777777777778</v>
+      </c>
+      <c r="C13">
+        <f>1/B35</f>
+        <v>1061.5711252653928</v>
+      </c>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13">
+        <v>0.93</v>
+      </c>
+      <c r="K13">
+        <f>$B$36*J13</f>
+        <v>3.3480000000000006E-4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.19250070520056001</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>0.42208596476554838</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>1.0957090909090911E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>1.6777090909090912E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14">
+        <f>(B13-B12)/B13</f>
+        <v>0.79300999440800002</v>
+      </c>
+      <c r="C14">
+        <f>(C13-C12)/C13</f>
+        <v>0.70393170758982226</v>
+      </c>
+      <c r="J14">
+        <v>0.94</v>
+      </c>
+      <c r="K14">
+        <f>$B$36*J14</f>
+        <v>3.3839999999999999E-4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.19457060525647998</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>0.41759568854463841</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>1.107490909090909E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>1.6894909090909089E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15">
+        <f>0.55*B14</f>
+        <v>0.43615549692440003</v>
+      </c>
+      <c r="C15">
+        <f>0.55*C14</f>
+        <v>0.3871624391744023</v>
+      </c>
+      <c r="J15">
+        <v>0.95</v>
+      </c>
+      <c r="K15">
+        <f>$B$36*J15</f>
+        <v>3.4200000000000002E-4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.19664050531239999</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0.41319994445469477</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>1.1192727272727273E-2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>1.7012727272727273E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="J17" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>25.454545454545453</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>0.85</v>
+      </c>
+      <c r="K19">
+        <f>$B$35*J19</f>
+        <v>8.007E-4</v>
+      </c>
+      <c r="L19">
+        <f>K19*$C$12</f>
+        <v>0.25165804854865115</v>
+      </c>
+      <c r="M19">
+        <f>L19/$L$24</f>
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N23" si="6">$C$15/M19</f>
+        <v>0.40993670030230828</v>
+      </c>
+      <c r="O19">
+        <f>$B$21*K19</f>
+        <v>2.6204727272727272E-2</v>
+      </c>
+      <c r="P19">
+        <f>($D$29)+O19</f>
+        <v>3.7134727272727271E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>7.2727272727272725</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>0.86</v>
+      </c>
+      <c r="K20">
+        <f>$B$35*J20</f>
+        <v>8.1012E-4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L29" si="7">K20*$C$12</f>
+        <v>0.25461873147275288</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M29" si="8">L20/$L$24</f>
+        <v>0.95555555555555538</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0.4051699944848397</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ref="O20:O29" si="9">$B$21*K20</f>
+        <v>2.6513018181818181E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:P29" si="10">($D$29)+O20</f>
+        <v>3.744301818181818E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="2">
+        <f>(B19+B20)</f>
+        <v>32.727272727272727</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>0.87</v>
+      </c>
+      <c r="K21">
+        <f>$B$35*J21</f>
+        <v>8.1954E-4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="7"/>
+        <v>0.25757941439685467</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0.4005128681114507</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>2.6821309090909091E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="10"/>
+        <v>3.775130909090909E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22">
+        <f>B21/B18</f>
+        <v>0.40909090909090906</v>
+      </c>
+      <c r="J22">
+        <v>0.88</v>
+      </c>
+      <c r="K22">
+        <f>$B$35*J22</f>
+        <v>8.2896000000000001E-4</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>0.26054009732095645</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0.39596158551927507</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>2.71296E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="10"/>
+        <v>3.8059599999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23">
+        <v>0.89</v>
+      </c>
+      <c r="K23">
+        <f>$B$35*J23</f>
+        <v>8.3838000000000001E-4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>0.26350078024505824</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>0.98888888888888882</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0.39151257894040686</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>2.743789090909091E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="10"/>
+        <v>3.8367890909090908E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24">
+        <v>2000</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+      <c r="K24">
+        <f>$B$35*J24</f>
+        <v>8.4780000000000001E-4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="7"/>
+        <v>0.26646146316916003</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f>$C$15/M24</f>
+        <v>0.3871624391744023</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>2.7746181818181819E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>3.8676181818181818E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2030</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>0.91</v>
+      </c>
+      <c r="K25">
+        <f>$B$35*J25</f>
+        <v>8.5722000000000001E-4</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="7"/>
+        <v>0.26942214609326182</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N29" si="11">$C$15/M25</f>
+        <v>0.38290790687578252</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>2.8054472727272729E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>3.8984472727272727E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>2050</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="J26">
+        <v>0.92</v>
+      </c>
+      <c r="K26">
+        <f>$B$35*J26</f>
+        <v>8.6664000000000001E-4</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="7"/>
+        <v>0.2723828290173636</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="11"/>
+        <v>0.37874586440974134</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>2.8362763636363635E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="10"/>
+        <v>3.9292763636363637E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="J27">
+        <v>0.93</v>
+      </c>
+      <c r="K27">
+        <f>$B$35*J27</f>
+        <v>8.7606000000000001E-4</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="7"/>
+        <v>0.27534351194146534</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>1.0333333333333332</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="11"/>
+        <v>0.37467332823329258</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>2.8671054545454544E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="10"/>
+        <v>3.9601054545454546E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28">
+        <v>0.94</v>
+      </c>
+      <c r="K28">
+        <f>$B$35*J28</f>
+        <v>8.8548000000000001E-4</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>0.27830419486556712</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>0.37068744176272567</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="9"/>
+        <v>2.8979345454545453E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="10"/>
+        <v>3.9909345454545456E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="23">
+        <v>5997</v>
+      </c>
+      <c r="C29" s="23">
+        <v>59.29</v>
+      </c>
+      <c r="D29" s="23">
+        <f>10.93*1000/1000000</f>
+        <v>1.093E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.95</v>
+      </c>
+      <c r="K29">
+        <f>$B$35*J29</f>
+        <v>8.9490000000000001E-4</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="7"/>
+        <v>0.28126487778966891</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>0.366785468691539</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="9"/>
+        <v>2.9287636363636363E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="10"/>
+        <v>4.0217636363636365E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="23">
+        <v>2569</v>
+      </c>
+      <c r="C30" s="23">
+        <v>27.48</v>
+      </c>
+      <c r="D30" s="23">
+        <f>5.82*1000/1000000</f>
+        <v>5.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="23">
+        <v>854.8</v>
+      </c>
+      <c r="C31" s="23">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="E31">
+        <v>0.48300381221749639</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="2">
+        <f>2*B31</f>
+        <v>1709.6</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>0.85</v>
+      </c>
+      <c r="K33">
+        <f>$B$37*J33</f>
+        <v>2.6604999999999999E-4</v>
+      </c>
+      <c r="L33">
+        <f>K33*$B$12</f>
+        <v>0.15297136385486554</v>
+      </c>
+      <c r="N33">
+        <f>$E$31-L33</f>
+        <v>0.33003244836263085</v>
+      </c>
+      <c r="O33">
+        <f>$B$21*K33</f>
+        <v>8.7070909090909091E-3</v>
+      </c>
+      <c r="P33">
+        <f>($D$31)+O33</f>
+        <v>0.46870709090909091</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34">
+        <v>0.86</v>
+      </c>
+      <c r="K34">
+        <f>$B$37*J34</f>
+        <v>2.6917999999999999E-4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L43" si="12">K34*$B$12</f>
+        <v>0.15477102695904044</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N43" si="13">$E$31-L34</f>
+        <v>0.32823278525845595</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:O43" si="14">$B$21*K34</f>
+        <v>8.8095272727272723E-3</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P43" si="15">($D$31)+O34</f>
+        <v>0.46880952727272729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="24">
+        <f>942/1000000</f>
+        <v>9.4200000000000002E-4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35">
+        <v>0.87</v>
+      </c>
+      <c r="K35">
+        <f>$B$37*J35</f>
+        <v>2.7231E-4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>0.15657069006321533</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="13"/>
+        <v>0.32643312215428105</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="14"/>
+        <v>8.9119636363636356E-3</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="15"/>
+        <v>0.46891196363636367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="24">
+        <f>360/1000000</f>
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36">
+        <v>0.88</v>
+      </c>
+      <c r="K36">
+        <f>$B$37*J36</f>
+        <v>2.7544000000000001E-4</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="12"/>
+        <v>0.1583703531673902</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="13"/>
+        <v>0.32463345905010621</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="14"/>
+        <v>9.0144000000000005E-3</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="15"/>
+        <v>0.4690144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="24">
+        <f>313/1000000</f>
+        <v>3.1300000000000002E-4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37">
+        <v>0.89</v>
+      </c>
+      <c r="K37">
+        <f>$B$37*J37</f>
+        <v>2.7857000000000001E-4</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="12"/>
+        <v>0.1601700162715651</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="13"/>
+        <v>0.32283379594593131</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="14"/>
+        <v>9.1168363636363638E-3</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="15"/>
+        <v>0.46911683636363638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>0.9</v>
+      </c>
+      <c r="K38">
+        <f>$B$37*J38</f>
+        <v>2.8170000000000002E-4</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="12"/>
+        <v>0.16196967937574</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="13"/>
+        <v>0.32103413284175641</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="14"/>
+        <v>9.219272727272727E-3</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="15"/>
+        <v>0.46921927272727276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>0.91</v>
+      </c>
+      <c r="K39">
+        <f>$B$37*J39</f>
+        <v>2.8483000000000002E-4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="12"/>
+        <v>0.1637693424799149</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="13"/>
+        <v>0.31923446973758152</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="14"/>
+        <v>9.321709090909092E-3</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="15"/>
+        <v>0.46932170909090909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>0.92</v>
+      </c>
+      <c r="K40">
+        <f>$B$37*J40</f>
+        <v>2.8796000000000003E-4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="12"/>
+        <v>0.16556900558408977</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="13"/>
+        <v>0.31743480663340662</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="14"/>
+        <v>9.4241454545454552E-3</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="15"/>
+        <v>0.46942414545454547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>0.93</v>
+      </c>
+      <c r="K41">
+        <f>$B$37*J41</f>
+        <v>2.9109000000000003E-4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="12"/>
+        <v>0.16736866868826467</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="13"/>
+        <v>0.31563514352923172</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="14"/>
+        <v>9.5265818181818184E-3</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="15"/>
+        <v>0.46952658181818185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>0.94</v>
+      </c>
+      <c r="K42">
+        <f>$B$37*J42</f>
+        <v>2.9421999999999999E-4</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="12"/>
+        <v>0.16916833179243954</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="13"/>
+        <v>0.31383548042505682</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="14"/>
+        <v>9.6290181818181816E-3</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="15"/>
+        <v>0.46962901818181818</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>0.95</v>
+      </c>
+      <c r="K43">
+        <f>$B$37*J43</f>
+        <v>2.9734999999999999E-4</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="12"/>
+        <v>0.17096799489661443</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="13"/>
+        <v>0.31203581732088193</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="14"/>
+        <v>9.7314545454545449E-3</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="15"/>
+        <v>0.46973145454545456</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J31:P31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E99103-379C-4E88-98A5-B1002B4232D6}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
+        <f>C2*$D$2</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2025</v>
+      </c>
+      <c r="C3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <f>C3*$D$2</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2030</v>
+      </c>
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <f>C4*$D$2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2035</v>
+      </c>
+      <c r="C5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <f>C5*$D$2</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2040</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <f>C6*$D$2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2045</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <f>C7*$D$2</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2050</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>C8*$D$2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2100</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>C9*$D$2</f>
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47851EB-8A83-4629-AF5F-F0859B72869A}">
   <dimension ref="A2:P30"/>
   <sheetViews>
@@ -2591,23 +5815,23 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="5">
         <v>41.869</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="K2">
         <f>1/110</f>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -2621,7 +5845,7 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -2646,14 +5870,14 @@
         <v>5024.28</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <f>G3*I4</f>
         <v>1395.7449839999999</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="M4">
         <f>G4*G3</f>
@@ -2665,75 +5889,75 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G5">
         <v>9.31</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="I5">
         <f>G5/M4</f>
         <v>0.27927765778737701</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L7" s="12"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="L8" s="12">
         <v>1538396</v>
       </c>
       <c r="M8" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="N8" s="12">
         <f>G2*L8</f>
         <v>64411102.123999998</v>
       </c>
       <c r="O8" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <f>186*1000000</f>
         <v>186000000</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="L9" s="12">
         <v>1141251</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="P9" s="11"/>
     </row>
@@ -2743,24 +5967,24 @@
         <v>1690909.0909090908</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <f>B10/L11</f>
         <v>0.41378551295067767</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <f>B10/N11</f>
         <v>3624.7610934479362</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="12">
@@ -2768,12 +5992,12 @@
         <v>122583.35123523093</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J11" s="21" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="12">
@@ -2781,25 +6005,25 @@
         <v>4086438.5967776584</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="N11" s="12">
         <f>L11/8760</f>
         <v>466.48842428968703</v>
       </c>
       <c r="O11" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="L12" s="12">
         <v>1</v>
@@ -2808,27 +6032,27 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>441890</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D13" s="12">
         <f>114*B13</f>
         <v>50375460</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F13" s="12">
         <f>D13*$K$2</f>
         <v>457958.72727272724</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="H13" s="12">
         <f>B13*53*G3</f>
@@ -2838,57 +6062,57 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B14">
         <v>3428000</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D14" s="12">
         <f>300*B14</f>
         <v>1028400000</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" ref="F14:F15" si="0">D14*$K$2</f>
         <v>9349090.9090909082</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <v>1714000</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D15" s="12">
         <f>B15*200</f>
         <v>342800000</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>3116363.6363636362</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1"/>
       <c r="D16" s="12">
@@ -2900,99 +6124,99 @@
         <v>12923413.272727272</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <f>F16/L11</f>
         <v>3.1625125317967502</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <f>7000000*1.5</f>
         <v>10500000</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <f>0.03*B9/20</f>
         <v>279000</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B22">
         <f>0.0077*0.55*B9/20</f>
         <v>39385.5</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="B23">
         <f>0.014*0.55*B9/20</f>
         <v>71610.000000000015</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>10889995.5</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D24">
         <f>B24*K2</f>
         <v>98999.959090909091</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="G24">
         <v>1690909.0909090908</v>
@@ -3002,19 +6226,19 @@
         <v>81728771.935553193</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D25">
         <f>D24/N11</f>
         <v>212.22382793668336</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="G25">
         <f>D24*20</f>
@@ -3040,33 +6264,33 @@
         <v>3.2074282718206168</v>
       </c>
       <c r="H28" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D29" s="9">
         <f>B29/1000000</f>
         <v>1.3300000000000001E-4</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +6307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F6EB48-4038-4170-8B3C-AD75DD5549D7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3095,7 +6319,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C1">
         <v>9.31</v>
@@ -3104,18 +6328,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3123,7 +6347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26522F16-178D-4C9D-9097-E5B0FFBFDA90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
@@ -3149,40 +6373,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="G1">
         <v>39444.433400000002</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5">
         <f>70.8/(1.8*1000000000)</f>
         <v>3.9333333333333335E-8</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N2">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,71 +6414,71 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f>441.89</f>
@@ -3280,13 +6504,13 @@
         <v>0.44834159400000001</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>1538396</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="L5" s="3">
         <f>C9*0.7</f>
@@ -3297,10 +6521,10 @@
         <v>30.363615543241984</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="P5">
         <f>186/L6</f>
@@ -3313,7 +6537,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <f>3428</f>
@@ -3335,17 +6559,17 @@
         <v>6.0510242666666672E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="L6" s="6">
         <f>0.33*L5</f>
         <v>1.8373097447589444</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="O6" s="20">
         <f>87/(1000000*0.27777)</f>
@@ -3358,14 +6582,14 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <f>1714</f>
         <v>1714</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>200</v>
@@ -3379,10 +6603,10 @@
         <v>2386.7922368831719</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <f>L6/D9</f>
@@ -3391,7 +6615,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1141251</v>
@@ -3416,7 +6640,7 @@
         <v>0.16251414240000001</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,10 +6663,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <f>60*N2/(1000000*I2*M5)</f>
@@ -3451,12 +6675,12 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>55.5</v>
@@ -3465,16 +6689,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,7 +6710,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <f>G5/D5</f>
@@ -3498,7 +6722,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0.08</v>
@@ -3518,7 +6742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8D9EFC-D052-4551-86BD-609CA1895FF2}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3533,28 +6757,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C1">
         <v>2050</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <f>9/(39.4*0.3)</f>
         <v>0.76142131979695438</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3562,33 +6786,33 @@
         <v>2050</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <f>1.5/(39.444*0.3)</f>
         <v>0.12676199168441335</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +6820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E890F7-EE40-41D8-8D6F-926E6C8520D6}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -3612,18 +6836,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="I1" s="10">
         <v>0.27779999999999999</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3634,30 +6858,30 @@
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3">
         <f>B4/I1</f>
         <v>313.17494600431968</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3670,28 +6894,28 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="B18" s="3">
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D18" s="9">
         <f>B18/1000000</f>
         <v>1.3300000000000001E-4</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3702,12 +6926,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5DFEF8-915B-4056-B382-3EF1CD6D8429}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3726,23 +6950,23 @@
         <v>41.869</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G1">
         <f>1/110</f>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="I1">
         <v>1.1000000000000001</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3752,13 +6976,13 @@
         <v>0.27779999999999999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2">
         <v>3.9</v>
@@ -3782,14 +7006,14 @@
         <v>5024.28</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <f>C2*E3</f>
         <v>1395.7449839999999</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <f>(C3*C2)-I2</f>
@@ -3801,907 +7025,365 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>9.31</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <f>C4/I3</f>
         <v>0.31627938578611225</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25">
         <v>0.65</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>207</v>
-      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>2.5</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D8">
         <f>B8*(365*24*60*60)</f>
         <v>78840000</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F8">
         <f>(D8*I3*C6/(1000000))</f>
         <v>1508.4772559999999</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="I8">
         <f>F8/8760</f>
         <v>0.17220059999999998</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11">
         <f>133815/1000</f>
         <v>133.815</v>
       </c>
-      <c r="C10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10">
-        <f>B10/I8</f>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11">
+        <f>B11/I8</f>
         <v>777.08788471120317</v>
       </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="16">
-        <f>D10*I1</f>
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="16">
+        <f>D11*I1</f>
         <v>854.79667318232362</v>
       </c>
-      <c r="G10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11">
+      <c r="G11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J13" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" t="s">
-        <v>197</v>
+      <c r="C12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15">
         <f>61753*1000</f>
         <v>61753000</v>
       </c>
-      <c r="C14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14">
-        <f>B14/(D14*1000)</f>
-        <v>3087.65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14">
-        <f>F8/F15</f>
-        <v>42.532253458646615</v>
-      </c>
-      <c r="J14">
-        <f>F8/(F15+F14)</f>
-        <v>0.48300381221749639</v>
-      </c>
-      <c r="K14" s="16">
-        <f>F15/F14</f>
-        <v>1.1486621432696928E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15">
-        <v>1064000</v>
-      </c>
       <c r="C15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="2">
-        <f>B15/(D15*1000)</f>
-        <v>35.466666666666669</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17">
-        <v>1089000</v>
-      </c>
-      <c r="C17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17">
-        <f>B17/1000000</f>
-        <v>1.089</v>
-      </c>
-      <c r="E17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f>B19*(365*24*60*60)</f>
-        <v>378432000</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <f>B20*0.3</f>
-        <v>113529600</v>
-      </c>
-      <c r="C21" t="s">
         <v>147</v>
-      </c>
-      <c r="D21">
-        <f>B21*G1/(1000000)</f>
-        <v>1.0320872727272727</v>
-      </c>
-      <c r="E21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21">
-        <f>D21/I1</f>
-        <v>0.93826115702479329</v>
-      </c>
-      <c r="G21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23">
-        <f>(B14/1000000)+F21</f>
-        <v>62.69126115702479</v>
-      </c>
-      <c r="C23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23">
-        <f>B23*I1</f>
-        <v>68.960387272727274</v>
-      </c>
-      <c r="E23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="16">
-        <f>D23/F8</f>
-        <v>4.5715231700336145E-2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26">
-        <f>D17</f>
-        <v>1.089</v>
-      </c>
-      <c r="C26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26">
-        <f>B26*I1</f>
-        <v>1.1979</v>
-      </c>
-      <c r="E26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="16">
-        <f>D26/I8</f>
-        <v>6.9564217546280336</v>
-      </c>
-      <c r="G26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29">
-        <f>F8*B11*1000</f>
-        <v>30169545.119999997</v>
-      </c>
-      <c r="C29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30">
-        <f>(B10*1000000)+(70005000*B11)</f>
-        <v>1533915000</v>
-      </c>
-      <c r="C30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31">
-        <f>B30/B29</f>
-        <v>50.843159679697557</v>
-      </c>
-      <c r="C31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AA85B1-F75D-401E-9CDA-9DC2F24930C6}">
-  <dimension ref="A1:K40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" s="5">
-        <v>41.869</v>
-      </c>
-      <c r="D1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1">
-        <f>1/110</f>
-        <v>9.0909090909090905E-3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="10">
-        <v>0.27779999999999999</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <f>C3*C1</f>
-        <v>5024.28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3">
-        <f>C2*E3</f>
-        <v>1395.7449839999999</v>
-      </c>
-      <c r="H3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3">
-        <f>C3*C2</f>
-        <v>33.335999999999999</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4">
-        <v>9.31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4">
-        <f>C4/I3</f>
-        <v>0.27927765778737701</v>
-      </c>
-      <c r="F4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7">
-        <v>0.7</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9">
-        <v>2.5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9">
-        <f>B9*(365*24*60*60)</f>
-        <v>78840000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9">
-        <f>(D9*I3*C7/(1000000))</f>
-        <v>1839.7471680000001</v>
-      </c>
-      <c r="G9" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9">
-        <f>F9/8760</f>
-        <v>0.2100168</v>
-      </c>
-      <c r="J9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11">
-        <v>162</v>
-      </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11">
-        <f>B11/I9</f>
-        <v>771.36686207960508</v>
-      </c>
-      <c r="E11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="16">
-        <f>D11*I1</f>
-        <v>848.50354828756565</v>
-      </c>
-      <c r="G11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15">
-        <f>64546*1000</f>
-        <v>64546000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>178</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
-      </c>
-      <c r="H15">
+        <v>149</v>
+      </c>
+      <c r="F15">
         <f>B15/(D15*1000)</f>
-        <v>3227.3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
+        <v>3087.65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <f>F8/F16</f>
+        <v>42.532253458646615</v>
       </c>
       <c r="J15">
-        <f>B15/(D15*1000)</f>
-        <v>3227.3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>35</v>
+        <f>F8/(F16+F15)</f>
+        <v>0.48300381221749639</v>
+      </c>
+      <c r="K15" s="16">
+        <f>F16/F15</f>
+        <v>1.1486621432696928E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B16">
         <v>1064000</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="2">
+        <v>149</v>
+      </c>
+      <c r="F16" s="2">
         <f>B16/(D16*1000)</f>
         <v>35.466666666666669</v>
       </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="2">
-        <f>H16+F17</f>
-        <v>215.93730350389399</v>
-      </c>
-      <c r="K16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17">
-        <f>B40</f>
-        <v>180.47063683722732</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>1089000</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D18">
         <f>B18/1000000</f>
         <v>1.089</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19">
-        <f>(97662-64546-2778-1064-1089)*1000</f>
-        <v>28185000</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" t="s">
-        <v>200</v>
-      </c>
-      <c r="I19" t="s">
-        <v>190</v>
-      </c>
-      <c r="J19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H20">
-        <f>F9/J16</f>
-        <v>8.5198209764938735</v>
-      </c>
-      <c r="I20">
-        <f>F9/(J16+J15)</f>
-        <v>0.53430739906536318</v>
-      </c>
-      <c r="J20" s="16">
-        <f>J16/J15</f>
-        <v>6.6909584948376039E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>181</v>
-      </c>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21">
-        <v>12</v>
+        <f>B20*(365*24*60*60)</f>
+        <v>378432000</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22">
-        <f>B21*(365*24*60*60)</f>
-        <v>378432000</v>
+        <f>B21*0.3</f>
+        <v>113529600</v>
       </c>
       <c r="C22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <f>B22*0.3</f>
-        <v>113529600</v>
-      </c>
-      <c r="C23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23">
-        <f>B23*G1/(1000000)</f>
+      <c r="D22">
+        <f>B22*G1/(1000000)</f>
         <v>1.0320872727272727</v>
       </c>
-      <c r="E23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23">
-        <f>D23/I1</f>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22">
+        <f>D22/I1</f>
         <v>0.93826115702479329</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25">
-        <f>(B15/1000000)+F23</f>
-        <v>65.484261157024804</v>
-      </c>
-      <c r="C25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25">
-        <f>B25*I1</f>
-        <v>72.032687272727287</v>
-      </c>
-      <c r="E25" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" s="16">
-        <f>(D25/F9)+B38</f>
-        <v>5.5653579647052503E-2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28">
+      <c r="B24">
+        <f>(B15/1000000)+F22</f>
+        <v>62.69126115702479</v>
+      </c>
+      <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24">
+        <f>B24*I1</f>
+        <v>68.960387272727274</v>
+      </c>
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="16">
+        <f>D24/F8</f>
+        <v>4.5715231700336145E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
         <f>D18</f>
         <v>1.089</v>
       </c>
-      <c r="C28" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28">
-        <f>B28*I1</f>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <f>B27*I1</f>
         <v>1.1979</v>
       </c>
-      <c r="E28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="16">
-        <f>D28/I9</f>
-        <v>5.7038294079330791</v>
-      </c>
-      <c r="G28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="16">
+        <f>D27/I8</f>
+        <v>6.9564217546280336</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <f>F8*B12*1000</f>
+        <v>30169545.119999997</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B31">
-        <f>F9*B12*1000</f>
-        <v>36794943.360000007</v>
+        <f>(B11*1000000)+(70005000*B12)</f>
+        <v>1533915000</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32">
-        <f>(B11*1000000)+(97662000*B12)</f>
-        <v>2115240000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33">
-        <f>B32/B31</f>
-        <v>57.487247073723978</v>
-      </c>
-      <c r="C33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35">
-        <v>1.3300000000000001E-4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36">
-        <f>B35*F9*B5</f>
-        <v>0.22021773600960004</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="16">
-        <f>B37*I1/1000</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38">
-        <f>B38*F9*1000000/I1</f>
-        <v>27596207.52</v>
-      </c>
-      <c r="F38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39">
-        <v>2950</v>
-      </c>
-      <c r="C39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39">
-        <f>B39*C2</f>
-        <v>819.51</v>
-      </c>
-      <c r="E39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="3">
-        <f>D39*B36</f>
-        <v>180.47063683722732</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="25">
+        <f>B31/B30</f>
+        <v>50.843159679697557</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03AC8B-67F2-4E38-8C8B-B1C8D6D585AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8D1DB-AE62-469C-AF97-FE561E227A13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36405" yWindow="4095" windowWidth="17280" windowHeight="9060" firstSheet="1" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="37095" yWindow="4395" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS_Kato" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="266">
   <si>
     <t>H2 Method</t>
   </si>
@@ -784,9 +784,6 @@
     <t>Efficiency Penalty 90%CCS</t>
   </si>
   <si>
-    <t>Pipeline 100k</t>
-  </si>
-  <si>
     <t>GWh reqd for capture for 1 GWh output</t>
   </si>
   <si>
@@ -830,6 +827,21 @@
   </si>
   <si>
     <t>SREF +90% CCS</t>
+  </si>
+  <si>
+    <t>Pipeline 250k</t>
+  </si>
+  <si>
+    <t>Given Capex</t>
+  </si>
+  <si>
+    <t>Capex Adj Factor</t>
+  </si>
+  <si>
+    <t>Adj Cap</t>
+  </si>
+  <si>
+    <t>Adj Output</t>
   </si>
 </sst>
 </file>
@@ -1010,17 +1022,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1399,16 +1411,16 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J4" s="2" t="s">
@@ -1461,11 +1473,11 @@
         <v>0.85</v>
       </c>
       <c r="K5">
-        <f>$B$31*J5</f>
+        <f t="shared" ref="K5:K15" si="0">$B$31*J5</f>
         <v>5.0914999999999999E-4</v>
       </c>
       <c r="L5">
-        <f>$D$15*K5</f>
+        <f t="shared" ref="L5:L15" si="1">$D$15*K5</f>
         <v>1.9440272727272726E-2</v>
       </c>
       <c r="M5">
@@ -1481,11 +1493,11 @@
         <v>0.23366414477874051</v>
       </c>
       <c r="P5">
-        <f>$B$18*K5</f>
+        <f t="shared" ref="P5:P15" si="2">$B$18*K5</f>
         <v>1.6663090909090909E-2</v>
       </c>
       <c r="Q5">
-        <f>($D$26*M5)+P5</f>
+        <f t="shared" ref="Q5:Q15" si="3">($D$26*M5)+P5</f>
         <v>2.2159757575757576E-2</v>
       </c>
     </row>
@@ -1500,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D9" si="0">B6*$K$1/(0.000001)</f>
+        <f t="shared" ref="D6:D9" si="4">B6*$K$1/(0.000001)</f>
         <v>4.0833366</v>
       </c>
       <c r="E6" t="s">
@@ -1516,31 +1528,31 @@
         <v>0.86</v>
       </c>
       <c r="K6">
-        <f>$B$31*J6</f>
+        <f t="shared" si="0"/>
         <v>5.1513999999999998E-4</v>
       </c>
       <c r="L6">
-        <f>$D$15*K6</f>
+        <f t="shared" si="1"/>
         <v>1.9668981818181816E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="1">L6/$L$10</f>
+        <f t="shared" ref="M6:M15" si="5">L6/$L$10</f>
         <v>0.95555555555555538</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N15" si="2">K6*$B$11</f>
+        <f t="shared" ref="N6:N15" si="6">K6*$B$11</f>
         <v>0.58192264275996408</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O15" si="3">(1-N6)*0.55</f>
+        <f t="shared" ref="O6:O15" si="7">(1-N6)*0.55</f>
         <v>0.22994254648201978</v>
       </c>
       <c r="P6">
-        <f>$B$18*K6</f>
+        <f t="shared" si="2"/>
         <v>1.6859127272727273E-2</v>
       </c>
       <c r="Q6">
-        <f>($D$26*M6)+P6</f>
+        <f t="shared" si="3"/>
         <v>2.2420460606060604E-2</v>
       </c>
     </row>
@@ -1552,7 +1564,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.0833366</v>
       </c>
       <c r="E7" t="s">
@@ -1565,31 +1577,31 @@
         <v>0.87</v>
       </c>
       <c r="K7">
-        <f>$B$31*J7</f>
+        <f t="shared" si="0"/>
         <v>5.2113000000000007E-4</v>
       </c>
       <c r="L7">
-        <f>$D$15*K7</f>
+        <f t="shared" si="1"/>
         <v>1.9897690909090909E-2</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.58868918511763824</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0.22622094818529898</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>0.58868918511763824</v>
-      </c>
-      <c r="O7">
+        <v>1.7055163636363637E-2</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="3"/>
-        <v>0.22622094818529898</v>
-      </c>
-      <c r="P7">
-        <f>$B$18*K7</f>
-        <v>1.7055163636363637E-2</v>
-      </c>
-      <c r="Q7">
-        <f>($D$26*M7)+P7</f>
         <v>2.2681163636363636E-2</v>
       </c>
     </row>
@@ -1601,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14.444456000000002</v>
       </c>
       <c r="E8" t="s">
@@ -1614,31 +1626,31 @@
         <v>0.88</v>
       </c>
       <c r="K8">
-        <f>$B$31*J8</f>
+        <f t="shared" si="0"/>
         <v>5.2712000000000006E-4</v>
       </c>
       <c r="L8">
-        <f>$D$15*K8</f>
+        <f t="shared" si="1"/>
         <v>2.0126400000000003E-2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.97777777777777786</v>
       </c>
       <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.59545572747531217</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0.22249934988857833</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>0.59545572747531217</v>
-      </c>
-      <c r="O8">
+        <v>1.7251200000000001E-2</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0.22249934988857833</v>
-      </c>
-      <c r="P8">
-        <f>$B$18*K8</f>
-        <v>1.7251200000000001E-2</v>
-      </c>
-      <c r="Q8">
-        <f>($D$26*M8)+P8</f>
         <v>2.2941866666666668E-2</v>
       </c>
     </row>
@@ -1650,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.88888960000000017</v>
       </c>
       <c r="E9" t="s">
@@ -1663,31 +1675,31 @@
         <v>0.89</v>
       </c>
       <c r="K9">
-        <f>$B$31*J9</f>
+        <f t="shared" si="0"/>
         <v>5.3311000000000005E-4</v>
       </c>
       <c r="L9">
-        <f>$D$15*K9</f>
+        <f t="shared" si="1"/>
         <v>2.0355109090909092E-2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98888888888888893</v>
       </c>
       <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.60222226983298621</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0.21877775159185761</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>0.60222226983298621</v>
-      </c>
-      <c r="O9">
+        <v>1.7447236363636365E-2</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="3"/>
-        <v>0.21877775159185761</v>
-      </c>
-      <c r="P9">
-        <f>$B$18*K9</f>
-        <v>1.7447236363636365E-2</v>
-      </c>
-      <c r="Q9">
-        <f>($D$26*M9)+P9</f>
         <v>2.3202569696969697E-2</v>
       </c>
     </row>
@@ -1706,31 +1718,31 @@
         <v>0.9</v>
       </c>
       <c r="K10">
-        <f>$B$31*J10</f>
+        <f t="shared" si="0"/>
         <v>5.3910000000000004E-4</v>
       </c>
       <c r="L10">
-        <f>$D$15*K10</f>
+        <f t="shared" si="1"/>
         <v>2.0583818181818182E-2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.60898881219066014</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0.21505615329513694</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="2"/>
-        <v>0.60898881219066014</v>
-      </c>
-      <c r="O10">
+        <v>1.764327272727273E-2</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="3"/>
-        <v>0.21505615329513694</v>
-      </c>
-      <c r="P10">
-        <f>$B$18*K10</f>
-        <v>1.764327272727273E-2</v>
-      </c>
-      <c r="Q10">
-        <f>($D$26*M10)+P10</f>
         <v>2.3463272727272728E-2</v>
       </c>
     </row>
@@ -1747,31 +1759,31 @@
         <v>0.91</v>
       </c>
       <c r="K11">
-        <f>$B$31*J11</f>
+        <f t="shared" si="0"/>
         <v>5.4509000000000003E-4</v>
       </c>
       <c r="L11">
-        <f>$D$15*K11</f>
+        <f t="shared" si="1"/>
         <v>2.0812527272727272E-2</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0111111111111111</v>
       </c>
       <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0.61575535454833419</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>0.21133455499841622</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="2"/>
-        <v>0.61575535454833419</v>
-      </c>
-      <c r="O11">
+        <v>1.783930909090909E-2</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="3"/>
-        <v>0.21133455499841622</v>
-      </c>
-      <c r="P11">
-        <f>$B$18*K11</f>
-        <v>1.783930909090909E-2</v>
-      </c>
-      <c r="Q11">
-        <f>($D$26*M11)+P11</f>
         <v>2.3723975757575757E-2</v>
       </c>
     </row>
@@ -1787,31 +1799,31 @@
         <v>0.92</v>
       </c>
       <c r="K12">
-        <f>$B$31*J12</f>
+        <f t="shared" si="0"/>
         <v>5.5108000000000002E-4</v>
       </c>
       <c r="L12">
-        <f>$D$15*K12</f>
+        <f t="shared" si="1"/>
         <v>2.1041236363636362E-2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0222222222222221</v>
       </c>
       <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0.62252189690600812</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>0.20761295670169555</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="2"/>
-        <v>0.62252189690600812</v>
-      </c>
-      <c r="O12">
+        <v>1.8035345454545455E-2</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0.20761295670169555</v>
-      </c>
-      <c r="P12">
-        <f>$B$18*K12</f>
-        <v>1.8035345454545455E-2</v>
-      </c>
-      <c r="Q12">
-        <f>($D$26*M12)+P12</f>
         <v>2.3984678787878785E-2</v>
       </c>
     </row>
@@ -1820,31 +1832,31 @@
         <v>0.93</v>
       </c>
       <c r="K13">
-        <f>$B$31*J13</f>
+        <f t="shared" si="0"/>
         <v>5.5707E-4</v>
       </c>
       <c r="L13">
-        <f>$D$15*K13</f>
+        <f t="shared" si="1"/>
         <v>2.1269945454545455E-2</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0.62928843926368216</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>0.20389135840497483</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="2"/>
-        <v>0.62928843926368216</v>
-      </c>
-      <c r="O13">
+        <v>1.8231381818181819E-2</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="3"/>
-        <v>0.20389135840497483</v>
-      </c>
-      <c r="P13">
-        <f>$B$18*K13</f>
-        <v>1.8231381818181819E-2</v>
-      </c>
-      <c r="Q13">
-        <f>($D$26*M13)+P13</f>
         <v>2.4245381818181817E-2</v>
       </c>
     </row>
@@ -1853,31 +1865,31 @@
         <v>0.94</v>
       </c>
       <c r="K14">
-        <f>$B$31*J14</f>
+        <f t="shared" si="0"/>
         <v>5.6305999999999999E-4</v>
       </c>
       <c r="L14">
-        <f>$D$15*K14</f>
+        <f t="shared" si="1"/>
         <v>2.1498654545454545E-2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0444444444444445</v>
       </c>
       <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.6360549816213561</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>0.20016976010825416</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="2"/>
-        <v>0.6360549816213561</v>
-      </c>
-      <c r="O14">
+        <v>1.842741818181818E-2</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="3"/>
-        <v>0.20016976010825416</v>
-      </c>
-      <c r="P14">
-        <f>$B$18*K14</f>
-        <v>1.842741818181818E-2</v>
-      </c>
-      <c r="Q14">
-        <f>($D$26*M14)+P14</f>
         <v>2.4506084848484846E-2</v>
       </c>
     </row>
@@ -1905,31 +1917,31 @@
         <v>0.95</v>
       </c>
       <c r="K15">
-        <f>$B$31*J15</f>
+        <f t="shared" si="0"/>
         <v>5.6904999999999998E-4</v>
       </c>
       <c r="L15">
-        <f>$D$15*K15</f>
+        <f t="shared" si="1"/>
         <v>2.1727363636363635E-2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0555555555555554</v>
       </c>
       <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0.64282152397903014</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0.19644816181153343</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.64282152397903014</v>
-      </c>
-      <c r="O15">
+        <v>1.8623454545454544E-2</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="3"/>
-        <v>0.19644816181153343</v>
-      </c>
-      <c r="P15">
-        <f>$B$18*K15</f>
-        <v>1.8623454545454544E-2</v>
-      </c>
-      <c r="Q15">
-        <f>($D$26*M15)+P15</f>
         <v>2.4766787878787874E-2</v>
       </c>
     </row>
@@ -1941,7 +1953,7 @@
         <v>217</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D17" si="4">B16*$O$1</f>
+        <f t="shared" ref="D16:D17" si="8">B16*$O$1</f>
         <v>25.454545454545453</v>
       </c>
       <c r="E16" t="s">
@@ -1956,7 +1968,7 @@
         <v>800</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.2727272727272725</v>
       </c>
       <c r="E17" t="s">
@@ -1965,16 +1977,16 @@
       <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -2017,11 +2029,11 @@
         <v>0.85</v>
       </c>
       <c r="K19">
-        <f>$B$30*J19</f>
+        <f t="shared" ref="K19:K29" si="9">$B$30*J19</f>
         <v>8.007E-4</v>
       </c>
       <c r="L19">
-        <f>$D$15*K19</f>
+        <f t="shared" ref="L19:L29" si="10">$D$15*K19</f>
         <v>3.0572181818181818E-2</v>
       </c>
       <c r="M19">
@@ -2037,11 +2049,11 @@
         <v>5.2523579935848927E-2</v>
       </c>
       <c r="P19">
-        <f>$B$18*K19</f>
+        <f t="shared" ref="P19:P29" si="11">$B$18*K19</f>
         <v>2.6204727272727272E-2</v>
       </c>
       <c r="Q19">
-        <f>($D$26*M19)+P19</f>
+        <f t="shared" ref="Q19:Q29" si="12">($D$26*M19)+P19</f>
         <v>3.1701393939393939E-2</v>
       </c>
     </row>
@@ -2068,31 +2080,31 @@
         <v>0.86</v>
       </c>
       <c r="K20">
-        <f>$B$30*J20</f>
+        <f t="shared" si="9"/>
         <v>8.1012E-4</v>
       </c>
       <c r="L20">
-        <f>$D$15*K20</f>
+        <f t="shared" si="10"/>
         <v>3.0931854545454544E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M29" si="5">L20/$L$24</f>
+        <f t="shared" ref="M20:M29" si="13">L20/$L$24</f>
         <v>0.9555555555555556</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N29" si="6">K20*$B$11</f>
+        <f t="shared" ref="N20:N29" si="14">K20*$B$11</f>
         <v>0.91514378878111213</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O29" si="7">(1-N20)*0.55</f>
+        <f t="shared" ref="O20:O29" si="15">(1-N20)*0.55</f>
         <v>4.6670916170388328E-2</v>
       </c>
       <c r="P20">
-        <f>$B$18*K20</f>
+        <f t="shared" si="11"/>
         <v>2.6513018181818181E-2</v>
       </c>
       <c r="Q20">
-        <f>($D$26*M20)+P20</f>
+        <f t="shared" si="12"/>
         <v>3.2074351515151513E-2</v>
       </c>
     </row>
@@ -2113,31 +2125,31 @@
         <v>0.87</v>
       </c>
       <c r="K21">
-        <f>$B$30*J21</f>
+        <f t="shared" si="9"/>
         <v>8.1954E-4</v>
       </c>
       <c r="L21">
-        <f>$D$15*K21</f>
+        <f t="shared" si="10"/>
         <v>3.1291527272727271E-2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.96666666666666679</v>
       </c>
       <c r="N21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.92578499562740413</v>
       </c>
       <c r="O21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4.081825240492773E-2</v>
       </c>
       <c r="P21">
-        <f>$B$18*K21</f>
+        <f t="shared" si="11"/>
         <v>2.6821309090909091E-2</v>
       </c>
       <c r="Q21">
-        <f>($D$26*M21)+P21</f>
+        <f t="shared" si="12"/>
         <v>3.2447309090909093E-2</v>
       </c>
     </row>
@@ -2159,31 +2171,31 @@
         <v>0.88</v>
       </c>
       <c r="K22">
-        <f>$B$30*J22</f>
+        <f t="shared" si="9"/>
         <v>8.2896000000000001E-4</v>
       </c>
       <c r="L22">
-        <f>$D$15*K22</f>
+        <f t="shared" si="10"/>
         <v>3.1651199999999997E-2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.97777777777777786</v>
       </c>
       <c r="N22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.93642620247369612</v>
       </c>
       <c r="O22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>3.4965588639467138E-2</v>
       </c>
       <c r="P22">
-        <f>$B$18*K22</f>
+        <f t="shared" si="11"/>
         <v>2.71296E-2</v>
       </c>
       <c r="Q22">
-        <f>($D$26*M22)+P22</f>
+        <f t="shared" si="12"/>
         <v>3.2820266666666667E-2</v>
       </c>
     </row>
@@ -2193,31 +2205,31 @@
         <v>0.89</v>
       </c>
       <c r="K23">
-        <f>$B$30*J23</f>
+        <f t="shared" si="9"/>
         <v>8.3838000000000001E-4</v>
       </c>
       <c r="L23">
-        <f>$D$15*K23</f>
+        <f t="shared" si="10"/>
         <v>3.2010872727272724E-2</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.98888888888888893</v>
       </c>
       <c r="N23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.94706740931998812</v>
       </c>
       <c r="O23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.9112924874006536E-2</v>
       </c>
       <c r="P23">
-        <f>$B$18*K23</f>
+        <f t="shared" si="11"/>
         <v>2.743789090909091E-2</v>
       </c>
       <c r="Q23">
-        <f>($D$26*M23)+P23</f>
+        <f t="shared" si="12"/>
         <v>3.3193224242424241E-2</v>
       </c>
     </row>
@@ -2238,31 +2250,31 @@
         <v>0.9</v>
       </c>
       <c r="K24">
-        <f>$B$30*J24</f>
+        <f t="shared" si="9"/>
         <v>8.4780000000000001E-4</v>
       </c>
       <c r="L24">
-        <f>$D$15*K24</f>
+        <f t="shared" si="10"/>
         <v>3.237054545454545E-2</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.95770861616628022</v>
       </c>
       <c r="O24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.3260261108545878E-2</v>
       </c>
       <c r="P24">
-        <f>$B$18*K24</f>
+        <f t="shared" si="11"/>
         <v>2.7746181818181819E-2</v>
       </c>
       <c r="Q24">
-        <f>($D$26*M24)+P24</f>
+        <f t="shared" si="12"/>
         <v>3.3566181818181821E-2</v>
       </c>
     </row>
@@ -2270,13 +2282,13 @@
       <c r="A25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="21">
         <v>5997</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="21">
         <v>59.29</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="21">
         <f>10.93*1000/1000000</f>
         <v>1.093E-2</v>
       </c>
@@ -2284,31 +2296,31 @@
         <v>0.91</v>
       </c>
       <c r="K25">
-        <f>$B$30*J25</f>
+        <f t="shared" si="9"/>
         <v>8.5722000000000001E-4</v>
       </c>
       <c r="L25">
-        <f>$D$15*K25</f>
+        <f t="shared" si="10"/>
         <v>3.2730218181818184E-2</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0111111111111113</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.96834982301257222</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.7407597343085279E-2</v>
       </c>
       <c r="P25">
-        <f>$B$18*K25</f>
+        <f t="shared" si="11"/>
         <v>2.8054472727272729E-2</v>
       </c>
       <c r="Q25">
-        <f>($D$26*M25)+P25</f>
+        <f t="shared" si="12"/>
         <v>3.3939139393939395E-2</v>
       </c>
     </row>
@@ -2316,13 +2328,13 @@
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="21">
         <v>2569</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>27.48</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="21">
         <f>5.82*1000/1000000</f>
         <v>5.8199999999999997E-3</v>
       </c>
@@ -2330,31 +2342,31 @@
         <v>0.92</v>
       </c>
       <c r="K26">
-        <f>$B$30*J26</f>
+        <f t="shared" si="9"/>
         <v>8.6664000000000001E-4</v>
       </c>
       <c r="L26">
-        <f>$D$15*K26</f>
+        <f t="shared" si="10"/>
         <v>3.308989090909091E-2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0222222222222224</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.97899102985886421</v>
       </c>
       <c r="O26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.1554933577624682E-2</v>
       </c>
       <c r="P26">
-        <f>$B$18*K26</f>
+        <f t="shared" si="11"/>
         <v>2.8362763636363635E-2</v>
       </c>
       <c r="Q26">
-        <f>($D$26*M26)+P26</f>
+        <f t="shared" si="12"/>
         <v>3.4312096969696969E-2</v>
       </c>
     </row>
@@ -2362,44 +2374,44 @@
       <c r="A27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="21">
         <v>848.5</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="21">
         <v>5.7039999999999997</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="21">
         <v>5.57E-2</v>
       </c>
       <c r="J27">
         <v>0.93</v>
       </c>
       <c r="K27">
-        <f>$B$30*J27</f>
+        <f t="shared" si="9"/>
         <v>8.7606000000000001E-4</v>
       </c>
       <c r="L27">
-        <f>$D$15*K27</f>
+        <f t="shared" si="10"/>
         <v>3.3449563636363637E-2</v>
       </c>
       <c r="M27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.98963223670515621</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>5.7022698121640854E-3</v>
       </c>
       <c r="P27">
-        <f>$B$18*K27</f>
+        <f t="shared" si="11"/>
         <v>2.8671054545454544E-2</v>
       </c>
       <c r="Q27">
-        <f>($D$26*M27)+P27</f>
+        <f t="shared" si="12"/>
         <v>3.4685054545454543E-2</v>
       </c>
     </row>
@@ -2409,31 +2421,31 @@
         <v>0.94</v>
       </c>
       <c r="K28">
-        <f>$B$30*J28</f>
+        <f t="shared" si="9"/>
         <v>8.8548000000000001E-4</v>
       </c>
       <c r="L28">
-        <f>$D$15*K28</f>
+        <f t="shared" si="10"/>
         <v>3.3809236363636364E-2</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0444444444444445</v>
       </c>
       <c r="N28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.0002734435514482</v>
       </c>
       <c r="O28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-1.5039395329651263E-4</v>
       </c>
       <c r="P28">
-        <f>$B$18*K28</f>
+        <f t="shared" si="11"/>
         <v>2.8979345454545453E-2</v>
       </c>
       <c r="Q28">
-        <f>($D$26*M28)+P28</f>
+        <f t="shared" si="12"/>
         <v>3.5058012121212123E-2</v>
       </c>
     </row>
@@ -2445,31 +2457,31 @@
         <v>0.95</v>
       </c>
       <c r="K29">
-        <f>$B$30*J29</f>
+        <f t="shared" si="9"/>
         <v>8.9490000000000001E-4</v>
       </c>
       <c r="L29">
-        <f>$D$15*K29</f>
+        <f t="shared" si="10"/>
         <v>3.416890909090909E-2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1.0555555555555556</v>
       </c>
       <c r="N29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1.0109146503977402</v>
       </c>
       <c r="O29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-6.0030577187571103E-3</v>
       </c>
       <c r="P29">
-        <f>$B$18*K29</f>
+        <f t="shared" si="11"/>
         <v>2.9287636363636363E-2</v>
       </c>
       <c r="Q29">
-        <f>($D$26*M29)+P29</f>
+        <f t="shared" si="12"/>
         <v>3.5430969696969697E-2</v>
       </c>
     </row>
@@ -2477,7 +2489,7 @@
       <c r="A30" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="22">
         <f>942/1000000</f>
         <v>9.4200000000000002E-4</v>
       </c>
@@ -2489,29 +2501,29 @@
       <c r="A31" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="22">
         <f>599/1000000</f>
         <v>5.9900000000000003E-4</v>
       </c>
       <c r="C31" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="22">
         <f>313/1000000</f>
         <v>3.1300000000000002E-4</v>
       </c>
@@ -2548,11 +2560,11 @@
         <v>0.85</v>
       </c>
       <c r="K33">
-        <f>$B$32*J33</f>
+        <f t="shared" ref="K33:K43" si="16">$B$32*J33</f>
         <v>2.6604999999999999E-4</v>
       </c>
       <c r="L33">
-        <f>$D$15*K33</f>
+        <f t="shared" ref="L33:L43" si="17">$D$15*K33</f>
         <v>1.0158272727272726E-2</v>
       </c>
       <c r="M33">
@@ -2568,11 +2580,11 @@
         <v>0.38260425524878722</v>
       </c>
       <c r="P33">
-        <f>$B$18*K33</f>
+        <f t="shared" ref="P33:P43" si="18">$B$18*K33</f>
         <v>8.7070909090909091E-3</v>
       </c>
       <c r="Q33">
-        <f>($D$27*M33)+P33</f>
+        <f t="shared" ref="Q33:Q43" si="19">($D$27*M33)+P33</f>
         <v>6.1312646464646452E-2</v>
       </c>
     </row>
@@ -2581,31 +2593,31 @@
         <v>0.86</v>
       </c>
       <c r="K34">
-        <f>$B$32*J34</f>
+        <f t="shared" si="16"/>
         <v>2.6917999999999999E-4</v>
       </c>
       <c r="L34">
-        <f>$D$15*K34</f>
+        <f t="shared" si="17"/>
         <v>1.0277781818181817E-2</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M43" si="8">L34/$L$38</f>
+        <f t="shared" ref="M34:M43" si="20">L34/$L$38</f>
         <v>0.95555555555555538</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N43" si="9">K34*$B$11</f>
+        <f t="shared" ref="N34:N43" si="21">K34*$B$11</f>
         <v>0.30407643937206802</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O43" si="10">(1-N34)*0.547</f>
+        <f t="shared" ref="O34:O43" si="22">(1-N34)*0.547</f>
         <v>0.38067018766347877</v>
       </c>
       <c r="P34">
-        <f>$B$18*K34</f>
+        <f t="shared" si="18"/>
         <v>8.8095272727272723E-3</v>
       </c>
       <c r="Q34">
-        <f>($D$27*M34)+P34</f>
+        <f t="shared" si="19"/>
         <v>6.2033971717171704E-2</v>
       </c>
     </row>
@@ -2614,31 +2626,31 @@
         <v>0.87</v>
       </c>
       <c r="K35">
-        <f>$B$32*J35</f>
+        <f t="shared" si="16"/>
         <v>2.7231E-4</v>
       </c>
       <c r="L35">
-        <f>$D$15*K35</f>
+        <f t="shared" si="17"/>
         <v>1.0397290909090908E-2</v>
       </c>
       <c r="M35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.96666666666666656</v>
       </c>
       <c r="N35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.30761221192290605</v>
       </c>
       <c r="O35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.37873612007817037</v>
       </c>
       <c r="P35">
-        <f>$B$18*K35</f>
+        <f t="shared" si="18"/>
         <v>8.9119636363636356E-3</v>
       </c>
       <c r="Q35">
-        <f>($D$27*M35)+P35</f>
+        <f t="shared" si="19"/>
         <v>6.2755296969696964E-2</v>
       </c>
     </row>
@@ -2647,31 +2659,31 @@
         <v>0.88</v>
       </c>
       <c r="K36">
-        <f>$B$32*J36</f>
+        <f t="shared" si="16"/>
         <v>2.7544000000000001E-4</v>
       </c>
       <c r="L36">
-        <f>$D$15*K36</f>
+        <f t="shared" si="17"/>
         <v>1.05168E-2</v>
       </c>
       <c r="M36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.97777777777777775</v>
       </c>
       <c r="N36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.31114798447374403</v>
       </c>
       <c r="O36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.37680205249286203</v>
       </c>
       <c r="P36">
-        <f>$B$18*K36</f>
+        <f t="shared" si="18"/>
         <v>9.0144000000000005E-3</v>
       </c>
       <c r="Q36">
-        <f>($D$27*M36)+P36</f>
+        <f t="shared" si="19"/>
         <v>6.3476622222222223E-2</v>
       </c>
     </row>
@@ -2680,31 +2692,31 @@
         <v>0.89</v>
       </c>
       <c r="K37">
-        <f>$B$32*J37</f>
+        <f t="shared" si="16"/>
         <v>2.7857000000000001E-4</v>
       </c>
       <c r="L37">
-        <f>$D$15*K37</f>
+        <f t="shared" si="17"/>
         <v>1.0636309090909091E-2</v>
       </c>
       <c r="M37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.98888888888888882</v>
       </c>
       <c r="N37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.31468375702458207</v>
       </c>
       <c r="O37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.37486798490755363</v>
       </c>
       <c r="P37">
-        <f>$B$18*K37</f>
+        <f t="shared" si="18"/>
         <v>9.1168363636363638E-3</v>
       </c>
       <c r="Q37">
-        <f>($D$27*M37)+P37</f>
+        <f t="shared" si="19"/>
         <v>6.4197947474747469E-2</v>
       </c>
     </row>
@@ -2713,31 +2725,31 @@
         <v>0.9</v>
       </c>
       <c r="K38">
-        <f>$B$32*J38</f>
+        <f t="shared" si="16"/>
         <v>2.8170000000000002E-4</v>
       </c>
       <c r="L38">
-        <f>$D$15*K38</f>
+        <f t="shared" si="17"/>
         <v>1.0755818181818182E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.31821952957542005</v>
       </c>
       <c r="O38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.37293391732224529</v>
       </c>
       <c r="P38">
-        <f>$B$18*K38</f>
+        <f t="shared" si="18"/>
         <v>9.219272727272727E-3</v>
       </c>
       <c r="Q38">
-        <f>($D$27*M38)+P38</f>
+        <f t="shared" si="19"/>
         <v>6.4919272727272728E-2</v>
       </c>
     </row>
@@ -2746,31 +2758,31 @@
         <v>0.91</v>
       </c>
       <c r="K39">
-        <f>$B$32*J39</f>
+        <f t="shared" si="16"/>
         <v>2.8483000000000002E-4</v>
       </c>
       <c r="L39">
-        <f>$D$15*K39</f>
+        <f t="shared" si="17"/>
         <v>1.0875327272727274E-2</v>
       </c>
       <c r="M39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0111111111111111</v>
       </c>
       <c r="N39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.32175530212625808</v>
       </c>
       <c r="O39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.37099984973693689</v>
       </c>
       <c r="P39">
-        <f>$B$18*K39</f>
+        <f t="shared" si="18"/>
         <v>9.321709090909092E-3</v>
       </c>
       <c r="Q39">
-        <f>($D$27*M39)+P39</f>
+        <f t="shared" si="19"/>
         <v>6.5640597979797974E-2</v>
       </c>
     </row>
@@ -2779,31 +2791,31 @@
         <v>0.92</v>
       </c>
       <c r="K40">
-        <f>$B$32*J40</f>
+        <f t="shared" si="16"/>
         <v>2.8796000000000003E-4</v>
       </c>
       <c r="L40">
-        <f>$D$15*K40</f>
+        <f t="shared" si="17"/>
         <v>1.0994836363636365E-2</v>
       </c>
       <c r="M40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0222222222222224</v>
       </c>
       <c r="N40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.32529107467709606</v>
       </c>
       <c r="O40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.3690657821516285</v>
       </c>
       <c r="P40">
-        <f>$B$18*K40</f>
+        <f t="shared" si="18"/>
         <v>9.4241454545454552E-3</v>
       </c>
       <c r="Q40">
-        <f>($D$27*M40)+P40</f>
+        <f t="shared" si="19"/>
         <v>6.6361923232323247E-2</v>
       </c>
     </row>
@@ -2812,31 +2824,31 @@
         <v>0.93</v>
       </c>
       <c r="K41">
-        <f>$B$32*J41</f>
+        <f t="shared" si="16"/>
         <v>2.9109000000000003E-4</v>
       </c>
       <c r="L41">
-        <f>$D$15*K41</f>
+        <f t="shared" si="17"/>
         <v>1.1114345454545455E-2</v>
       </c>
       <c r="M41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0333333333333332</v>
       </c>
       <c r="N41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.32882684722793409</v>
       </c>
       <c r="O41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.3671317145663201</v>
       </c>
       <c r="P41">
-        <f>$B$18*K41</f>
+        <f t="shared" si="18"/>
         <v>9.5265818181818184E-3</v>
       </c>
       <c r="Q41">
-        <f>($D$27*M41)+P41</f>
+        <f t="shared" si="19"/>
         <v>6.7083248484848479E-2</v>
       </c>
     </row>
@@ -2845,31 +2857,31 @@
         <v>0.94</v>
       </c>
       <c r="K42">
-        <f>$B$32*J42</f>
+        <f t="shared" si="16"/>
         <v>2.9421999999999999E-4</v>
       </c>
       <c r="L42">
-        <f>$D$15*K42</f>
+        <f t="shared" si="17"/>
         <v>1.1233854545454544E-2</v>
       </c>
       <c r="M42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0444444444444443</v>
       </c>
       <c r="N42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.33236261977877202</v>
       </c>
       <c r="O42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.36519764698101176</v>
       </c>
       <c r="P42">
-        <f>$B$18*K42</f>
+        <f t="shared" si="18"/>
         <v>9.6290181818181816E-3</v>
       </c>
       <c r="Q42">
-        <f>($D$27*M42)+P42</f>
+        <f t="shared" si="19"/>
         <v>6.7804573737373725E-2</v>
       </c>
     </row>
@@ -2878,31 +2890,31 @@
         <v>0.95</v>
       </c>
       <c r="K43">
-        <f>$B$32*J43</f>
+        <f t="shared" si="16"/>
         <v>2.9734999999999999E-4</v>
       </c>
       <c r="L43">
-        <f>$D$15*K43</f>
+        <f t="shared" si="17"/>
         <v>1.1353363636363635E-2</v>
       </c>
       <c r="M43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.0555555555555554</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.33589839232961005</v>
       </c>
       <c r="O43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.36326357939570331</v>
       </c>
       <c r="P43">
-        <f>$B$18*K43</f>
+        <f t="shared" si="18"/>
         <v>9.7314545454545449E-3</v>
       </c>
       <c r="Q43">
-        <f>($D$27*M43)+P43</f>
+        <f t="shared" si="19"/>
         <v>6.8525898989898984E-2</v>
       </c>
     </row>
@@ -2922,7 +2934,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4002,10 +4014,10 @@
         <v>2025</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="22">
+      <c r="E3" s="26">
         <v>2040</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="26"/>
       <c r="G3" t="s">
         <v>203</v>
       </c>
@@ -4271,8 +4283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B25EB-4023-477D-80C4-74718858ACC8}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4285,7 +4297,7 @@
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.88671875" customWidth="1"/>
@@ -4325,15 +4337,15 @@
       <c r="C3" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4350,13 +4362,13 @@
         <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>232</v>
@@ -4380,28 +4392,28 @@
         <v>0.85</v>
       </c>
       <c r="K5">
-        <f>$B$36*J5</f>
-        <v>3.0600000000000001E-4</v>
+        <f t="shared" ref="K5:K15" si="0">$B$36*J5</f>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="L5">
         <f>K5*$B$12</f>
-        <v>0.1759415047532</v>
+        <v>0.23388222246400001</v>
       </c>
       <c r="M5">
-        <f>L5/$L$10</f>
+        <f t="shared" ref="M5:M15" si="1">L5/$L$10</f>
         <v>0.94444444444444453</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N9" si="0">$B$15/M5</f>
-        <v>0.46181170262583526</v>
+        <f t="shared" ref="N5:N15" si="2">$B$15/M5</f>
+        <v>0.42211529395200004</v>
       </c>
       <c r="O5">
-        <f>$B$21*K5</f>
-        <v>1.0014545454545455E-2</v>
+        <f t="shared" ref="O5:O15" si="3">$B$21*K5</f>
+        <v>1.7092727272727273E-2</v>
       </c>
       <c r="P5">
-        <f>($D$30)+O5</f>
-        <v>1.5834545454545455E-2</v>
+        <f>($D$30*M5)+O5</f>
+        <v>2.258939393939394E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -4415,163 +4427,163 @@
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J6">
         <v>0.86</v>
       </c>
       <c r="K6">
-        <f>$B$36*J6</f>
-        <v>3.0959999999999999E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.4400000000000001E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L15" si="1">K6*$B$12</f>
-        <v>0.17801140480911998</v>
+        <f t="shared" ref="L6:L15" si="4">K6*$B$12</f>
+        <v>0.23663377802239999</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="2">L6/$L$10</f>
+        <f t="shared" si="1"/>
         <v>0.95555555555555549</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.45644179910693028</v>
+        <f t="shared" si="2"/>
+        <v>0.41720697658046524</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O15" si="3">$B$21*K6</f>
-        <v>1.0132363636363636E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7293818181818181E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P15" si="4">($D$30)+O6</f>
-        <v>1.5952363636363636E-2</v>
+        <f t="shared" ref="P6:P15" si="5">($D$30*M6)+O6</f>
+        <v>2.2855151515151516E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>B36*0.9</f>
-        <v>3.2400000000000001E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="C7">
         <f>0.9*B35</f>
         <v>8.4780000000000001E-4</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J7">
         <v>0.87</v>
       </c>
       <c r="K7">
-        <f>$B$36*J7</f>
-        <v>3.1320000000000002E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.48E-4</v>
       </c>
       <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.2393853335808</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="1"/>
-        <v>0.18008130486504001</v>
-      </c>
-      <c r="M7">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="2"/>
-        <v>0.96666666666666679</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0.451195341645931</v>
+        <v>0.41241149409103456</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>1.0250181818181818E-2</v>
+        <v>1.7494909090909092E-2</v>
       </c>
       <c r="P7">
-        <f t="shared" si="4"/>
-        <v>1.6070181818181817E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3120909090909091E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <f>B6/B7</f>
-        <v>555.55555555555554</v>
+        <v>499.99999999999994</v>
       </c>
       <c r="C8">
         <f>C6/C7</f>
         <v>294.88086812927577</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J8">
         <v>0.88</v>
       </c>
       <c r="K8">
-        <f>$B$36*J8</f>
-        <v>3.168E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.5200000000000005E-4</v>
       </c>
       <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.24213688913920003</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>0.18215120492095999</v>
-      </c>
-      <c r="M8">
+        <v>0.97777777777777797</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="2"/>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0.44606812185450007</v>
+        <v>0.40772499983999999</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>1.0368E-2</v>
+        <v>1.7696000000000003E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="4"/>
-        <v>1.6188000000000001E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.338666666666667E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>4.0833366</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>4.0833366</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="J9">
         <v>0.89</v>
       </c>
       <c r="K9">
-        <f>$B$36*J9</f>
-        <v>3.2040000000000004E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.5600000000000003E-4</v>
       </c>
       <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.24488844469760002</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>0.18422110497688002</v>
-      </c>
-      <c r="M9">
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="2"/>
-        <v>0.98888888888888904</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0.44105612048534826</v>
+        <v>0.40314382006651689</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>1.0485818181818183E-2</v>
+        <v>1.7897090909090911E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="4"/>
-        <v>1.6305818181818182E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3652424242424246E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>14.444456000000002</v>
+        <v>150</v>
       </c>
       <c r="C10">
-        <v>14.444456000000002</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -4583,36 +4595,38 @@
         <v>0.9</v>
       </c>
       <c r="K10">
-        <f>$B$36*J10</f>
-        <v>3.2400000000000001E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0.247640000256</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="1"/>
-        <v>0.18629100503279999</v>
-      </c>
-      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f>$B$15/M10</f>
-        <v>0.43615549692440003</v>
+        <v>0.39866444428800007</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>1.0603636363636364E-2</v>
+        <v>1.8098181818181819E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="4"/>
-        <v>1.6423636363636362E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3918181818181818E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>0.88888960000000017</v>
+        <f>0.8888896+32</f>
+        <v>32.888889599999999</v>
       </c>
       <c r="C11">
-        <v>0.88888960000000017</v>
+        <f>0.8888896+32</f>
+        <v>32.888889599999999</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -4624,41 +4638,41 @@
         <v>0.91</v>
       </c>
       <c r="K11">
-        <f>$B$36*J11</f>
-        <v>3.2760000000000005E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.6400000000000001E-4</v>
       </c>
       <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.25039155581439998</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="1"/>
-        <v>0.18836090508872003</v>
-      </c>
-      <c r="M11">
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="2"/>
-        <v>1.0111111111111113</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ref="N11:N15" si="5">$B$15/M11</f>
-        <v>0.43136257937578015</v>
+        <v>0.39428351632879127</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>1.0721454545454546E-2</v>
+        <v>1.8299272727272727E-2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="4"/>
-        <v>1.6541454545454547E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.4183939393939393E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12">
         <f>SUM(B8:B11)</f>
-        <v>574.97223775555551</v>
+        <v>687.88888959999997</v>
       </c>
       <c r="C12">
         <f>SUM(C8:C11)</f>
-        <v>314.29755032927579</v>
+        <v>482.76975772927574</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -4667,111 +4681,111 @@
         <v>0.92</v>
       </c>
       <c r="K12">
-        <f>$B$36*J12</f>
-        <v>3.3120000000000003E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.6800000000000005E-4</v>
       </c>
       <c r="L12">
         <f>K12*$B$12</f>
-        <v>0.19043080514464</v>
+        <v>0.25314311137280004</v>
       </c>
       <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="2"/>
-        <v>1.0222222222222224</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>0.42667385568691302</v>
+        <v>0.38999782593391308</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>1.0839272727272729E-2</v>
+        <v>1.8500363636363638E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
-        <v>1.6659272727272727E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.4449696969696972E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B13">
         <f>1/B36</f>
-        <v>2777.7777777777778</v>
+        <v>2500</v>
       </c>
       <c r="C13">
         <f>1/B35</f>
         <v>1061.5711252653928</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13">
         <v>0.93</v>
       </c>
       <c r="K13">
-        <f>$B$36*J13</f>
-        <v>3.3480000000000006E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.7200000000000004E-4</v>
       </c>
       <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0.2558946669312</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="1"/>
-        <v>0.19250070520056001</v>
-      </c>
-      <c r="M13">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="2"/>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>0.42208596476554838</v>
+        <v>0.38580430092387102</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>1.0957090909090911E-2</v>
+        <v>1.8701454545454549E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="4"/>
-        <v>1.6777090909090912E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.4715454545454547E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14">
         <f>(B13-B12)/B13</f>
-        <v>0.79300999440800002</v>
+        <v>0.72484444416000005</v>
       </c>
       <c r="C14">
         <f>(C13-C12)/C13</f>
-        <v>0.70393170758982226</v>
+        <v>0.54523088821902221</v>
       </c>
       <c r="J14">
         <v>0.94</v>
       </c>
       <c r="K14">
-        <f>$B$36*J14</f>
-        <v>3.3839999999999999E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.25864622248959995</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="1"/>
-        <v>0.19457060525647998</v>
-      </c>
-      <c r="M14">
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="2"/>
-        <v>1.0444444444444443</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>0.41759568854463841</v>
+        <v>0.38169999985021291</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>1.107490909090909E-2</v>
+        <v>1.8902545454545453E-2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
-        <v>1.6894909090909089E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.4981212121212119E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -4780,51 +4794,51 @@
       </c>
       <c r="B15">
         <f>0.55*B14</f>
-        <v>0.43615549692440003</v>
+        <v>0.39866444428800007</v>
       </c>
       <c r="C15">
         <f>0.55*C14</f>
-        <v>0.3871624391744023</v>
+        <v>0.29987698852046224</v>
       </c>
       <c r="J15">
         <v>0.95</v>
       </c>
       <c r="K15">
-        <f>$B$36*J15</f>
-        <v>3.4200000000000002E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.26139777804800002</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="1"/>
-        <v>0.19664050531239999</v>
-      </c>
-      <c r="M15">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="2"/>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>0.41319994445469477</v>
+        <v>0.37768210511494743</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>1.1192727272727273E-2</v>
+        <v>1.9103636363636364E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="4"/>
-        <v>1.7012727272727273E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.5246969696969698E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -4846,10 +4860,10 @@
         <v>230</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>232</v>
@@ -4863,7 +4877,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>25.454545454545453</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -4875,28 +4889,28 @@
         <v>0.85</v>
       </c>
       <c r="K19">
-        <f>$B$35*J19</f>
+        <f t="shared" ref="K19:K29" si="6">$B$35*J19</f>
         <v>8.007E-4</v>
       </c>
       <c r="L19">
         <f>K19*$C$12</f>
-        <v>0.25165804854865115</v>
+        <v>0.38655374501383111</v>
       </c>
       <c r="M19">
         <f>L19/$L$24</f>
         <v>0.94444444444444453</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N23" si="6">$C$15/M19</f>
-        <v>0.40993670030230828</v>
+        <f t="shared" ref="N19:N23" si="7">$C$15/M19</f>
+        <v>0.31751681137460702</v>
       </c>
       <c r="O19">
         <f>$B$21*K19</f>
-        <v>2.6204727272727272E-2</v>
+        <v>4.0253372727272731E-2</v>
       </c>
       <c r="P19">
-        <f>($D$29)+O19</f>
-        <v>3.7134727272727271E-2</v>
+        <f>($D$29*M19)+O19</f>
+        <v>5.0576150505050509E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -4913,28 +4927,28 @@
         <v>0.86</v>
       </c>
       <c r="K20">
-        <f>$B$35*J20</f>
+        <f t="shared" si="6"/>
         <v>8.1012E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L29" si="7">K20*$C$12</f>
-        <v>0.25461873147275288</v>
+        <f t="shared" ref="L20:L29" si="8">K20*$C$12</f>
+        <v>0.39110143613164089</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M29" si="8">L20/$L$24</f>
-        <v>0.95555555555555538</v>
+        <f t="shared" ref="M20:M29" si="9">L20/$L$24</f>
+        <v>0.9555555555555556</v>
       </c>
       <c r="N20">
-        <f t="shared" si="6"/>
-        <v>0.4051699944848397</v>
+        <f t="shared" si="7"/>
+        <v>0.31382475542839072</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O29" si="9">$B$21*K20</f>
-        <v>2.6513018181818181E-2</v>
+        <f t="shared" ref="O20:O29" si="10">$B$21*K20</f>
+        <v>4.0726941818181817E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" ref="P20:P29" si="10">($D$29)+O20</f>
-        <v>3.744301818181818E-2</v>
+        <f t="shared" ref="P20:P29" si="11">($D$29*M20)+O20</f>
+        <v>5.1171164040404039E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -4943,7 +4957,7 @@
       </c>
       <c r="B21" s="2">
         <f>(B19+B20)</f>
-        <v>32.727272727272727</v>
+        <v>50.272727272727273</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -4952,64 +4966,64 @@
         <v>0.87</v>
       </c>
       <c r="K21">
-        <f>$B$35*J21</f>
+        <f t="shared" si="6"/>
         <v>8.1954E-4</v>
       </c>
       <c r="L21">
+        <f t="shared" si="8"/>
+        <v>0.39564912724945062</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="9"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="7"/>
-        <v>0.25757941439685467</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="8"/>
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="6"/>
-        <v>0.4005128681114507</v>
+        <v>0.31021757433151265</v>
       </c>
       <c r="O21">
-        <f t="shared" si="9"/>
-        <v>2.6821309090909091E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.1200510909090909E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="10"/>
-        <v>3.775130909090909E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.1766177575757577E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B22">
         <f>B21/B18</f>
-        <v>0.40909090909090906</v>
+        <v>0.62840909090909092</v>
       </c>
       <c r="J22">
         <v>0.88</v>
       </c>
       <c r="K22">
-        <f>$B$35*J22</f>
+        <f t="shared" si="6"/>
         <v>8.2896000000000001E-4</v>
       </c>
       <c r="L22">
+        <f t="shared" si="8"/>
+        <v>0.4001968183672604</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="9"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="7"/>
-        <v>0.26054009732095645</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="8"/>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="6"/>
-        <v>0.39596158551927507</v>
+        <v>0.30669237462320004</v>
       </c>
       <c r="O22">
-        <f t="shared" si="9"/>
-        <v>2.71296E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.1674080000000002E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="10"/>
-        <v>3.8059599999999999E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.2361191111111115E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -5020,28 +5034,28 @@
         <v>0.89</v>
       </c>
       <c r="K23">
-        <f>$B$35*J23</f>
+        <f t="shared" si="6"/>
         <v>8.3838000000000001E-4</v>
       </c>
       <c r="L23">
+        <f t="shared" si="8"/>
+        <v>0.40474450948507018</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="7"/>
-        <v>0.26350078024505824</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="8"/>
-        <v>0.98888888888888882</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="6"/>
-        <v>0.39151257894040686</v>
+        <v>0.30324639288586069</v>
       </c>
       <c r="O23">
-        <f t="shared" si="9"/>
-        <v>2.743789090909091E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.2147649090909095E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="10"/>
-        <v>3.8367890909090908E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.2956204646464652E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -5058,28 +5072,28 @@
         <v>0.9</v>
       </c>
       <c r="K24">
-        <f>$B$35*J24</f>
+        <f t="shared" si="6"/>
         <v>8.4780000000000001E-4</v>
       </c>
       <c r="L24">
-        <f t="shared" si="7"/>
-        <v>0.26646146316916003</v>
+        <f t="shared" si="8"/>
+        <v>0.40929220060287996</v>
       </c>
       <c r="M24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N24">
         <f>$C$15/M24</f>
-        <v>0.3871624391744023</v>
+        <v>0.29987698852046224</v>
       </c>
       <c r="O24">
-        <f t="shared" si="9"/>
-        <v>2.7746181818181819E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.2621218181818181E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="10"/>
-        <v>3.8676181818181818E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.3551218181818183E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -5093,28 +5107,28 @@
         <v>0.91</v>
       </c>
       <c r="K25">
-        <f>$B$35*J25</f>
+        <f t="shared" si="6"/>
         <v>8.5722000000000001E-4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="7"/>
-        <v>0.26942214609326182</v>
+        <f t="shared" si="8"/>
+        <v>0.41383989172068975</v>
       </c>
       <c r="M25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0111111111111111</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N29" si="11">$C$15/M25</f>
-        <v>0.38290790687578252</v>
+        <f t="shared" ref="N25:N29" si="12">$C$15/M25</f>
+        <v>0.29658163699825935</v>
       </c>
       <c r="O25">
-        <f t="shared" si="9"/>
-        <v>2.8054472727272729E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.3094787272727274E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="10"/>
-        <v>3.8984472727272727E-2</v>
+        <f t="shared" si="11"/>
+        <v>5.4146231717171721E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -5128,28 +5142,28 @@
         <v>0.92</v>
       </c>
       <c r="K26">
-        <f>$B$35*J26</f>
+        <f t="shared" si="6"/>
         <v>8.6664000000000001E-4</v>
       </c>
       <c r="L26">
-        <f t="shared" si="7"/>
-        <v>0.2723828290173636</v>
+        <f t="shared" si="8"/>
+        <v>0.41838758283849953</v>
       </c>
       <c r="M26">
-        <f t="shared" si="8"/>
-        <v>1.0222222222222224</v>
+        <f t="shared" si="9"/>
+        <v>1.0222222222222221</v>
       </c>
       <c r="N26">
+        <f t="shared" si="12"/>
+        <v>0.29335792355262613</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>4.3568356363636367E-2</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="11"/>
-        <v>0.37874586440974134</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="9"/>
-        <v>2.8362763636363635E-2</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="10"/>
-        <v>3.9292763636363637E-2</v>
+        <v>5.4741245252525259E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -5158,28 +5172,28 @@
         <v>0.93</v>
       </c>
       <c r="K27">
-        <f>$B$35*J27</f>
+        <f t="shared" si="6"/>
         <v>8.7606000000000001E-4</v>
       </c>
       <c r="L27">
-        <f t="shared" si="7"/>
-        <v>0.27534351194146534</v>
+        <f t="shared" si="8"/>
+        <v>0.42293527395630931</v>
       </c>
       <c r="M27">
-        <f t="shared" si="8"/>
-        <v>1.0333333333333332</v>
+        <f t="shared" si="9"/>
+        <v>1.0333333333333334</v>
       </c>
       <c r="N27">
+        <f t="shared" si="12"/>
+        <v>0.29020353727786663</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>4.4041925454545452E-2</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="11"/>
-        <v>0.37467332823329258</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="9"/>
-        <v>2.8671054545454544E-2</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="10"/>
-        <v>3.9601054545454546E-2</v>
+        <v>5.5336258787878789E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -5196,47 +5210,47 @@
         <v>225</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J28">
         <v>0.94</v>
       </c>
       <c r="K28">
-        <f>$B$35*J28</f>
+        <f t="shared" si="6"/>
         <v>8.8548000000000001E-4</v>
       </c>
       <c r="L28">
-        <f t="shared" si="7"/>
-        <v>0.27830419486556712</v>
+        <f t="shared" si="8"/>
+        <v>0.42748296507411909</v>
       </c>
       <c r="M28">
-        <f t="shared" si="8"/>
-        <v>1.0444444444444443</v>
+        <f t="shared" si="9"/>
+        <v>1.0444444444444445</v>
       </c>
       <c r="N28">
+        <f t="shared" si="12"/>
+        <v>0.28711626560469788</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>4.4515494545454545E-2</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="11"/>
-        <v>0.37068744176272567</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="9"/>
-        <v>2.8979345454545453E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="10"/>
-        <v>3.9909345454545456E-2</v>
+        <v>5.593127232323232E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>5997</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="21">
         <v>59.29</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="21">
         <f>10.93*1000/1000000</f>
         <v>1.093E-2</v>
       </c>
@@ -5244,78 +5258,81 @@
         <v>0.95</v>
       </c>
       <c r="K29">
-        <f>$B$35*J29</f>
+        <f t="shared" si="6"/>
         <v>8.9490000000000001E-4</v>
       </c>
       <c r="L29">
-        <f t="shared" si="7"/>
-        <v>0.28126487778966891</v>
+        <f t="shared" si="8"/>
+        <v>0.43203065619192887</v>
       </c>
       <c r="M29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0555555555555556</v>
       </c>
       <c r="N29">
+        <f t="shared" si="12"/>
+        <v>0.28409398912464845</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>4.4989063636363638E-2</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="11"/>
-        <v>0.366785468691539</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="9"/>
-        <v>2.9287636363636363E-2</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="10"/>
-        <v>4.0217636363636365E-2</v>
+        <v>5.6526285858585865E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="21">
         <v>2569</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="21">
         <v>27.48</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="21">
         <f>5.82*1000/1000000</f>
         <v>5.8199999999999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B31" s="23">
-        <v>854.8</v>
-      </c>
-      <c r="C31" s="23">
-        <v>6.1429999999999998</v>
-      </c>
-      <c r="D31" s="23">
-        <v>0.46</v>
+        <v>257</v>
+      </c>
+      <c r="B31" s="21">
+        <v>495</v>
+      </c>
+      <c r="C31" s="21">
+        <v>4</v>
+      </c>
+      <c r="D31" s="21">
+        <v>2.6473008613171967E-2</v>
       </c>
       <c r="E31">
-        <v>0.48300381221749639</v>
-      </c>
-      <c r="J31" s="22" t="s">
+        <v>0.73</v>
+      </c>
+      <c r="J31" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2">
         <f>2*B31</f>
-        <v>1709.6</v>
+        <v>990</v>
+      </c>
+      <c r="C32" s="22">
+        <v>4</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>4</v>
@@ -5324,11 +5341,11 @@
         <v>230</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>235</v>
@@ -5342,24 +5359,24 @@
         <v>0.85</v>
       </c>
       <c r="K33">
-        <f>$B$37*J33</f>
+        <f t="shared" ref="K33:K43" si="13">$B$37*J33</f>
         <v>2.6604999999999999E-4</v>
       </c>
       <c r="L33">
         <f>K33*$B$12</f>
-        <v>0.15297136385486554</v>
+        <v>0.18301283907808</v>
       </c>
       <c r="N33">
         <f>$E$31-L33</f>
-        <v>0.33003244836263085</v>
+        <v>0.54698716092192001</v>
       </c>
       <c r="O33">
-        <f>$B$21*K33</f>
-        <v>8.7070909090909091E-3</v>
+        <f>($B$21+$B$18)*K33</f>
+        <v>3.4659059090909092E-2</v>
       </c>
       <c r="P33">
-        <f>($D$31)+O33</f>
-        <v>0.46870709090909091</v>
+        <f>($D$31*M19)+O33</f>
+        <v>5.9661345003349284E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -5370,31 +5387,31 @@
         <v>0.86</v>
       </c>
       <c r="K34">
-        <f>$B$37*J34</f>
+        <f t="shared" si="13"/>
         <v>2.6917999999999999E-4</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L43" si="12">K34*$B$12</f>
-        <v>0.15477102695904044</v>
+        <f t="shared" ref="L34:L43" si="14">K34*$B$12</f>
+        <v>0.18516593130252798</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N43" si="13">$E$31-L34</f>
-        <v>0.32823278525845595</v>
+        <f t="shared" ref="N34:N43" si="15">$E$31-L34</f>
+        <v>0.54483406869747197</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O43" si="14">$B$21*K34</f>
-        <v>8.8095272727272723E-3</v>
+        <f t="shared" ref="O34:O43" si="16">($B$21+$B$18)*K34</f>
+        <v>3.5066812727272731E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P43" si="15">($D$31)+O34</f>
-        <v>0.46880952727272729</v>
+        <f t="shared" ref="P34:P43" si="17">($D$31*M20)+O34</f>
+        <v>6.0363243179859277E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="22">
         <f>942/1000000</f>
         <v>9.4200000000000002E-4</v>
       </c>
@@ -5405,33 +5422,33 @@
         <v>0.87</v>
       </c>
       <c r="K35">
-        <f>$B$37*J35</f>
+        <f t="shared" si="13"/>
         <v>2.7231E-4</v>
       </c>
       <c r="L35">
-        <f t="shared" si="12"/>
-        <v>0.15657069006321533</v>
+        <f t="shared" si="14"/>
+        <v>0.18731902352697599</v>
       </c>
       <c r="N35">
-        <f t="shared" si="13"/>
-        <v>0.32643312215428105</v>
+        <f t="shared" si="15"/>
+        <v>0.54268097647302405</v>
       </c>
       <c r="O35">
-        <f t="shared" si="14"/>
-        <v>8.9119636363636356E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5474566363636363E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="15"/>
-        <v>0.46891196363636367</v>
+        <f t="shared" si="17"/>
+        <v>6.1065141356369264E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="24">
-        <f>360/1000000</f>
-        <v>3.6000000000000002E-4</v>
+      <c r="B36" s="22">
+        <f>400/1000000</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C36" t="s">
         <v>76</v>
@@ -5440,31 +5457,31 @@
         <v>0.88</v>
       </c>
       <c r="K36">
-        <f>$B$37*J36</f>
+        <f t="shared" si="13"/>
         <v>2.7544000000000001E-4</v>
       </c>
       <c r="L36">
-        <f t="shared" si="12"/>
-        <v>0.1583703531673902</v>
+        <f t="shared" si="14"/>
+        <v>0.189472115751424</v>
       </c>
       <c r="N36">
-        <f t="shared" si="13"/>
-        <v>0.32463345905010621</v>
+        <f t="shared" si="15"/>
+        <v>0.54052788424857601</v>
       </c>
       <c r="O36">
-        <f t="shared" si="14"/>
-        <v>9.0144000000000005E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5882320000000002E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="15"/>
-        <v>0.4690144</v>
+        <f t="shared" si="17"/>
+        <v>6.1767039532879257E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="22">
         <f>313/1000000</f>
         <v>3.1300000000000002E-4</v>
       </c>
@@ -5475,24 +5492,24 @@
         <v>0.89</v>
       </c>
       <c r="K37">
-        <f>$B$37*J37</f>
+        <f t="shared" si="13"/>
         <v>2.7857000000000001E-4</v>
       </c>
       <c r="L37">
-        <f t="shared" si="12"/>
-        <v>0.1601700162715651</v>
+        <f t="shared" si="14"/>
+        <v>0.19162520797587199</v>
       </c>
       <c r="N37">
-        <f t="shared" si="13"/>
-        <v>0.32283379594593131</v>
+        <f t="shared" si="15"/>
+        <v>0.53837479202412797</v>
       </c>
       <c r="O37">
-        <f t="shared" si="14"/>
-        <v>9.1168363636363638E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.6290073636363641E-2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="15"/>
-        <v>0.46911683636363638</v>
+        <f t="shared" si="17"/>
+        <v>6.2468937709389258E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -5500,24 +5517,24 @@
         <v>0.9</v>
       </c>
       <c r="K38">
-        <f>$B$37*J38</f>
+        <f t="shared" si="13"/>
         <v>2.8170000000000002E-4</v>
       </c>
       <c r="L38">
-        <f t="shared" si="12"/>
-        <v>0.16196967937574</v>
+        <f t="shared" si="14"/>
+        <v>0.19377830020032</v>
       </c>
       <c r="N38">
-        <f t="shared" si="13"/>
-        <v>0.32103413284175641</v>
+        <f t="shared" si="15"/>
+        <v>0.53622169979968004</v>
       </c>
       <c r="O38">
-        <f t="shared" si="14"/>
-        <v>9.219272727272727E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.6697827272727274E-2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="15"/>
-        <v>0.46921927272727276</v>
+        <f t="shared" si="17"/>
+        <v>6.3170835885899237E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -5525,24 +5542,24 @@
         <v>0.91</v>
       </c>
       <c r="K39">
-        <f>$B$37*J39</f>
+        <f t="shared" si="13"/>
         <v>2.8483000000000002E-4</v>
       </c>
       <c r="L39">
-        <f t="shared" si="12"/>
-        <v>0.1637693424799149</v>
+        <f t="shared" si="14"/>
+        <v>0.19593139242476801</v>
       </c>
       <c r="N39">
-        <f t="shared" si="13"/>
-        <v>0.31923446973758152</v>
+        <f t="shared" si="15"/>
+        <v>0.534068607575232</v>
       </c>
       <c r="O39">
-        <f t="shared" si="14"/>
-        <v>9.321709090909092E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.7105580909090913E-2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="15"/>
-        <v>0.46932170909090909</v>
+        <f t="shared" si="17"/>
+        <v>6.3872734062409231E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -5550,24 +5567,24 @@
         <v>0.92</v>
       </c>
       <c r="K40">
-        <f>$B$37*J40</f>
+        <f t="shared" si="13"/>
         <v>2.8796000000000003E-4</v>
       </c>
       <c r="L40">
-        <f t="shared" si="12"/>
-        <v>0.16556900558408977</v>
+        <f t="shared" si="14"/>
+        <v>0.19808448464921602</v>
       </c>
       <c r="N40">
-        <f t="shared" si="13"/>
-        <v>0.31743480663340662</v>
+        <f t="shared" si="15"/>
+        <v>0.53191551535078396</v>
       </c>
       <c r="O40">
-        <f t="shared" si="14"/>
-        <v>9.4241454545454552E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.7513334545454552E-2</v>
       </c>
       <c r="P40">
-        <f t="shared" si="15"/>
-        <v>0.46942414545454547</v>
+        <f t="shared" si="17"/>
+        <v>6.4574632238919225E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -5575,24 +5592,24 @@
         <v>0.93</v>
       </c>
       <c r="K41">
-        <f>$B$37*J41</f>
+        <f t="shared" si="13"/>
         <v>2.9109000000000003E-4</v>
       </c>
       <c r="L41">
-        <f t="shared" si="12"/>
-        <v>0.16736866868826467</v>
+        <f t="shared" si="14"/>
+        <v>0.200237576873664</v>
       </c>
       <c r="N41">
-        <f t="shared" si="13"/>
-        <v>0.31563514352923172</v>
+        <f t="shared" si="15"/>
+        <v>0.52976242312633604</v>
       </c>
       <c r="O41">
-        <f t="shared" si="14"/>
-        <v>9.5265818181818184E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.7921088181818191E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="15"/>
-        <v>0.46952658181818185</v>
+        <f t="shared" si="17"/>
+        <v>6.5276530415429218E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -5600,24 +5617,24 @@
         <v>0.94</v>
       </c>
       <c r="K42">
-        <f>$B$37*J42</f>
+        <f t="shared" si="13"/>
         <v>2.9421999999999999E-4</v>
       </c>
       <c r="L42">
-        <f t="shared" si="12"/>
-        <v>0.16916833179243954</v>
+        <f t="shared" si="14"/>
+        <v>0.20239066909811199</v>
       </c>
       <c r="N42">
-        <f t="shared" si="13"/>
-        <v>0.31383548042505682</v>
+        <f t="shared" si="15"/>
+        <v>0.527609330901888</v>
       </c>
       <c r="O42">
-        <f t="shared" si="14"/>
-        <v>9.6290181818181816E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.8328841818181816E-2</v>
       </c>
       <c r="P42">
-        <f t="shared" si="15"/>
-        <v>0.46962901818181818</v>
+        <f t="shared" si="17"/>
+        <v>6.5978428591939198E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -5625,24 +5642,24 @@
         <v>0.95</v>
       </c>
       <c r="K43">
-        <f>$B$37*J43</f>
+        <f t="shared" si="13"/>
         <v>2.9734999999999999E-4</v>
       </c>
       <c r="L43">
-        <f t="shared" si="12"/>
-        <v>0.17096799489661443</v>
+        <f t="shared" si="14"/>
+        <v>0.20454376132256</v>
       </c>
       <c r="N43">
-        <f t="shared" si="13"/>
-        <v>0.31203581732088193</v>
+        <f t="shared" si="15"/>
+        <v>0.52545623867743996</v>
       </c>
       <c r="O43">
-        <f t="shared" si="14"/>
-        <v>9.7314545454545449E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.8736595454545455E-2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="15"/>
-        <v>0.46973145454545456</v>
+        <f t="shared" si="17"/>
+        <v>6.6680326768449205E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5696,7 +5713,7 @@
         <v>400</v>
       </c>
       <c r="E2">
-        <f>C2*$D$2</f>
+        <f t="shared" ref="E2:E9" si="0">C2*$D$2</f>
         <v>0.8</v>
       </c>
     </row>
@@ -5708,7 +5725,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E3">
-        <f>C3*$D$2</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
     </row>
@@ -5720,7 +5737,7 @@
         <v>0.02</v>
       </c>
       <c r="E4">
-        <f>C4*$D$2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -5732,7 +5749,7 @@
         <v>0.06</v>
       </c>
       <c r="E5">
-        <f>C5*$D$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -5744,7 +5761,7 @@
         <v>0.2</v>
       </c>
       <c r="E6">
-        <f>C6*$D$2</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -5756,7 +5773,7 @@
         <v>0.5</v>
       </c>
       <c r="E7">
-        <f>C7*$D$2</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -5768,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>C8*$D$2</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
@@ -5780,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>C9*$D$2</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
     </row>
@@ -5983,10 +6000,10 @@
       <c r="G10" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="12">
         <f>L9/G5</f>
         <v>122583.35123523093</v>
@@ -5996,10 +6013,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="12">
         <f>M4*L10</f>
         <v>4086438.5967776584</v>
@@ -6928,10 +6945,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5DFEF8-915B-4056-B382-3EF1CD6D8429}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6945,7 +6962,7 @@
     <col min="10" max="10" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" s="5">
         <v>41.869</v>
       </c>
@@ -6969,7 +6986,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="10">
@@ -6991,7 +7008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7023,7 +7040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -7041,24 +7058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25">
-        <v>0.65</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -7076,21 +7076,21 @@
         <v>85</v>
       </c>
       <c r="F8">
-        <f>(D8*I3*C6/(1000000))</f>
-        <v>1508.4772559999999</v>
+        <f>(D8*I3/(1000000))</f>
+        <v>2320.7342400000002</v>
       </c>
       <c r="G8" t="s">
         <v>139</v>
       </c>
       <c r="I8">
         <f>F8/8760</f>
-        <v>0.17220059999999998</v>
+        <v>0.26492400000000005</v>
       </c>
       <c r="J8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -7100,8 +7100,12 @@
       <c r="C9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>B9*B17*365*24*3600/1000000000</f>
+        <v>22.705919999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>140</v>
       </c>
@@ -7114,276 +7118,327 @@
       </c>
       <c r="D11">
         <f>B11/I8</f>
-        <v>777.08788471120317</v>
+        <v>505.10712506228191</v>
       </c>
       <c r="E11" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="16">
         <f>D11*I1</f>
-        <v>854.79667318232362</v>
+        <v>555.61783756851014</v>
       </c>
       <c r="G11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12">
+        <f>450*I1</f>
+        <v>495.00000000000006</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13">
+        <f>B12/F11</f>
+        <v>0.89090012330456247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14">
+        <f>I8/B13</f>
+        <v>0.29736666666666667</v>
+      </c>
+      <c r="D14">
+        <f>B11/B14</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="23">
+        <f>F8/B13</f>
+        <v>2604.9319999999998</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I19" t="s">
         <v>158</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J19" t="s">
         <v>159</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>144</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <f>61753*1000</f>
         <v>61753000</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
         <v>147</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E20" t="s">
         <v>149</v>
       </c>
-      <c r="F15">
-        <f>B15/(D15*1000)</f>
+      <c r="F20">
+        <f>B20/(D20*1000)</f>
         <v>3087.65</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="I15">
-        <f>F8/F16</f>
-        <v>42.532253458646615</v>
-      </c>
-      <c r="J15">
-        <f>F8/(F16+F15)</f>
-        <v>0.48300381221749639</v>
-      </c>
-      <c r="K15" s="16">
-        <f>F16/F15</f>
+      <c r="I20">
+        <f>B15/F21</f>
+        <v>73.44733082706766</v>
+      </c>
+      <c r="J20">
+        <f>B15/(F21+F20)</f>
+        <v>0.83408091276342533</v>
+      </c>
+      <c r="K20" s="16">
+        <f>F21/F20</f>
         <v>1.1486621432696928E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>145</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>1064000</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>147</v>
       </c>
-      <c r="D16">
+      <c r="D21">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E21" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="2">
-        <f>B16/(D16*1000)</f>
+      <c r="F21" s="2">
+        <f>B21/(D21*1000)</f>
         <v>35.466666666666669</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>146</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>1089000</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>147</v>
       </c>
-      <c r="D18">
-        <f>B18/1000000</f>
+      <c r="D23">
+        <f>B23/1000000</f>
         <v>1.089</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>150</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <f>B20*(365*24*60*60)</f>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>B25*(365*24*60*60)</f>
         <v>378432000</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <f>B21*0.3</f>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>B26*0.3</f>
         <v>113529600</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C27" t="s">
         <v>116</v>
       </c>
-      <c r="D22">
-        <f>B22*G1/(1000000)</f>
+      <c r="D27">
+        <f>B27*G1/(1000000)</f>
         <v>1.0320872727272727</v>
-      </c>
-      <c r="E22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22">
-        <f>D22/I1</f>
-        <v>0.93826115702479329</v>
-      </c>
-      <c r="G22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24">
-        <f>(B15/1000000)+F22</f>
-        <v>62.69126115702479</v>
-      </c>
-      <c r="C24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24">
-        <f>B24*I1</f>
-        <v>68.960387272727274</v>
-      </c>
-      <c r="E24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F24" s="16">
-        <f>D24/F8</f>
-        <v>4.5715231700336145E-2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27">
-        <f>D18</f>
-        <v>1.089</v>
-      </c>
-      <c r="C27" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27">
-        <f>B27*I1</f>
-        <v>1.1979</v>
       </c>
       <c r="E27" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="16">
-        <f>D27/I8</f>
-        <v>6.9564217546280336</v>
+      <c r="F27">
+        <f>D27/I1</f>
+        <v>0.93826115702479329</v>
       </c>
       <c r="G27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29">
+        <f>(B20/1000000)+F27</f>
+        <v>62.69126115702479</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29">
+        <f>B29*I1</f>
+        <v>68.960387272727274</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="16">
+        <f>D29/B15</f>
+        <v>2.6473008613171967E-2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32">
+        <f>D23</f>
+        <v>1.089</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32">
+        <f>B32*I1</f>
+        <v>1.1979</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="16">
+        <f>D32/B14</f>
+        <v>4.028360049321825</v>
+      </c>
+      <c r="G32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B30">
-        <f>F8*B12*1000</f>
-        <v>30169545.119999997</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B35">
+        <f>F8*B17*1000</f>
+        <v>69622027.200000018</v>
+      </c>
+      <c r="C35" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="D35">
+        <f>D9/(B35/1000)</f>
+        <v>3.2613126783530364E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B31">
-        <f>(B11*1000000)+(70005000*B12)</f>
-        <v>1533915000</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B36">
+        <f>(B11*1000000)+(70005000*B17)</f>
+        <v>2233965000</v>
+      </c>
+      <c r="C36" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="25">
-        <f>B31/B30</f>
-        <v>50.843159679697557</v>
-      </c>
-      <c r="C32" s="25" t="s">
+      <c r="B37" s="23">
+        <f>B36/B35</f>
+        <v>32.08704327988886</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
+      <c r="D37" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8D1DB-AE62-469C-AF97-FE561E227A13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5340288-21DE-48C5-A030-88D1891D2C13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37095" yWindow="4395" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS_Kato" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="268">
   <si>
     <t>H2 Method</t>
   </si>
@@ -842,6 +842,12 @@
   </si>
   <si>
     <t>Adj Output</t>
+  </si>
+  <si>
+    <t>OP factor</t>
+  </si>
+  <si>
+    <t>New Unit price</t>
   </si>
 </sst>
 </file>
@@ -3555,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3819,24 +3825,30 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B19">
-        <f>L9*B4/1000</f>
-        <v>0.42051363839999994</v>
+        <f>L9*B4</f>
+        <v>420.51363839999993</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -3844,17 +3856,30 @@
         <f>B6+(B16*B4)+(F11*B4)</f>
         <v>3618029.0909090908</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20">
+        <f>B20/(B19*1000*G19)</f>
+        <v>53.110079834324445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B21">
-        <f>B20/B19</f>
-        <v>8603832.9331605602</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <f>B20/(B19*1000)</f>
+        <v>8.603832933160561</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>109</v>
       </c>
@@ -3875,7 +3900,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2050</v>
       </c>
@@ -4283,7 +4308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B25EB-4023-477D-80C4-74718858ACC8}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
+    <sheetView topLeftCell="J14" workbookViewId="0">
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5340288-21DE-48C5-A030-88D1891D2C13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3532B8-A0FA-42D3-8C5A-D8A0481D34A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="CCS_Kato" sheetId="2" r:id="rId1"/>
-    <sheet name="CCS_Rubin" sheetId="14" r:id="rId2"/>
+    <sheet name="CCS_Costs_Early" sheetId="14" r:id="rId1"/>
+    <sheet name="CCS_Costs_Mature" sheetId="15" r:id="rId2"/>
     <sheet name="CCS reservoir trends" sheetId="13" r:id="rId3"/>
     <sheet name="JHFC" sheetId="1" r:id="rId4"/>
     <sheet name="Acar and Dincer" sheetId="6" r:id="rId5"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="256">
   <si>
     <t>H2 Method</t>
   </si>
@@ -97,12 +97,6 @@
     <t>Liquefaction</t>
   </si>
   <si>
-    <t>Geo Injection</t>
-  </si>
-  <si>
-    <t>MJ/t</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -121,27 +115,15 @@
     <t>GWh</t>
   </si>
   <si>
-    <t>Transportation (pipeline)</t>
-  </si>
-  <si>
     <t>Mt</t>
   </si>
   <si>
     <t>Transport</t>
   </si>
   <si>
-    <t>kJ/t</t>
-  </si>
-  <si>
     <t>1 MJ</t>
   </si>
   <si>
-    <t>Capture Cost</t>
-  </si>
-  <si>
-    <t>Capture Cost Targets</t>
-  </si>
-  <si>
     <t>MJ/tCO2</t>
   </si>
   <si>
@@ -694,12 +676,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>JPY/tCO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JPY/t</t>
-  </si>
-  <si>
     <t>Assumption = Capture/liquefaction plant is atmost 1km away</t>
   </si>
   <si>
@@ -712,9 +688,6 @@
     <t>Assuming EIA excludes pipeline cost</t>
   </si>
   <si>
-    <t>(affects CF)</t>
-  </si>
-  <si>
     <t>EIA Numbers(90% CCS)</t>
   </si>
   <si>
@@ -730,30 +703,15 @@
     <t>LNG Surcharges</t>
   </si>
   <si>
-    <t>Ratio to 90%</t>
-  </si>
-  <si>
     <t>Capture</t>
   </si>
   <si>
     <t>CO2 Captured(Mt/GWh)</t>
   </si>
   <si>
-    <t>Capture Cost(MUSD/GWh)</t>
-  </si>
-  <si>
     <t>New CF</t>
   </si>
   <si>
-    <t>(100km)</t>
-  </si>
-  <si>
-    <t>1km pipe</t>
-  </si>
-  <si>
-    <t>Inject+transport Costs</t>
-  </si>
-  <si>
     <t>Total (excluding capture)</t>
   </si>
   <si>
@@ -775,12 +733,6 @@
     <t>kg(lifetime)</t>
   </si>
   <si>
-    <t>Capture @ 90%</t>
-  </si>
-  <si>
-    <t>Transport to Capture</t>
-  </si>
-  <si>
     <t>Efficiency Penalty 90%CCS</t>
   </si>
   <si>
@@ -848,6 +800,18 @@
   </si>
   <si>
     <t>New Unit price</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Cap Cost(MUSD/GWh)</t>
   </si>
 </sst>
 </file>
@@ -858,7 +822,7 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000E+00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,12 +863,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -995,10 +953,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1008,30 +966,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1354,229 +1311,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C7BE1D-16BA-4023-AA64-49E118FA5EEE}">
-  <dimension ref="A1:Q43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B25EB-4023-477D-80C4-74718858ACC8}">
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+        <v>210</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K1">
         <f>0.277778/1000000</f>
         <v>2.7777800000000004E-7</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="O1">
-        <f>1/110</f>
-        <v>9.0909090909090905E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="J3" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4">
+        <v>0.18</v>
+      </c>
+      <c r="C4">
+        <f>0.55/(1+B4)</f>
+        <v>0.46610169491525427</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5">
-        <v>4000</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <f>B5*$K$1/(0.000001)</f>
-        <v>1111.1120000000003</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="G5" s="3"/>
       <c r="J5">
         <v>0.85</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K15" si="0">$B$31*J5</f>
-        <v>5.0914999999999999E-4</v>
+        <f t="shared" ref="K5:K15" si="0">$B$36*J5</f>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L15" si="1">$D$15*K5</f>
-        <v>1.9440272727272726E-2</v>
+        <f>K5*$B$12</f>
+        <v>0.23388222246400001</v>
       </c>
       <c r="M5">
+        <f>K5*$B$21</f>
+        <v>4.4472000000000005E-2</v>
+      </c>
+      <c r="N5">
         <f>L5/$L$10</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="N5">
-        <f>K5*$B$11</f>
-        <v>0.57515610040229004</v>
+        <v>0.94444444444444453</v>
       </c>
       <c r="O5">
-        <f>(1-N5)*0.55</f>
-        <v>0.23366414477874051</v>
+        <f t="shared" ref="O5:O15" si="1">$B$15/N5</f>
+        <v>0.42211529395200004</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P15" si="2">$B$18*K5</f>
-        <v>1.6663090909090909E-2</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q15" si="3">($D$26*M5)+P5</f>
-        <v>2.2159757575757576E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <f>$D$30+M5</f>
+        <v>6.0472000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B6">
-        <v>14.7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D9" si="4">B6*$K$1/(0.000001)</f>
-        <v>4.0833366</v>
+        <v>0.18</v>
+      </c>
+      <c r="C6">
+        <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J6">
         <v>0.86</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>5.1513999999999998E-4</v>
+        <v>3.4400000000000001E-4</v>
       </c>
       <c r="L6">
+        <f t="shared" ref="L6:L15" si="2">K6*$B$12</f>
+        <v>0.23663377802239999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M15" si="3">K6*$B$21</f>
+        <v>4.4995200000000006E-2</v>
+      </c>
+      <c r="N6">
+        <f>L6/$L$10</f>
+        <v>0.95555555555555549</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="1"/>
-        <v>1.9668981818181816E-2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ref="M6:M15" si="5">L6/$L$10</f>
-        <v>0.95555555555555538</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ref="N6:N15" si="6">K6*$B$11</f>
-        <v>0.58192264275996408</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ref="O6:O15" si="7">(1-N6)*0.55</f>
-        <v>0.22994254648201978</v>
+        <v>0.41720697658046524</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
-        <v>1.6859127272727273E-2</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>2.2420460606060604E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <f>$D$30+M6</f>
+        <v>6.0995200000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>14.7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="4"/>
-        <v>4.0833366</v>
+        <f>B36*0.9</f>
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="C7">
+        <f>0.9*B35</f>
+        <v>8.4780000000000001E-4</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
         <v>234</v>
       </c>
       <c r="J7">
@@ -1584,1354 +1505,1196 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>5.2113000000000007E-4</v>
+        <v>3.48E-4</v>
       </c>
       <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.2393853335808</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>4.5518400000000007E-2</v>
+      </c>
+      <c r="N7">
+        <f>L7/$L$10</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="1"/>
-        <v>1.9897690909090909E-2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="5"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="6"/>
-        <v>0.58868918511763824</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="7"/>
-        <v>0.22622094818529898</v>
+        <v>0.41241149409103456</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
-        <v>1.7055163636363637E-2</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>2.2681163636363636E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <f>$D$30+M7</f>
+        <v>6.1518400000000008E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="4"/>
-        <v>14.444456000000002</v>
+        <f>B6/B7</f>
+        <v>499.99999999999994</v>
+      </c>
+      <c r="C8">
+        <f>C6/C7</f>
+        <v>294.88086812927577</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="J8">
         <v>0.88</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>5.2712000000000006E-4</v>
+        <v>3.5200000000000005E-4</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.24213688913920003</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>4.6041600000000009E-2</v>
+      </c>
+      <c r="N8">
+        <f>L8/$L$10</f>
+        <v>0.97777777777777797</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="1"/>
-        <v>2.0126400000000003E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="5"/>
-        <v>0.97777777777777786</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="6"/>
-        <v>0.59545572747531217</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="7"/>
-        <v>0.22249934988857833</v>
+        <v>0.40772499983999999</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
-        <v>1.7251200000000001E-2</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>2.2941866666666668E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <f>$D$30+M8</f>
+        <v>6.2041600000000009E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>3.2</v>
-      </c>
-      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="4"/>
-        <v>0.88888960000000017</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="J9">
         <v>0.89</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>5.3311000000000005E-4</v>
+        <v>3.5600000000000003E-4</v>
       </c>
       <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.24488844469760002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>4.656480000000001E-2</v>
+      </c>
+      <c r="N9">
+        <f>L9/$L$10</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="1"/>
-        <v>2.0355109090909092E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="5"/>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="6"/>
-        <v>0.60222226983298621</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="7"/>
-        <v>0.21877775159185761</v>
+        <v>0.40314382006651689</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
-        <v>1.7447236363636365E-2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>2.3202569696969697E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <f>B5+B6+B8</f>
-        <v>4066.7</v>
-      </c>
-      <c r="C10" t="s">
+        <f>$D$30+M9</f>
+        <v>6.2564800000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
       <c r="J10">
         <v>0.9</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>5.3910000000000004E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.247640000256</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>4.7088000000000005E-2</v>
+      </c>
+      <c r="N10">
+        <f>L10/$L$10</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="1"/>
-        <v>2.0583818181818182E-2</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="6"/>
-        <v>0.60898881219066014</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="7"/>
-        <v>0.21505615329513694</v>
+        <v>0.39866444428800007</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
-        <v>1.764327272727273E-2</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>2.3463272727272728E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <f>B10*K1/(0.000001)</f>
-        <v>1129.6397926000002</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7"/>
+        <f>$D$30+M10</f>
+        <v>6.3088000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>0.8888896+32</f>
+        <v>32.888889599999999</v>
+      </c>
+      <c r="C11">
+        <f>0.8888896+32</f>
+        <v>32.888889599999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
       <c r="J11">
         <v>0.91</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>5.4509000000000003E-4</v>
+        <v>3.6400000000000001E-4</v>
       </c>
       <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.25039155581439998</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>4.7611200000000006E-2</v>
+      </c>
+      <c r="N11">
+        <f>L11/$L$10</f>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="1"/>
-        <v>2.0812527272727272E-2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
-        <v>1.0111111111111111</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
-        <v>0.61575535454833419</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="7"/>
-        <v>0.21133455499841622</v>
+        <v>0.39428351632879127</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>1.783930909090909E-2</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>2.3723975757575757E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <f>$D$30+M11</f>
+        <v>6.3611200000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B12">
-        <f>(B9+B8+B6)/B5</f>
-        <v>1.7475000000000001E-2</v>
+        <f>SUM(B8:B11)</f>
+        <v>687.88888959999997</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C8:C11)</f>
+        <v>482.76975772927574</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
       <c r="J12">
         <v>0.92</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>5.5108000000000002E-4</v>
+        <v>3.6800000000000005E-4</v>
       </c>
       <c r="L12">
+        <f>K12*$B$12</f>
+        <v>0.25314311137280004</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>4.8134400000000015E-2</v>
+      </c>
+      <c r="N12">
+        <f>L12/$L$10</f>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="1"/>
-        <v>2.1041236363636362E-2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
-        <v>1.0222222222222221</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="6"/>
-        <v>0.62252189690600812</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="7"/>
-        <v>0.20761295670169555</v>
+        <v>0.38999782593391308</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
-        <v>1.8035345454545455E-2</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>2.3984678787878785E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <f>$D$30+M12</f>
+        <v>6.4134400000000008E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13">
+        <f>1/B36</f>
+        <v>2500</v>
+      </c>
+      <c r="C13">
+        <f>1/B35</f>
+        <v>1061.5711252653928</v>
+      </c>
+      <c r="E13" t="s">
+        <v>231</v>
+      </c>
       <c r="J13">
         <v>0.93</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>5.5707E-4</v>
+        <v>3.7200000000000004E-4</v>
       </c>
       <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.2558946669312</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>4.8657600000000009E-2</v>
+      </c>
+      <c r="N13">
+        <f>L13/$L$10</f>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="1"/>
-        <v>2.1269945454545455E-2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="6"/>
-        <v>0.62928843926368216</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="7"/>
-        <v>0.20389135840497483</v>
+        <v>0.38580430092387102</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
-        <v>1.8231381818181819E-2</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>2.4245381818181817E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <f>$D$30+M13</f>
+        <v>6.465760000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14">
+        <f>(B13-B12)/B13</f>
+        <v>0.72484444416000005</v>
+      </c>
+      <c r="C14">
+        <f>(C13-C12)/C13</f>
+        <v>0.54523088821902221</v>
+      </c>
       <c r="J14">
         <v>0.94</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>5.6305999999999999E-4</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.25864622248959995</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>4.9180800000000004E-2</v>
+      </c>
+      <c r="N14">
+        <f>L14/$L$10</f>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="1"/>
-        <v>2.1498654545454545E-2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="5"/>
-        <v>1.0444444444444445</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="6"/>
-        <v>0.6360549816213561</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="7"/>
-        <v>0.20016976010825416</v>
+        <v>0.38169999985021291</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
-        <v>1.842741818181818E-2</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>2.4506084848484846E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>219</v>
+        <f>$D$30+M14</f>
+        <v>6.5180800000000011E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>221</v>
       </c>
       <c r="B15">
-        <v>4200</v>
-      </c>
-      <c r="C15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15">
-        <f>B15*$O$1</f>
-        <v>38.18181818181818</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
+        <f>0.55*B14</f>
+        <v>0.39866444428800007</v>
+      </c>
+      <c r="C15">
+        <f>0.55*C14</f>
+        <v>0.29987698852046224</v>
       </c>
       <c r="J15">
         <v>0.95</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>5.6904999999999998E-4</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.26139777804800002</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>4.9704000000000005E-2</v>
+      </c>
+      <c r="N15">
+        <f>L15/$L$10</f>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="1"/>
-        <v>2.1727363636363635E-2</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="5"/>
-        <v>1.0555555555555554</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="6"/>
-        <v>0.64282152397903014</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="7"/>
-        <v>0.19644816181153343</v>
+        <v>0.37768210511494743</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
-        <v>1.8623454545454544E-2</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>2.4766787878787874E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>2800</v>
-      </c>
-      <c r="C16" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16:D17" si="8">B16*$O$1</f>
-        <v>25.454545454545453</v>
-      </c>
-      <c r="E16" t="s">
+        <f>$D$30+M15</f>
+        <v>6.5704000000000012E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>800</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="8"/>
-        <v>7.2727272727272725</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B18" s="2">
-        <f>(B16+B17)*O1</f>
-        <v>32.727272727272727</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
+      <c r="E18" t="s">
+        <v>219</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4.8</v>
+      </c>
+      <c r="C19">
+        <v>4.8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
       <c r="J19">
         <v>0.85</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K29" si="9">$B$30*J19</f>
+        <f t="shared" ref="K19:K29" si="4">$B$35*J19</f>
         <v>8.007E-4</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L29" si="10">$D$15*K19</f>
-        <v>3.0572181818181818E-2</v>
+        <f>K19*$C$12</f>
+        <v>0.38655374501383111</v>
       </c>
       <c r="M19">
         <f>L19/$L$24</f>
         <v>0.94444444444444453</v>
       </c>
       <c r="N19">
-        <f>K19*$B$11</f>
-        <v>0.90450258193482014</v>
+        <f t="shared" ref="N19:N23" si="5">$C$15/M19</f>
+        <v>0.31751681137460702</v>
       </c>
       <c r="O19">
-        <f>(1-N19)*0.55</f>
-        <v>5.2523579935848927E-2</v>
+        <f>K19*$C$21</f>
+        <v>7.8308459999999996E-2</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P29" si="11">$B$18*K19</f>
-        <v>2.6204727272727272E-2</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" ref="Q19:Q29" si="12">($D$26*M19)+P19</f>
-        <v>3.1701393939393939E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+        <f>$D$29+O19</f>
+        <v>8.8308459999999991E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>2020</v>
-      </c>
       <c r="C20">
-        <v>2000</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F20" t="s">
         <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>254</v>
       </c>
       <c r="J20">
         <v>0.86</v>
       </c>
       <c r="K20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>8.1012E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" si="10"/>
-        <v>3.0931854545454544E-2</v>
+        <f t="shared" ref="L20:L29" si="6">K20*$C$12</f>
+        <v>0.39110143613164089</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M29" si="13">L20/$L$24</f>
+        <f t="shared" ref="M20:M29" si="7">L20/$L$24</f>
         <v>0.9555555555555556</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N29" si="14">K20*$B$11</f>
-        <v>0.91514378878111213</v>
+        <f t="shared" si="5"/>
+        <v>0.31382475542839072</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O29" si="15">(1-N20)*0.55</f>
-        <v>4.6670916170388328E-2</v>
+        <f t="shared" ref="O20:O29" si="8">K20*$C$21</f>
+        <v>7.9229735999999995E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="11"/>
-        <v>2.6513018181818181E-2</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="12"/>
-        <v>3.2074351515151513E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>2030</v>
-      </c>
-      <c r="C21">
-        <v>1000</v>
-      </c>
-      <c r="E21">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F21" t="s">
+        <f t="shared" ref="P20:P29" si="9">$D$29+O20</f>
+        <v>8.922973599999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="2">
+        <f>SUM(B18:B20)</f>
+        <v>130.80000000000001</v>
+      </c>
+      <c r="C21" s="2">
+        <f>SUM(C18:C20)</f>
+        <v>97.8</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J21">
         <v>0.87</v>
       </c>
       <c r="K21">
+        <f t="shared" si="4"/>
+        <v>8.1954E-4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>0.39564912724945062</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>0.31021757433151265</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
+        <v>8.0151011999999994E-2</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="9"/>
-        <v>8.1954E-4</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="10"/>
-        <v>3.1291527272727271E-2</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="13"/>
-        <v>0.96666666666666679</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="14"/>
-        <v>0.92578499562740413</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="15"/>
-        <v>4.081825240492773E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="11"/>
-        <v>2.6821309090909091E-2</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="12"/>
-        <v>3.2447309090909093E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9.0151011999999989E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
       <c r="B22">
-        <v>2050</v>
-      </c>
-      <c r="C22">
-        <v>500</v>
-      </c>
-      <c r="E22">
-        <f>500*O1</f>
-        <v>4.545454545454545</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
+        <f>B21/B18</f>
+        <v>1.3768421052631581</v>
       </c>
       <c r="J22">
         <v>0.88</v>
       </c>
       <c r="K22">
+        <f t="shared" si="4"/>
+        <v>8.2896000000000001E-4</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>0.4001968183672604</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>0.30669237462320004</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
+        <v>8.1072287999999992E-2</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="9"/>
-        <v>8.2896000000000001E-4</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="10"/>
-        <v>3.1651199999999997E-2</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="13"/>
-        <v>0.97777777777777786</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="14"/>
-        <v>0.93642620247369612</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="15"/>
-        <v>3.4965588639467138E-2</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="11"/>
-        <v>2.71296E-2</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="12"/>
-        <v>3.2820266666666667E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+        <v>9.1072287999999987E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J23">
         <v>0.89</v>
       </c>
       <c r="K23">
+        <f t="shared" si="4"/>
+        <v>8.3838000000000001E-4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>0.40474450948507018</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>0.30324639288586069</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
+        <v>8.1993564000000005E-2</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="9"/>
-        <v>8.3838000000000001E-4</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="10"/>
-        <v>3.2010872727272724E-2</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="13"/>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="14"/>
-        <v>0.94706740931998812</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="15"/>
-        <v>2.9112924874006536E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="11"/>
-        <v>2.743789090909091E-2</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="12"/>
-        <v>3.3193224242424241E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>225</v>
-      </c>
+        <v>9.1993564E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
       <c r="J24">
         <v>0.9</v>
       </c>
       <c r="K24">
+        <f t="shared" si="4"/>
+        <v>8.4780000000000001E-4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>0.40929220060287996</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f>$C$15/M24</f>
+        <v>0.29987698852046224</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>8.2914840000000004E-2</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="9"/>
-        <v>8.4780000000000001E-4</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="10"/>
-        <v>3.237054545454545E-2</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="14"/>
-        <v>0.95770861616628022</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="15"/>
-        <v>2.3260261108545878E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="11"/>
-        <v>2.7746181818181819E-2</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="12"/>
-        <v>3.3566181818181821E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="21">
-        <v>5997</v>
-      </c>
-      <c r="C25" s="21">
-        <v>59.29</v>
-      </c>
-      <c r="D25" s="21">
-        <f>10.93*1000/1000000</f>
-        <v>1.093E-2</v>
-      </c>
+        <v>9.2914839999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J25">
         <v>0.91</v>
       </c>
       <c r="K25">
+        <f t="shared" si="4"/>
+        <v>8.5722000000000001E-4</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>0.41383989172068975</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N29" si="10">$C$15/M25</f>
+        <v>0.29658163699825935</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
+        <v>8.3836116000000002E-2</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="9"/>
-        <v>8.5722000000000001E-4</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="10"/>
-        <v>3.2730218181818184E-2</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="13"/>
-        <v>1.0111111111111113</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="14"/>
-        <v>0.96834982301257222</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="15"/>
-        <v>1.7407597343085279E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="11"/>
-        <v>2.8054472727272729E-2</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="12"/>
-        <v>3.3939139393939395E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="21">
-        <v>2569</v>
-      </c>
-      <c r="C26" s="21">
-        <v>27.48</v>
-      </c>
-      <c r="D26" s="21">
-        <f>5.82*1000/1000000</f>
-        <v>5.8199999999999997E-3</v>
-      </c>
+        <v>9.3836115999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J26">
         <v>0.92</v>
       </c>
       <c r="K26">
+        <f t="shared" si="4"/>
+        <v>8.6664000000000001E-4</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>0.41838758283849953</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>1.0222222222222221</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>0.29335792355262613</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
+        <v>8.4757392000000001E-2</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="9"/>
-        <v>8.6664000000000001E-4</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="10"/>
-        <v>3.308989090909091E-2</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="13"/>
-        <v>1.0222222222222224</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="14"/>
-        <v>0.97899102985886421</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="15"/>
-        <v>1.1554933577624682E-2</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="11"/>
-        <v>2.8362763636363635E-2</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="12"/>
-        <v>3.4312096969696969E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="21">
-        <v>848.5</v>
-      </c>
-      <c r="C27" s="21">
-        <v>5.7039999999999997</v>
-      </c>
-      <c r="D27" s="21">
-        <v>5.57E-2</v>
-      </c>
+        <v>9.4757391999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
       <c r="J27">
         <v>0.93</v>
       </c>
       <c r="K27">
+        <f t="shared" si="4"/>
+        <v>8.7606000000000001E-4</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>0.42293527395630931</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>0.29020353727786663</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
+        <v>8.5678667999999999E-2</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="9"/>
-        <v>8.7606000000000001E-4</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="10"/>
-        <v>3.3449563636363637E-2</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="13"/>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="14"/>
-        <v>0.98963223670515621</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="15"/>
-        <v>5.7022698121640854E-3</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="11"/>
-        <v>2.8671054545454544E-2</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="12"/>
-        <v>3.4685054545454543E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
+        <v>9.5678667999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="J28">
         <v>0.94</v>
       </c>
       <c r="K28">
+        <f t="shared" si="4"/>
+        <v>8.8548000000000001E-4</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>0.42748296507411909</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>0.28711626560469788</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
+        <v>8.6599943999999998E-2</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="9"/>
-        <v>8.8548000000000001E-4</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="10"/>
-        <v>3.3809236363636364E-2</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="13"/>
-        <v>1.0444444444444445</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="14"/>
-        <v>1.0002734435514482</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="15"/>
-        <v>-1.5039395329651263E-4</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="11"/>
-        <v>2.8979345454545453E-2</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="12"/>
-        <v>3.5058012121212123E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9.6599943999999993E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="B29" s="20">
+        <v>6816</v>
+      </c>
+      <c r="C29" s="20">
+        <v>84</v>
+      </c>
+      <c r="D29" s="20">
+        <f>10*1000/1000000</f>
+        <v>0.01</v>
       </c>
       <c r="J29">
         <v>0.95</v>
       </c>
       <c r="K29">
+        <f t="shared" si="4"/>
+        <v>8.9490000000000001E-4</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>0.43203065619192887</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>0.28409398912464845</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>8.7521219999999997E-2</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="9"/>
-        <v>8.9490000000000001E-4</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="10"/>
-        <v>3.416890909090909E-2</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="13"/>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="14"/>
-        <v>1.0109146503977402</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="15"/>
-        <v>-6.0030577187571103E-3</v>
-      </c>
-      <c r="P29">
+        <v>9.7521219999999992E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="20">
+        <v>5088</v>
+      </c>
+      <c r="C30" s="20">
+        <v>33</v>
+      </c>
+      <c r="D30" s="20">
+        <f>16*1000/1000000</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="20">
+        <v>495</v>
+      </c>
+      <c r="C31" s="20">
+        <v>4</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2.6473008613171967E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.73</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="2">
+        <f>6*B31</f>
+        <v>2970</v>
+      </c>
+      <c r="C32" s="21">
+        <v>33</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>0.85</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K43" si="11">$B$37*J33</f>
+        <v>2.6604999999999999E-4</v>
+      </c>
+      <c r="L33">
+        <f>K33*$B$12</f>
+        <v>0.18301283907808</v>
+      </c>
+      <c r="N33">
+        <f>$E$31-L33</f>
+        <v>0.54698716092192001</v>
+      </c>
+      <c r="O33">
+        <f>K33*$B$21</f>
+        <v>3.4799340000000005E-2</v>
+      </c>
+      <c r="P33">
+        <f>($D$31*M19)+O33</f>
+        <v>5.9801625912440197E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34">
+        <v>0.86</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="11"/>
-        <v>2.9287636363636363E-2</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="12"/>
-        <v>3.5430969696969697E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="22">
+        <v>2.6917999999999999E-4</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L43" si="12">K34*$B$12</f>
+        <v>0.18516593130252798</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N43" si="13">$E$31-L34</f>
+        <v>0.54483406869747197</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:O43" si="14">K34*$B$21</f>
+        <v>3.5208744E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P43" si="15">($D$31*M20)+O34</f>
+        <v>6.0505174452586546E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="21">
         <f>942/1000000</f>
         <v>9.4200000000000002E-4</v>
       </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="22">
-        <f>599/1000000</f>
-        <v>5.9900000000000003E-4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="22">
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35">
+        <v>0.87</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="11"/>
+        <v>2.7231E-4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>0.18731902352697599</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="13"/>
+        <v>0.54268097647302405</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="14"/>
+        <v>3.5618148000000002E-2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="15"/>
+        <v>6.1208722992732903E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="21">
+        <f>400/1000000</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36">
+        <v>0.88</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="11"/>
+        <v>2.7544000000000001E-4</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="12"/>
+        <v>0.189472115751424</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="13"/>
+        <v>0.54052788424857601</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="14"/>
+        <v>3.6027552000000004E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="15"/>
+        <v>6.1912271532879259E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="21">
         <f>313/1000000</f>
         <v>3.1300000000000002E-4</v>
       </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J33">
-        <v>0.85</v>
-      </c>
-      <c r="K33">
-        <f t="shared" ref="K33:K43" si="16">$B$32*J33</f>
-        <v>2.6604999999999999E-4</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ref="L33:L43" si="17">$D$15*K33</f>
-        <v>1.0158272727272726E-2</v>
-      </c>
-      <c r="M33">
-        <f>L33/$L$38</f>
-        <v>0.94444444444444431</v>
-      </c>
-      <c r="N33">
-        <f>K33*$B$11</f>
-        <v>0.30054066682123004</v>
-      </c>
-      <c r="O33">
-        <f>(1-N33)*0.547</f>
-        <v>0.38260425524878722</v>
-      </c>
-      <c r="P33">
-        <f t="shared" ref="P33:P43" si="18">$B$18*K33</f>
-        <v>8.7070909090909091E-3</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" ref="Q33:Q43" si="19">($D$27*M33)+P33</f>
-        <v>6.1312646464646452E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J34">
-        <v>0.86</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="16"/>
-        <v>2.6917999999999999E-4</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="17"/>
-        <v>1.0277781818181817E-2</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ref="M34:M43" si="20">L34/$L$38</f>
-        <v>0.95555555555555538</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ref="N34:N43" si="21">K34*$B$11</f>
-        <v>0.30407643937206802</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ref="O34:O43" si="22">(1-N34)*0.547</f>
-        <v>0.38067018766347877</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="18"/>
-        <v>8.8095272727272723E-3</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="19"/>
-        <v>6.2033971717171704E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J35">
-        <v>0.87</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="16"/>
-        <v>2.7231E-4</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="17"/>
-        <v>1.0397290909090908E-2</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="20"/>
-        <v>0.96666666666666656</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="21"/>
-        <v>0.30761221192290605</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="22"/>
-        <v>0.37873612007817037</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="18"/>
-        <v>8.9119636363636356E-3</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="19"/>
-        <v>6.2755296969696964E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J36">
-        <v>0.88</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="16"/>
-        <v>2.7544000000000001E-4</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="17"/>
-        <v>1.05168E-2</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="20"/>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="21"/>
-        <v>0.31114798447374403</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="22"/>
-        <v>0.37680205249286203</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="18"/>
-        <v>9.0144000000000005E-3</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="19"/>
-        <v>6.3476622222222223E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
       <c r="J37">
         <v>0.89</v>
       </c>
       <c r="K37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2.7857000000000001E-4</v>
       </c>
       <c r="L37">
-        <f t="shared" si="17"/>
-        <v>1.0636309090909091E-2</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="20"/>
-        <v>0.98888888888888882</v>
+        <f t="shared" si="12"/>
+        <v>0.19162520797587199</v>
       </c>
       <c r="N37">
-        <f t="shared" si="21"/>
-        <v>0.31468375702458207</v>
+        <f t="shared" si="13"/>
+        <v>0.53837479202412797</v>
       </c>
       <c r="O37">
-        <f t="shared" si="22"/>
-        <v>0.37486798490755363</v>
+        <f t="shared" si="14"/>
+        <v>3.6436956000000006E-2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="18"/>
-        <v>9.1168363636363638E-3</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="19"/>
-        <v>6.4197947474747469E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>6.2615820073025616E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J38">
         <v>0.9</v>
       </c>
       <c r="K38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2.8170000000000002E-4</v>
       </c>
       <c r="L38">
-        <f t="shared" si="17"/>
-        <v>1.0755818181818182E-2</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0.19377830020032</v>
       </c>
       <c r="N38">
-        <f t="shared" si="21"/>
-        <v>0.31821952957542005</v>
+        <f t="shared" si="13"/>
+        <v>0.53622169979968004</v>
       </c>
       <c r="O38">
-        <f t="shared" si="22"/>
-        <v>0.37293391732224529</v>
+        <f t="shared" si="14"/>
+        <v>3.6846360000000009E-2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="18"/>
-        <v>9.219272727272727E-3</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="19"/>
-        <v>6.4919272727272728E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>6.3319368613171972E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J39">
         <v>0.91</v>
       </c>
       <c r="K39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2.8483000000000002E-4</v>
       </c>
       <c r="L39">
-        <f t="shared" si="17"/>
-        <v>1.0875327272727274E-2</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="20"/>
-        <v>1.0111111111111111</v>
+        <f t="shared" si="12"/>
+        <v>0.19593139242476801</v>
       </c>
       <c r="N39">
-        <f t="shared" si="21"/>
-        <v>0.32175530212625808</v>
+        <f t="shared" si="13"/>
+        <v>0.534068607575232</v>
       </c>
       <c r="O39">
-        <f t="shared" si="22"/>
-        <v>0.37099984973693689</v>
+        <f t="shared" si="14"/>
+        <v>3.7255764000000004E-2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="18"/>
-        <v>9.321709090909092E-3</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="19"/>
-        <v>6.5640597979797974E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>6.4022917153318329E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J40">
         <v>0.92</v>
       </c>
       <c r="K40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2.8796000000000003E-4</v>
       </c>
       <c r="L40">
-        <f t="shared" si="17"/>
-        <v>1.0994836363636365E-2</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="20"/>
-        <v>1.0222222222222224</v>
+        <f t="shared" si="12"/>
+        <v>0.19808448464921602</v>
       </c>
       <c r="N40">
-        <f t="shared" si="21"/>
-        <v>0.32529107467709606</v>
+        <f t="shared" si="13"/>
+        <v>0.53191551535078396</v>
       </c>
       <c r="O40">
-        <f t="shared" si="22"/>
-        <v>0.3690657821516285</v>
+        <f t="shared" si="14"/>
+        <v>3.7665168000000006E-2</v>
       </c>
       <c r="P40">
-        <f t="shared" si="18"/>
-        <v>9.4241454545454552E-3</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="19"/>
-        <v>6.6361923232323247E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>6.4726465693464685E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J41">
         <v>0.93</v>
       </c>
       <c r="K41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2.9109000000000003E-4</v>
       </c>
       <c r="L41">
-        <f t="shared" si="17"/>
-        <v>1.1114345454545455E-2</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="20"/>
-        <v>1.0333333333333332</v>
+        <f t="shared" si="12"/>
+        <v>0.200237576873664</v>
       </c>
       <c r="N41">
-        <f t="shared" si="21"/>
-        <v>0.32882684722793409</v>
+        <f t="shared" si="13"/>
+        <v>0.52976242312633604</v>
       </c>
       <c r="O41">
-        <f t="shared" si="22"/>
-        <v>0.3671317145663201</v>
+        <f t="shared" si="14"/>
+        <v>3.8074572000000008E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="18"/>
-        <v>9.5265818181818184E-3</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="19"/>
-        <v>6.7083248484848479E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>6.5430014233611042E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J42">
         <v>0.94</v>
       </c>
       <c r="K42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2.9421999999999999E-4</v>
       </c>
       <c r="L42">
-        <f t="shared" si="17"/>
-        <v>1.1233854545454544E-2</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="20"/>
-        <v>1.0444444444444443</v>
+        <f t="shared" si="12"/>
+        <v>0.20239066909811199</v>
       </c>
       <c r="N42">
-        <f t="shared" si="21"/>
-        <v>0.33236261977877202</v>
+        <f t="shared" si="13"/>
+        <v>0.527609330901888</v>
       </c>
       <c r="O42">
-        <f t="shared" si="22"/>
-        <v>0.36519764698101176</v>
+        <f t="shared" si="14"/>
+        <v>3.8483976000000003E-2</v>
       </c>
       <c r="P42">
-        <f t="shared" si="18"/>
-        <v>9.6290181818181816E-3</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="19"/>
-        <v>6.7804573737373725E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17" x14ac:dyDescent="0.3">
+        <f t="shared" si="15"/>
+        <v>6.6133562773757398E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J43">
         <v>0.95</v>
       </c>
       <c r="K43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>2.9734999999999999E-4</v>
       </c>
       <c r="L43">
-        <f t="shared" si="17"/>
-        <v>1.1353363636363635E-2</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="20"/>
-        <v>1.0555555555555554</v>
+        <f t="shared" si="12"/>
+        <v>0.20454376132256</v>
       </c>
       <c r="N43">
-        <f t="shared" si="21"/>
-        <v>0.33589839232961005</v>
+        <f t="shared" si="13"/>
+        <v>0.52545623867743996</v>
       </c>
       <c r="O43">
-        <f t="shared" si="22"/>
-        <v>0.36326357939570331</v>
+        <f t="shared" si="14"/>
+        <v>3.8893380000000005E-2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="18"/>
-        <v>9.7314545454545449E-3</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="19"/>
-        <v>6.8525898989898984E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.6837111313903741E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2962,33 +2725,33 @@
         <v>41.869</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1">
         <f>1/110</f>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I1">
         <v>1.1000000000000001</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>0.27779999999999999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -3012,14 +2775,14 @@
         <v>5024.28</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <f>C2*E3</f>
         <v>1395.7449839999999</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <f>C3*C2</f>
@@ -3031,25 +2794,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>9.31</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <f>C4/I3</f>
         <v>0.27927765778737701</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -3057,100 +2820,100 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C7">
         <v>0.65</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>176</v>
+      <c r="E7" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>2.5</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D9">
         <f>B9*(365*24*60*60)</f>
         <v>78840000</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F9">
         <f>($D$9*I3*C7/(1000000))</f>
         <v>1708.3366559999999</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <f>F9/8760</f>
         <v>0.19501559999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B10">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D11" si="0">B10*(365*24*60*60)</f>
         <v>346896000</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F10">
         <f>D10*20</f>
         <v>6937920000</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B11">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>441504000</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <f>D11*B15</f>
         <v>8830080000</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F12">
         <f>F11/(F11+F10)</f>
@@ -3159,166 +2922,166 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B14">
         <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D14">
         <f>B14/I9</f>
         <v>830.70277454726704</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="16">
+        <v>136</v>
+      </c>
+      <c r="F14" s="15">
         <f>D14*I1</f>
         <v>913.77305200199385</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B18">
         <f>64546*1000</f>
         <v>64546000</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H18">
         <f>B18/(D18*1000)</f>
         <v>3227.3</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J18">
         <f>B18/(D18*1000)</f>
         <v>3227.3</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B19">
         <v>1064000</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H19" s="2">
         <f>B19/(D19*1000)</f>
         <v>35.466666666666669</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J19" s="2">
         <f>H19+F20</f>
         <v>429.84637734909302</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F20">
         <f>B43</f>
         <v>394.37971068242638</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B21">
         <v>1089000</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D21">
         <f>B21/1000000</f>
         <v>1.089</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B22">
         <f>(97662-64546-2778-1064-1089)*1000</f>
         <v>28185000</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3330,20 +3093,20 @@
         <f>F9/(J19+J18)</f>
         <v>0.46712285474290999</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <f>J19/J18</f>
         <v>0.13319070967963714</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3352,7 +3115,7 @@
         <v>378432000</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3361,185 +3124,185 @@
         <v>113529600</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D26">
         <f>B26*G1/(1000000)</f>
         <v>1.0320872727272727</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F26">
         <f>D26/I1</f>
         <v>0.93826115702479329</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B28">
         <f>(B18/1000000)+F26</f>
         <v>65.484261157024804</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <f>B28*I1</f>
         <v>72.032687272727287</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="16">
+        <v>145</v>
+      </c>
+      <c r="F28" s="15">
         <f>(D28/F9)+B41</f>
         <v>5.8665393466056544E-2</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>187</v>
+      <c r="A29" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B31">
         <f>D21</f>
         <v>1.089</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D31">
         <f>B31*I1</f>
         <v>1.1979</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="16">
+        <v>145</v>
+      </c>
+      <c r="F31" s="15">
         <f>D31/I9</f>
         <v>6.1425855162356244</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B34">
         <f>F9*B15*1000</f>
         <v>34166733.119999997</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B35">
         <f>(B14*1000000)+(97662000*B15)</f>
         <v>2115240000</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B36">
         <f>B35/B34</f>
         <v>61.909343002471992</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B38">
         <v>3.1300000000000002E-4</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B39">
         <f>B38*F9*B5</f>
         <v>0.48123843599520005</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>177</v>
+      <c r="A40" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="B40">
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <f>B40*I1/1000</f>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <f>B41*F9*1000000/I1</f>
         <v>25625049.84</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B42">
         <v>2950</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <f>B42*C2</f>
         <v>819.51</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -3548,7 +3311,7 @@
         <v>394.37971068242638</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3561,7 +3324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD823C-69C1-4E4C-92FB-4F8D7DC530BE}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -3587,13 +3350,13 @@
         <v>5024.28</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H1">
         <v>1395.7449839999999</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J1">
         <v>33.335999999999999</v>
@@ -3601,11 +3364,11 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="9">
         <v>0.27779999999999999</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3614,13 +3377,13 @@
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>1.1000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -3635,7 +3398,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J3">
         <f>J1-J2</f>
@@ -3647,23 +3410,23 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <f>1000*D2</f>
         <v>1100</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <f>600*D2</f>
@@ -3672,47 +3435,47 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>2974000</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <f>B6/(1000000*L10)</f>
         <v>1239.0675412633659</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F6">
         <f>D6*D2</f>
         <v>1362.9742953897025</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B8">
         <v>0.22</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J8">
         <v>0.02</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3721,21 +3484,21 @@
         <v>6937920</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J9">
         <f>J8*(365*24*60*60)</f>
         <v>630720</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L9">
         <f>J9*J1/1000000</f>
         <v>21.025681919999997</v>
       </c>
       <c r="M9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3744,28 +3507,28 @@
         <v>2081376</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <f>B10*B2/1000000</f>
         <v>1.89216E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <f>D10/D2</f>
         <v>1.7201454545454544E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L10">
         <f>L9/8760</f>
         <v>2.4001919999999998E-3</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3774,33 +3537,33 @@
         <v>17201.454545454544</v>
       </c>
       <c r="G11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B12">
         <f>D10/L9</f>
         <v>8.9992800575953936E-4</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J14">
         <f>J1/B14</f>
@@ -3809,40 +3572,40 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B16">
         <v>15000</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D16">
         <f>B16*D2/(1000000*L10)</f>
         <v>6.8744500439964815</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B19">
         <f>L9*B4</f>
         <v>420.51363839999993</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="G19">
         <v>0.16200000000000001</v>
@@ -3850,17 +3613,17 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B20">
         <f>B6+(B16*B4)+(F11*B4)</f>
         <v>3618029.0909090908</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G20">
         <f>B20/(B19*1000*G19)</f>
@@ -3869,19 +3632,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21">
         <f>B20/(B19*1000)</f>
         <v>8.603832933160561</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -3890,14 +3653,14 @@
         <v>1160</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E24">
         <f>C24/J3</f>
         <v>39.407528196765867</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -3908,14 +3671,14 @@
         <v>480</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E25">
         <f>C25/J3</f>
         <v>16.306563391765184</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3940,10 +3703,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D1">
         <v>2020</v>
@@ -3954,44 +3717,44 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F2">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C3">
         <f>8760*10*0.5</f>
         <v>43800</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C4">
         <f>C2*1000/C3</f>
         <v>0.57077625570776258</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F4">
         <f>F2*1000/C3</f>
@@ -4007,7 +3770,7 @@
         <f>F4/1000000</f>
         <v>3.424657534246575E-7</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <f>942/1000000</f>
         <v>9.4200000000000002E-4</v>
       </c>
@@ -4035,42 +3798,42 @@
       <c r="B3" s="2">
         <v>2017</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>2025</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="26">
+      <c r="D3" s="18"/>
+      <c r="E3" s="25">
         <v>2040</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B5">
         <f>(B18+(25*C18))/(8760*0.2*25)</f>
@@ -4094,12 +3857,12 @@
         <f>E5/C5</f>
         <v>0.83100167879127029</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B6">
         <f>(B20+(25*C20))/(8760*0.4*25)</f>
@@ -4123,12 +3886,12 @@
         <f>E6/C6</f>
         <v>0.9003754693366709</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <f>(B21+(25*C21))/(8760*0.44*20)</f>
@@ -4152,11 +3915,11 @@
         <f>E7/C7</f>
         <v>0.69963190184049073</v>
       </c>
-      <c r="R7" s="18"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2">
         <v>2017</v>
@@ -4173,76 +3936,76 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>1307</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <f>B12*G5</f>
         <v>1086.1191941801903</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <f>D12*G5</f>
         <v>902.56687373115983</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B13">
         <v>3454</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <f>G6*B13</f>
         <v>3109.8968710888612</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <f>G6*D13</f>
         <v>2800.0748548952779</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B14">
         <v>7772.73</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f>G7*B14</f>
         <v>5438.0498723926376</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f>D14*G7</f>
         <v>3804.6331745254988</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B15">
         <v>12897</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <f>G7*B15</f>
         <v>9023.1526380368086</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <f>D15*G7</f>
         <v>6312.8854407467334</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B18">
         <v>1307</v>
@@ -4256,7 +4019,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B20">
         <v>1319</v>
@@ -4270,7 +4033,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B21">
         <v>5446</v>
@@ -4305,11 +4068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B25EB-4023-477D-80C4-74718858ACC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C9435-D140-4ACE-89B8-673675A87D0E}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="J14" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4322,7 +4085,7 @@
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
     <col min="14" max="14" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.88671875" customWidth="1"/>
@@ -4335,46 +4098,46 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+        <v>210</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K1">
         <f>0.277778/1000000</f>
         <v>2.7777800000000004E-7</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+        <v>190</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B4">
         <v>0.18</v>
@@ -4387,30 +4150,30 @@
         <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G5" s="3"/>
       <c r="J5">
@@ -4425,25 +4188,25 @@
         <v>0.23388222246400001</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M15" si="1">L5/$L$10</f>
+        <f>K5*$B$21</f>
+        <v>3.1110000000000002E-2</v>
+      </c>
+      <c r="N5">
+        <f>L5/$L$10</f>
         <v>0.94444444444444453</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N15" si="2">$B$15/M5</f>
+      <c r="O5">
+        <f t="shared" ref="O5:O15" si="1">$B$15/N5</f>
         <v>0.42211529395200004</v>
       </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O15" si="3">$B$21*K5</f>
-        <v>1.7092727272727273E-2</v>
-      </c>
       <c r="P5">
-        <f>($D$30*M5)+O5</f>
-        <v>2.258939393939394E-2</v>
+        <f>$D$30+M5</f>
+        <v>4.2110000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B6">
         <v>0.18</v>
@@ -4452,7 +4215,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J6">
         <v>0.86</v>
@@ -4462,24 +4225,24 @@
         <v>3.4400000000000001E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L15" si="4">K6*$B$12</f>
+        <f t="shared" ref="L6:L15" si="2">K6*$B$12</f>
         <v>0.23663377802239999</v>
       </c>
       <c r="M6">
+        <f t="shared" ref="M6:M15" si="3">K6*$B$21</f>
+        <v>3.1476000000000004E-2</v>
+      </c>
+      <c r="N6">
+        <f>L6/$L$10</f>
+        <v>0.95555555555555549</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="1"/>
-        <v>0.95555555555555549</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
         <v>0.41720697658046524</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>1.7293818181818181E-2</v>
-      </c>
       <c r="P6">
-        <f t="shared" ref="P6:P15" si="5">($D$30*M6)+O6</f>
-        <v>2.2855151515151516E-2</v>
+        <f>$D$30+M6</f>
+        <v>4.2476E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -4492,7 +4255,7 @@
         <v>8.4780000000000001E-4</v>
       </c>
       <c r="E7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="J7">
         <v>0.87</v>
@@ -4502,24 +4265,24 @@
         <v>3.48E-4</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.2393853335808</v>
       </c>
       <c r="M7">
+        <f t="shared" si="3"/>
+        <v>3.1842000000000002E-2</v>
+      </c>
+      <c r="N7">
+        <f>L7/$L$10</f>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="1"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
         <v>0.41241149409103456</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>1.7494909090909092E-2</v>
-      </c>
       <c r="P7">
-        <f t="shared" si="5"/>
-        <v>2.3120909090909091E-2</v>
+        <f>$D$30+M7</f>
+        <v>4.2842000000000005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -4532,7 +4295,7 @@
         <v>294.88086812927577</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="J8">
         <v>0.88</v>
@@ -4542,24 +4305,24 @@
         <v>3.5200000000000005E-4</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.24213688913920003</v>
       </c>
       <c r="M8">
+        <f t="shared" si="3"/>
+        <v>3.2208000000000007E-2</v>
+      </c>
+      <c r="N8">
+        <f>L8/$L$10</f>
+        <v>0.97777777777777797</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="1"/>
-        <v>0.97777777777777797</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
         <v>0.40772499983999999</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>1.7696000000000003E-2</v>
-      </c>
       <c r="P8">
-        <f t="shared" si="5"/>
-        <v>2.338666666666667E-2</v>
+        <f>$D$30+M8</f>
+        <v>4.320800000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -4570,10 +4333,10 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="J9">
         <v>0.89</v>
@@ -4583,24 +4346,24 @@
         <v>3.5600000000000003E-4</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.24488844469760002</v>
       </c>
       <c r="M9">
+        <f t="shared" si="3"/>
+        <v>3.2574000000000006E-2</v>
+      </c>
+      <c r="N9">
+        <f>L9/$L$10</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="1"/>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
         <v>0.40314382006651689</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>1.7897090909090911E-2</v>
-      </c>
       <c r="P9">
-        <f t="shared" si="5"/>
-        <v>2.3652424242424246E-2</v>
+        <f>$D$30+M9</f>
+        <v>4.3574000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -4611,7 +4374,7 @@
         <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -4624,24 +4387,24 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.247640000256</v>
       </c>
       <c r="M10">
+        <f t="shared" si="3"/>
+        <v>3.2940000000000004E-2</v>
+      </c>
+      <c r="N10">
+        <f>L10/$L$10</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
         <v>0.39866444428800007</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>1.8098181818181819E-2</v>
-      </c>
       <c r="P10">
-        <f t="shared" si="5"/>
-        <v>2.3918181818181818E-2</v>
+        <f>$D$30+M10</f>
+        <v>4.3940000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -4654,10 +4417,10 @@
         <v>32.888889599999999</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11">
         <v>0.91</v>
@@ -4667,29 +4430,29 @@
         <v>3.6400000000000001E-4</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.25039155581439998</v>
       </c>
       <c r="M11">
+        <f t="shared" si="3"/>
+        <v>3.3306000000000002E-2</v>
+      </c>
+      <c r="N11">
+        <f>L11/$L$10</f>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="1"/>
-        <v>1.0111111111111111</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
         <v>0.39428351632879127</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>1.8299272727272727E-2</v>
-      </c>
       <c r="P11">
-        <f t="shared" si="5"/>
-        <v>2.4183939393939393E-2</v>
+        <f>$D$30+M11</f>
+        <v>4.4305999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B12">
         <f>SUM(B8:B11)</f>
@@ -4700,7 +4463,7 @@
         <v>482.76975772927574</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <v>0.92</v>
@@ -4714,25 +4477,25 @@
         <v>0.25314311137280004</v>
       </c>
       <c r="M12">
+        <f t="shared" si="3"/>
+        <v>3.3672000000000007E-2</v>
+      </c>
+      <c r="N12">
+        <f>L12/$L$10</f>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="1"/>
-        <v>1.0222222222222224</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
         <v>0.38999782593391308</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>1.8500363636363638E-2</v>
-      </c>
       <c r="P12">
-        <f t="shared" si="5"/>
-        <v>2.4449696969696972E-2</v>
+        <f>$D$30+M12</f>
+        <v>4.4672000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B13">
         <f>1/B36</f>
@@ -4743,7 +4506,7 @@
         <v>1061.5711252653928</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="J13">
         <v>0.93</v>
@@ -4753,29 +4516,29 @@
         <v>3.7200000000000004E-4</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.2558946669312</v>
       </c>
       <c r="M13">
+        <f t="shared" si="3"/>
+        <v>3.4038000000000006E-2</v>
+      </c>
+      <c r="N13">
+        <f>L13/$L$10</f>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="1"/>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="2"/>
         <v>0.38580430092387102</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
-        <v>1.8701454545454549E-2</v>
-      </c>
       <c r="P13">
-        <f t="shared" si="5"/>
-        <v>2.4715454545454547E-2</v>
+        <f>$D$30+M13</f>
+        <v>4.5038000000000009E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B14">
         <f>(B13-B12)/B13</f>
@@ -4793,29 +4556,29 @@
         <v>3.7599999999999998E-4</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.25864622248959995</v>
       </c>
       <c r="M14">
+        <f t="shared" si="3"/>
+        <v>3.4403999999999997E-2</v>
+      </c>
+      <c r="N14">
+        <f>L14/$L$10</f>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="1"/>
-        <v>1.0444444444444443</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
         <v>0.38169999985021291</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>1.8902545454545453E-2</v>
-      </c>
       <c r="P14">
-        <f t="shared" si="5"/>
-        <v>2.4981212121212119E-2</v>
+        <f>$D$30+M14</f>
+        <v>4.5404E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B15">
         <f>0.55*B14</f>
@@ -4833,88 +4596,99 @@
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.26139777804800002</v>
       </c>
       <c r="M15">
+        <f t="shared" si="3"/>
+        <v>3.4770000000000002E-2</v>
+      </c>
+      <c r="N15">
+        <f>L15/$L$10</f>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="1"/>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="2"/>
         <v>0.37768210511494743</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>1.9103636363636364E-2</v>
-      </c>
       <c r="P15">
-        <f t="shared" si="5"/>
-        <v>2.5246969696969698E-2</v>
+        <f>$D$30+M15</f>
+        <v>4.5770000000000005E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="J17" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="B17" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
         <v>219</v>
-      </c>
-      <c r="B18">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>229</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
+        <v>2.4</v>
+      </c>
+      <c r="C19">
+        <v>2.4</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
+      <c r="E19" t="s">
+        <v>24</v>
       </c>
       <c r="J19">
         <v>0.85</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K29" si="6">$B$35*J19</f>
+        <f t="shared" ref="K19:K29" si="4">$B$35*J19</f>
         <v>8.007E-4</v>
       </c>
       <c r="L19">
@@ -4926,186 +4700,182 @@
         <v>0.94444444444444453</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N23" si="7">$C$15/M19</f>
+        <f t="shared" ref="N19:N23" si="5">$C$15/M19</f>
         <v>0.31751681137460702</v>
       </c>
       <c r="O19">
-        <f>$B$21*K19</f>
-        <v>4.0253372727272731E-2</v>
+        <f>K19*$C$21</f>
+        <v>4.6040249999999998E-2</v>
       </c>
       <c r="P19">
-        <f>($D$29*M19)+O19</f>
-        <v>5.0576150505050509E-2</v>
+        <f>$D$29+O19</f>
+        <v>5.5040249999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>7.2727272727272725</v>
-      </c>
-      <c r="C20" t="s">
+        <v>14.1</v>
+      </c>
+      <c r="C20">
+        <v>14.1</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
-        <v>21</v>
+      <c r="E20" t="s">
+        <v>254</v>
       </c>
       <c r="J20">
         <v>0.86</v>
       </c>
       <c r="K20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8.1012E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L29" si="8">K20*$C$12</f>
+        <f t="shared" ref="L20:L29" si="6">K20*$C$12</f>
         <v>0.39110143613164089</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M29" si="9">L20/$L$24</f>
+        <f t="shared" ref="M20:M29" si="7">L20/$L$24</f>
         <v>0.9555555555555556</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.31382475542839072</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O29" si="10">$B$21*K20</f>
-        <v>4.0726941818181817E-2</v>
+        <f t="shared" ref="O20:O29" si="8">K20*$C$21</f>
+        <v>4.6581900000000002E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" ref="P20:P29" si="11">($D$29*M20)+O20</f>
-        <v>5.1171164040404039E-2</v>
+        <f t="shared" ref="P20:P29" si="9">$D$29+O20</f>
+        <v>5.5581900000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2">
-        <f>(B19+B20)</f>
-        <v>50.272727272727273</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <f>SUM(B18:B20)</f>
+        <v>91.5</v>
+      </c>
+      <c r="C21" s="2">
+        <f>SUM(C18:C20)</f>
+        <v>57.5</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J21">
         <v>0.87</v>
       </c>
       <c r="K21">
+        <f t="shared" si="4"/>
+        <v>8.1954E-4</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="6"/>
-        <v>8.1954E-4</v>
-      </c>
-      <c r="L21">
+        <v>0.39564912724945062</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>0.31021757433151265</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="8"/>
-        <v>0.39564912724945062</v>
-      </c>
-      <c r="M21">
+        <v>4.712355E-2</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="9"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
-        <v>0.31021757433151265</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="10"/>
-        <v>4.1200510909090909E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="11"/>
-        <v>5.1766177575757577E-2</v>
+        <v>5.6123550000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B22">
         <f>B21/B18</f>
-        <v>0.62840909090909092</v>
+        <v>1.22</v>
       </c>
       <c r="J22">
         <v>0.88</v>
       </c>
       <c r="K22">
+        <f t="shared" si="4"/>
+        <v>8.2896000000000001E-4</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="6"/>
-        <v>8.2896000000000001E-4</v>
-      </c>
-      <c r="L22">
+        <v>0.4001968183672604</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>0.30669237462320004</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="8"/>
-        <v>0.4001968183672604</v>
-      </c>
-      <c r="M22">
+        <v>4.7665199999999998E-2</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="9"/>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="7"/>
-        <v>0.30669237462320004</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="10"/>
-        <v>4.1674080000000002E-2</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="11"/>
-        <v>5.2361191111111115E-2</v>
+        <v>5.6665199999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>216</v>
-      </c>
       <c r="J23">
         <v>0.89</v>
       </c>
       <c r="K23">
+        <f t="shared" si="4"/>
+        <v>8.3838000000000001E-4</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="6"/>
-        <v>8.3838000000000001E-4</v>
-      </c>
-      <c r="L23">
+        <v>0.40474450948507018</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>0.30324639288586069</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="8"/>
-        <v>0.40474450948507018</v>
-      </c>
-      <c r="M23">
+        <v>4.8206850000000002E-2</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="9"/>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="7"/>
-        <v>0.30324639288586069</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="10"/>
-        <v>4.2147649090909095E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="11"/>
-        <v>5.2956204646464652E-2</v>
+        <v>5.7206850000000004E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>2020</v>
-      </c>
-      <c r="C24">
-        <v>2000</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="J24">
         <v>0.9</v>
       </c>
       <c r="K24">
+        <f t="shared" si="4"/>
+        <v>8.4780000000000001E-4</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="6"/>
-        <v>8.4780000000000001E-4</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="8"/>
         <v>0.40929220060287996</v>
       </c>
       <c r="M24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N24">
@@ -5113,82 +4883,70 @@
         <v>0.29987698852046224</v>
       </c>
       <c r="O24">
-        <f t="shared" si="10"/>
-        <v>4.2621218181818181E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.87485E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="11"/>
-        <v>5.3551218181818183E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.7748500000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>2030</v>
-      </c>
-      <c r="C25">
-        <v>1000</v>
-      </c>
       <c r="J25">
         <v>0.91</v>
       </c>
       <c r="K25">
+        <f t="shared" si="4"/>
+        <v>8.5722000000000001E-4</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="6"/>
-        <v>8.5722000000000001E-4</v>
-      </c>
-      <c r="L25">
+        <v>0.41383989172068975</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N29" si="10">$C$15/M25</f>
+        <v>0.29658163699825935</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="8"/>
-        <v>0.41383989172068975</v>
-      </c>
-      <c r="M25">
+        <v>4.9290149999999998E-2</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="9"/>
-        <v>1.0111111111111111</v>
-      </c>
-      <c r="N25">
-        <f t="shared" ref="N25:N29" si="12">$C$15/M25</f>
-        <v>0.29658163699825935</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="10"/>
-        <v>4.3094787272727274E-2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="11"/>
-        <v>5.4146231717171721E-2</v>
+        <v>5.8290149999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>2050</v>
-      </c>
-      <c r="C26">
-        <v>500</v>
-      </c>
       <c r="J26">
         <v>0.92</v>
       </c>
       <c r="K26">
+        <f t="shared" si="4"/>
+        <v>8.6664000000000001E-4</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="6"/>
-        <v>8.6664000000000001E-4</v>
-      </c>
-      <c r="L26">
+        <v>0.41838758283849953</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>1.0222222222222221</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>0.29335792355262613</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="8"/>
-        <v>0.41838758283849953</v>
-      </c>
-      <c r="M26">
+        <v>4.9831800000000002E-2</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="9"/>
-        <v>1.0222222222222221</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="12"/>
-        <v>0.29335792355262613</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="10"/>
-        <v>4.3568356363636367E-2</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="11"/>
-        <v>5.4741245252525259E-2</v>
+        <v>5.8831800000000004E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -5197,186 +4955,186 @@
         <v>0.93</v>
       </c>
       <c r="K27">
+        <f t="shared" si="4"/>
+        <v>8.7606000000000001E-4</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="6"/>
-        <v>8.7606000000000001E-4</v>
-      </c>
-      <c r="L27">
+        <v>0.42293527395630931</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>0.29020353727786663</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="8"/>
-        <v>0.42293527395630931</v>
-      </c>
-      <c r="M27">
+        <v>5.037345E-2</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="9"/>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="12"/>
-        <v>0.29020353727786663</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="10"/>
-        <v>4.4041925454545452E-2</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="11"/>
-        <v>5.5336258787878789E-2</v>
+        <v>5.9373450000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="J28">
         <v>0.94</v>
       </c>
       <c r="K28">
+        <f t="shared" si="4"/>
+        <v>8.8548000000000001E-4</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="6"/>
-        <v>8.8548000000000001E-4</v>
-      </c>
-      <c r="L28">
+        <v>0.42748296507411909</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>0.28711626560469788</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="8"/>
-        <v>0.42748296507411909</v>
-      </c>
-      <c r="M28">
+        <v>5.0915099999999998E-2</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="9"/>
-        <v>1.0444444444444445</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="12"/>
-        <v>0.28711626560469788</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="10"/>
-        <v>4.4515494545454545E-2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="11"/>
-        <v>5.593127232323232E-2</v>
+        <v>5.9915099999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="21">
-        <v>5997</v>
-      </c>
-      <c r="C29" s="21">
-        <v>59.29</v>
-      </c>
-      <c r="D29" s="21">
-        <f>10.93*1000/1000000</f>
-        <v>1.093E-2</v>
+        <v>215</v>
+      </c>
+      <c r="B29" s="20">
+        <v>3552</v>
+      </c>
+      <c r="C29" s="20">
+        <v>69</v>
+      </c>
+      <c r="D29" s="20">
+        <f>9*1000/1000000</f>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="J29">
         <v>0.95</v>
       </c>
       <c r="K29">
+        <f t="shared" si="4"/>
+        <v>8.9490000000000001E-4</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="6"/>
-        <v>8.9490000000000001E-4</v>
-      </c>
-      <c r="L29">
+        <v>0.43203065619192887</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>0.28409398912464845</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="8"/>
-        <v>0.43203065619192887</v>
-      </c>
-      <c r="M29">
+        <v>5.1456750000000002E-2</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="9"/>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="12"/>
-        <v>0.28409398912464845</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="10"/>
-        <v>4.4989063636363638E-2</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="11"/>
-        <v>5.6526285858585865E-2</v>
+        <v>6.0456750000000004E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="21">
-        <v>2569</v>
-      </c>
-      <c r="C30" s="21">
-        <v>27.48</v>
-      </c>
-      <c r="D30" s="21">
-        <f>5.82*1000/1000000</f>
-        <v>5.8199999999999997E-3</v>
+        <v>69</v>
+      </c>
+      <c r="B30" s="20">
+        <v>2313</v>
+      </c>
+      <c r="C30" s="20">
+        <v>14</v>
+      </c>
+      <c r="D30" s="20">
+        <f>11*1000/1000000</f>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B31" s="21">
+        <v>241</v>
+      </c>
+      <c r="B31" s="20">
         <v>495</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>4</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>2.6473008613171967E-2</v>
       </c>
       <c r="E31">
         <v>0.73</v>
       </c>
-      <c r="J31" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="J31" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2">
         <f>2*B31</f>
         <v>990</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>4</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -5384,7 +5142,7 @@
         <v>0.85</v>
       </c>
       <c r="K33">
-        <f t="shared" ref="K33:K43" si="13">$B$37*J33</f>
+        <f t="shared" ref="K33:K43" si="11">$B$37*J33</f>
         <v>2.6604999999999999E-4</v>
       </c>
       <c r="L33">
@@ -5396,145 +5154,145 @@
         <v>0.54698716092192001</v>
       </c>
       <c r="O33">
-        <f>($B$21+$B$18)*K33</f>
-        <v>3.4659059090909092E-2</v>
+        <f>K33*$B$21</f>
+        <v>2.4343574999999999E-2</v>
       </c>
       <c r="P33">
         <f>($D$31*M19)+O33</f>
-        <v>5.9661345003349284E-2</v>
+        <v>4.9345860912440191E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J34">
         <v>0.86</v>
       </c>
       <c r="K34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.6917999999999999E-4</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L43" si="14">K34*$B$12</f>
+        <f t="shared" ref="L34:L43" si="12">K34*$B$12</f>
         <v>0.18516593130252798</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N43" si="15">$E$31-L34</f>
+        <f t="shared" ref="N34:N43" si="13">$E$31-L34</f>
         <v>0.54483406869747197</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O43" si="16">($B$21+$B$18)*K34</f>
-        <v>3.5066812727272731E-2</v>
+        <f t="shared" ref="O34:O43" si="14">K34*$B$21</f>
+        <v>2.4629970000000001E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P43" si="17">($D$31*M20)+O34</f>
-        <v>6.0363243179859277E-2</v>
+        <f t="shared" ref="P34:P43" si="15">($D$31*M20)+O34</f>
+        <v>4.9926400452586547E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B35" s="22">
+      <c r="A35" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="21">
         <f>942/1000000</f>
         <v>9.4200000000000002E-4</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J35">
         <v>0.87</v>
       </c>
       <c r="K35">
+        <f t="shared" si="11"/>
+        <v>2.7231E-4</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="12"/>
+        <v>0.18731902352697599</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="13"/>
-        <v>2.7231E-4</v>
-      </c>
-      <c r="L35">
+        <v>0.54268097647302405</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="14"/>
-        <v>0.18731902352697599</v>
-      </c>
-      <c r="N35">
+        <v>2.4916364999999999E-2</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="15"/>
-        <v>0.54268097647302405</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="16"/>
-        <v>3.5474566363636363E-2</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="17"/>
-        <v>6.1065141356369264E-2</v>
+        <v>5.0506939992732897E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="22">
+      <c r="A36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="21">
         <f>400/1000000</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J36">
         <v>0.88</v>
       </c>
       <c r="K36">
+        <f t="shared" si="11"/>
+        <v>2.7544000000000001E-4</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="12"/>
+        <v>0.189472115751424</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="13"/>
-        <v>2.7544000000000001E-4</v>
-      </c>
-      <c r="L36">
+        <v>0.54052788424857601</v>
+      </c>
+      <c r="O36">
         <f t="shared" si="14"/>
-        <v>0.189472115751424</v>
-      </c>
-      <c r="N36">
+        <v>2.5202760000000001E-2</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="15"/>
-        <v>0.54052788424857601</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="16"/>
-        <v>3.5882320000000002E-2</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="17"/>
-        <v>6.1767039532879257E-2</v>
+        <v>5.108747953287926E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B37" s="22">
+      <c r="A37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="21">
         <f>313/1000000</f>
         <v>3.1300000000000002E-4</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J37">
         <v>0.89</v>
       </c>
       <c r="K37">
+        <f t="shared" si="11"/>
+        <v>2.7857000000000001E-4</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="12"/>
+        <v>0.19162520797587199</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="13"/>
-        <v>2.7857000000000001E-4</v>
-      </c>
-      <c r="L37">
+        <v>0.53837479202412797</v>
+      </c>
+      <c r="O37">
         <f t="shared" si="14"/>
-        <v>0.19162520797587199</v>
-      </c>
-      <c r="N37">
+        <v>2.5489154999999999E-2</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="15"/>
-        <v>0.53837479202412797</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="16"/>
-        <v>3.6290073636363641E-2</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="17"/>
-        <v>6.2468937709389258E-2</v>
+        <v>5.1668019073025609E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -5542,24 +5300,24 @@
         <v>0.9</v>
       </c>
       <c r="K38">
+        <f t="shared" si="11"/>
+        <v>2.8170000000000002E-4</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="12"/>
+        <v>0.19377830020032</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="13"/>
-        <v>2.8170000000000002E-4</v>
-      </c>
-      <c r="L38">
+        <v>0.53622169979968004</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="14"/>
-        <v>0.19377830020032</v>
-      </c>
-      <c r="N38">
+        <v>2.5775550000000001E-2</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="15"/>
-        <v>0.53622169979968004</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="16"/>
-        <v>3.6697827272727274E-2</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="17"/>
-        <v>6.3170835885899237E-2</v>
+        <v>5.2248558613171972E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -5567,24 +5325,24 @@
         <v>0.91</v>
       </c>
       <c r="K39">
+        <f t="shared" si="11"/>
+        <v>2.8483000000000002E-4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="12"/>
+        <v>0.19593139242476801</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="13"/>
-        <v>2.8483000000000002E-4</v>
-      </c>
-      <c r="L39">
+        <v>0.534068607575232</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="14"/>
-        <v>0.19593139242476801</v>
-      </c>
-      <c r="N39">
+        <v>2.6061945000000003E-2</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="15"/>
-        <v>0.534068607575232</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="16"/>
-        <v>3.7105580909090913E-2</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="17"/>
-        <v>6.3872734062409231E-2</v>
+        <v>5.2829098153318321E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -5592,24 +5350,24 @@
         <v>0.92</v>
       </c>
       <c r="K40">
+        <f t="shared" si="11"/>
+        <v>2.8796000000000003E-4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="12"/>
+        <v>0.19808448464921602</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="13"/>
-        <v>2.8796000000000003E-4</v>
-      </c>
-      <c r="L40">
+        <v>0.53191551535078396</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="14"/>
-        <v>0.19808448464921602</v>
-      </c>
-      <c r="N40">
+        <v>2.6348340000000001E-2</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="15"/>
-        <v>0.53191551535078396</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="16"/>
-        <v>3.7513334545454552E-2</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="17"/>
-        <v>6.4574632238919225E-2</v>
+        <v>5.3409637693464677E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -5617,24 +5375,24 @@
         <v>0.93</v>
       </c>
       <c r="K41">
+        <f t="shared" si="11"/>
+        <v>2.9109000000000003E-4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="12"/>
+        <v>0.200237576873664</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="13"/>
-        <v>2.9109000000000003E-4</v>
-      </c>
-      <c r="L41">
+        <v>0.52976242312633604</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="14"/>
-        <v>0.200237576873664</v>
-      </c>
-      <c r="N41">
+        <v>2.6634735000000003E-2</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="15"/>
-        <v>0.52976242312633604</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="16"/>
-        <v>3.7921088181818191E-2</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="17"/>
-        <v>6.5276530415429218E-2</v>
+        <v>5.3990177233611034E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -5642,24 +5400,24 @@
         <v>0.94</v>
       </c>
       <c r="K42">
+        <f t="shared" si="11"/>
+        <v>2.9421999999999999E-4</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="12"/>
+        <v>0.20239066909811199</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="13"/>
-        <v>2.9421999999999999E-4</v>
-      </c>
-      <c r="L42">
+        <v>0.527609330901888</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="14"/>
-        <v>0.20239066909811199</v>
-      </c>
-      <c r="N42">
+        <v>2.6921129999999998E-2</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="15"/>
-        <v>0.527609330901888</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="16"/>
-        <v>3.8328841818181816E-2</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="17"/>
-        <v>6.5978428591939198E-2</v>
+        <v>5.4570716773757383E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -5667,24 +5425,24 @@
         <v>0.95</v>
       </c>
       <c r="K43">
+        <f t="shared" si="11"/>
+        <v>2.9734999999999999E-4</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="12"/>
+        <v>0.20454376132256</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="13"/>
-        <v>2.9734999999999999E-4</v>
-      </c>
-      <c r="L43">
+        <v>0.52545623867743996</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="14"/>
-        <v>0.20454376132256</v>
-      </c>
-      <c r="N43">
+        <v>2.7207525E-2</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="15"/>
-        <v>0.52545623867743996</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="16"/>
-        <v>3.8736595454545455E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="17"/>
-        <v>6.6680326768449205E-2</v>
+        <v>5.5151256313903746E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5709,24 +5467,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>2020</v>
@@ -5863,17 +5621,17 @@
         <v>41.869</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K2">
         <f>1/110</f>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -5883,11 +5641,11 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>0.27779999999999999</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -5912,14 +5670,14 @@
         <v>5024.28</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K4">
         <f>G3*I4</f>
         <v>1395.7449839999999</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M4">
         <f>G4*G3</f>
@@ -5931,77 +5689,77 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>9.31</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <f>G5/M4</f>
         <v>0.27927765778737701</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="L7" s="11"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="12">
+        <v>90</v>
+      </c>
+      <c r="L8" s="11">
         <v>1538396</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="12">
+        <v>78</v>
+      </c>
+      <c r="N8" s="11">
         <f>G2*L8</f>
         <v>64411102.123999998</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <f>186*1000000</f>
         <v>186000000</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="12">
+        <v>80</v>
+      </c>
+      <c r="L9" s="11">
         <v>1141251</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -6009,65 +5767,65 @@
         <v>1690909.0909090908</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <f>B10/L11</f>
         <v>0.41378551295067767</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <f>B10/N11</f>
         <v>3624.7610934479362</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="12">
+        <v>102</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="11">
         <f>L9/G5</f>
         <v>122583.35123523093</v>
       </c>
       <c r="M10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J11" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="12">
+      <c r="J11" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="11">
         <f>M4*L10</f>
         <v>4086438.5967776584</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="12">
+        <v>84</v>
+      </c>
+      <c r="N11" s="11">
         <f>L11/8760</f>
         <v>466.48842428968703</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" s="12">
+        <v>118</v>
+      </c>
+      <c r="L12" s="11">
         <v>1</v>
       </c>
       <c r="N12" s="1"/>
@@ -6080,185 +5838,185 @@
         <v>441890</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="12">
+        <v>83</v>
+      </c>
+      <c r="D13" s="11">
         <f>114*B13</f>
         <v>50375460</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="12">
+        <v>93</v>
+      </c>
+      <c r="F13" s="11">
         <f>D13*$K$2</f>
         <v>457958.72727272724</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="12">
+        <v>95</v>
+      </c>
+      <c r="H13" s="11">
         <f>B13*53*G3</f>
         <v>6506123.2259999998</v>
       </c>
-      <c r="L13" s="12"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>3428000</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="12">
+        <v>83</v>
+      </c>
+      <c r="D14" s="11">
         <f>300*B14</f>
         <v>1028400000</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="12">
+        <v>93</v>
+      </c>
+      <c r="F14" s="11">
         <f t="shared" ref="F14:F15" si="0">D14*$K$2</f>
         <v>9349090.9090909082</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B15">
         <v>1714000</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="12">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11">
         <f>B15*200</f>
         <v>342800000</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="12">
+        <v>93</v>
+      </c>
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>3116363.6363636362</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f>SUM(D13:D15)</f>
         <v>1421575460</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <f>SUM(F13:F15)</f>
         <v>12923413.272727272</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B17">
         <f>F16/L11</f>
         <v>3.1625125317967502</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <f>7000000*1.5</f>
         <v>10500000</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B21">
         <f>0.03*B9/20</f>
         <v>279000</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B22">
         <f>0.0077*0.55*B9/20</f>
         <v>39385.5</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B23">
         <f>0.014*0.55*B9/20</f>
         <v>71610.000000000015</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>10889995.5</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D24">
         <f>B24*K2</f>
         <v>98999.959090909091</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G24">
         <v>1690909.0909090908</v>
@@ -6268,19 +6026,19 @@
         <v>81728771.935553193</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D25">
         <f>D24/N11</f>
         <v>212.22382793668336</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G25">
         <f>D24*20</f>
@@ -6306,33 +6064,33 @@
         <v>3.2074282718206168</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B29">
         <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="9">
+        <v>106</v>
+      </c>
+      <c r="D29" s="8">
         <f>B29/1000000</f>
         <v>1.3300000000000001E-4</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6361,7 +6119,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C1">
         <v>9.31</v>
@@ -6370,18 +6128,18 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C2">
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6415,13 +6173,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G1">
         <v>39444.433400000002</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,26 +6187,26 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <f>70.8/(1.8*1000000000)</f>
         <v>3.9333333333333335E-8</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N2">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,14 +6217,14 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6474,48 +6232,48 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6310,7 @@
         <v>1538396</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" s="3">
         <f>C9*0.7</f>
@@ -6563,10 +6321,10 @@
         <v>30.363615543241984</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P5">
         <f>186/L6</f>
@@ -6601,19 +6359,19 @@
         <v>6.0510242666666672E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L6" s="6">
         <f>0.33*L5</f>
         <v>1.8373097447589444</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="20">
+        <v>46</v>
+      </c>
+      <c r="O6" s="19">
         <f>87/(1000000*0.27777)</f>
         <v>3.1320876984555567E-4</v>
       </c>
@@ -6631,7 +6389,7 @@
         <v>1714</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>200</v>
@@ -6645,10 +6403,10 @@
         <v>2386.7922368831719</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <f>L6/D9</f>
@@ -6682,7 +6440,7 @@
         <v>0.16251414240000001</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,10 +6463,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <f>60*N2/(1000000*I2*M5)</f>
@@ -6717,12 +6475,12 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>55.5</v>
@@ -6731,16 +6489,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,7 +6510,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <f>G5/D5</f>
@@ -6764,7 +6522,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.08</v>
@@ -6799,28 +6557,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1">
         <v>2050</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <f>9/(39.4*0.3)</f>
         <v>0.76142131979695438</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -6828,33 +6586,33 @@
         <v>2050</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <f>1.5/(39.444*0.3)</f>
         <v>0.12676199168441335</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6878,18 +6636,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="10">
+        <v>124</v>
+      </c>
+      <c r="I1" s="9">
         <v>0.27779999999999999</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -6900,30 +6658,30 @@
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3">
         <f>B4/I1</f>
         <v>313.17494600431968</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -6936,28 +6694,28 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B18" s="3">
         <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="9">
+        <v>106</v>
+      </c>
+      <c r="D18" s="8">
         <f>B18/1000000</f>
         <v>1.3300000000000001E-4</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -6992,33 +6750,33 @@
         <v>41.869</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G1">
         <f>1/110</f>
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I1">
         <v>1.1000000000000001</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>0.27779999999999999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -7048,14 +6806,14 @@
         <v>5024.28</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <f>C2*E3</f>
         <v>1395.7449839999999</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <f>(C3*C2)-I2</f>
@@ -7067,63 +6825,63 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>9.31</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <f>C4/I3</f>
         <v>0.31627938578611225</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>2.5</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <f>B8*(365*24*60*60)</f>
         <v>78840000</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <f>(D8*I3/(1000000))</f>
         <v>2320.7342400000002</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I8">
         <f>F8/8760</f>
         <v>0.26492400000000005</v>
       </c>
       <c r="J8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B9">
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D9">
         <f>B9*B17*365*24*3600/1000000000</f>
@@ -7132,45 +6890,45 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B11">
         <f>133815/1000</f>
         <v>133.815</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <f>B11/I8</f>
         <v>505.10712506228191</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="16">
+        <v>136</v>
+      </c>
+      <c r="F11" s="15">
         <f>D11*I1</f>
         <v>555.61783756851014</v>
       </c>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B12">
         <f>450*I1</f>
         <v>495.00000000000006</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B13">
         <f>B12/F11</f>
@@ -7179,7 +6937,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B14">
         <f>I8/B13</f>
@@ -7191,75 +6949,75 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="A15" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="22">
         <f>F8/B13</f>
         <v>2604.9319999999998</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <f>61753*1000</f>
         <v>61753000</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F20">
         <f>B20/(D20*1000)</f>
         <v>3087.65</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20">
         <f>B15/F21</f>
@@ -7269,33 +7027,33 @@
         <f>B15/(F21+F20)</f>
         <v>0.83408091276342533</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <f>F21/F20</f>
         <v>1.1486621432696928E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B21">
         <v>1064000</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F21" s="2">
         <f>B21/(D21*1000)</f>
         <v>35.466666666666669</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -7303,31 +7061,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B23">
         <v>1089000</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D23">
         <f>B23/1000000</f>
         <v>1.089</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B25">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -7336,7 +7094,7 @@
         <v>378432000</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7345,95 +7103,95 @@
         <v>113529600</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D27">
         <f>B27*G1/(1000000)</f>
         <v>1.0320872727272727</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F27">
         <f>D27/I1</f>
         <v>0.93826115702479329</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B29">
         <f>(B20/1000000)+F27</f>
         <v>62.69126115702479</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D29">
         <f>B29*I1</f>
         <v>68.960387272727274</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="16">
+        <v>145</v>
+      </c>
+      <c r="F29" s="15">
         <f>D29/B15</f>
         <v>2.6473008613171967E-2</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>168</v>
+      <c r="A30" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B32">
         <f>D23</f>
         <v>1.089</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D32">
         <f>B32*I1</f>
         <v>1.1979</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="16">
+        <v>145</v>
+      </c>
+      <c r="F32" s="15">
         <f>D32/B14</f>
         <v>4.028360049321825</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>185</v>
+      <c r="A33" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B35">
         <f>F8*B17*1000</f>
         <v>69622027.200000018</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D35">
         <f>D9/(B35/1000)</f>
@@ -7442,28 +7200,28 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B36">
         <f>(B11*1000000)+(70005000*B17)</f>
         <v>2233965000</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="23">
+      <c r="A37" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="22">
         <f>B36/B35</f>
         <v>32.08704327988886</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="23"/>
+      <c r="C37" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3532B8-A0FA-42D3-8C5A-D8A0481D34A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC18CE-A958-4B3C-AAFF-1F99E5852BF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="254">
   <si>
     <t>H2 Method</t>
   </si>
@@ -712,9 +712,6 @@
     <t>New CF</t>
   </si>
   <si>
-    <t>Total (excluding capture)</t>
-  </si>
-  <si>
     <t>New VOM</t>
   </si>
   <si>
@@ -752,9 +749,6 @@
   </si>
   <si>
     <t>GWh for capture/Mt</t>
-  </si>
-  <si>
-    <t>% (excluding cap/cap)</t>
   </si>
   <si>
     <t>Capture Cost(GWh)</t>
@@ -1312,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B25EB-4023-477D-80C4-74718858ACC8}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1374,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4">
         <v>0.18</v>
@@ -1393,22 +1387,22 @@
         <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>221</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1435,15 +1429,15 @@
         <v>4.4472000000000005E-2</v>
       </c>
       <c r="N5">
-        <f>L5/$L$10</f>
+        <f t="shared" ref="N5:N15" si="1">L5/$L$10</f>
         <v>0.94444444444444453</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O15" si="1">$B$15/N5</f>
+        <f t="shared" ref="O5:O15" si="2">$B$15/N5</f>
         <v>0.42211529395200004</v>
       </c>
       <c r="P5">
-        <f>$D$30+M5</f>
+        <f t="shared" ref="P5:P15" si="3">$D$30+M5</f>
         <v>6.0472000000000005E-2</v>
       </c>
     </row>
@@ -1458,7 +1452,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J6">
         <v>0.86</v>
@@ -1468,23 +1462,23 @@
         <v>3.4400000000000001E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L15" si="2">K6*$B$12</f>
+        <f t="shared" ref="L6:L15" si="4">K6*$B$12</f>
         <v>0.23663377802239999</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="3">K6*$B$21</f>
+        <f t="shared" ref="M6:M15" si="5">K6*$B$21</f>
         <v>4.4995200000000006E-2</v>
       </c>
       <c r="N6">
-        <f>L6/$L$10</f>
+        <f t="shared" si="1"/>
         <v>0.95555555555555549</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41720697658046524</v>
       </c>
       <c r="P6">
-        <f>$D$30+M6</f>
+        <f t="shared" si="3"/>
         <v>6.0995200000000006E-2</v>
       </c>
     </row>
@@ -1498,7 +1492,7 @@
         <v>8.4780000000000001E-4</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J7">
         <v>0.87</v>
@@ -1508,23 +1502,23 @@
         <v>3.48E-4</v>
       </c>
       <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.2393853335808</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>4.5518400000000007E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
-        <v>0.2393853335808</v>
-      </c>
-      <c r="M7">
+        <v>0.41241149409103456</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="3"/>
-        <v>4.5518400000000007E-2</v>
-      </c>
-      <c r="N7">
-        <f>L7/$L$10</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0.41241149409103456</v>
-      </c>
-      <c r="P7">
-        <f>$D$30+M7</f>
         <v>6.1518400000000008E-2</v>
       </c>
     </row>
@@ -1538,7 +1532,7 @@
         <v>294.88086812927577</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J8">
         <v>0.88</v>
@@ -1548,23 +1542,23 @@
         <v>3.5200000000000005E-4</v>
       </c>
       <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.24213688913920003</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>4.6041600000000009E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.97777777777777797</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="2"/>
-        <v>0.24213688913920003</v>
-      </c>
-      <c r="M8">
+        <v>0.40772499983999999</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="3"/>
-        <v>4.6041600000000009E-2</v>
-      </c>
-      <c r="N8">
-        <f>L8/$L$10</f>
-        <v>0.97777777777777797</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0.40772499983999999</v>
-      </c>
-      <c r="P8">
-        <f>$D$30+M8</f>
         <v>6.2041600000000009E-2</v>
       </c>
     </row>
@@ -1579,7 +1573,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J9">
         <v>0.89</v>
@@ -1589,23 +1583,23 @@
         <v>3.5600000000000003E-4</v>
       </c>
       <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.24488844469760002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>4.656480000000001E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="2"/>
-        <v>0.24488844469760002</v>
-      </c>
-      <c r="M9">
+        <v>0.40314382006651689</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="3"/>
-        <v>4.656480000000001E-2</v>
-      </c>
-      <c r="N9">
-        <f>L9/$L$10</f>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0.40314382006651689</v>
-      </c>
-      <c r="P9">
-        <f>$D$30+M9</f>
         <v>6.2564800000000004E-2</v>
       </c>
     </row>
@@ -1630,23 +1624,23 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0.247640000256</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>4.7088000000000005E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="2"/>
-        <v>0.247640000256</v>
-      </c>
-      <c r="M10">
+        <v>0.39866444428800007</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="3"/>
-        <v>4.7088000000000005E-2</v>
-      </c>
-      <c r="N10">
-        <f>L10/$L$10</f>
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0.39866444428800007</v>
-      </c>
-      <c r="P10">
-        <f>$D$30+M10</f>
         <v>6.3088000000000005E-2</v>
       </c>
     </row>
@@ -1673,29 +1667,29 @@
         <v>3.6400000000000001E-4</v>
       </c>
       <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.25039155581439998</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>4.7611200000000006E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="2"/>
-        <v>0.25039155581439998</v>
-      </c>
-      <c r="M11">
+        <v>0.39428351632879127</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="3"/>
-        <v>4.7611200000000006E-2</v>
-      </c>
-      <c r="N11">
-        <f>L11/$L$10</f>
-        <v>1.0111111111111111</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0.39428351632879127</v>
-      </c>
-      <c r="P11">
-        <f>$D$30+M11</f>
         <v>6.3611200000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12">
         <f>SUM(B8:B11)</f>
@@ -1720,25 +1714,25 @@
         <v>0.25314311137280004</v>
       </c>
       <c r="M12">
+        <f t="shared" si="5"/>
+        <v>4.8134400000000015E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0.38999782593391308</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="3"/>
-        <v>4.8134400000000015E-2</v>
-      </c>
-      <c r="N12">
-        <f>L12/$L$10</f>
-        <v>1.0222222222222224</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>0.38999782593391308</v>
-      </c>
-      <c r="P12">
-        <f>$D$30+M12</f>
         <v>6.4134400000000008E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13">
         <f>1/B36</f>
@@ -1749,7 +1743,7 @@
         <v>1061.5711252653928</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J13">
         <v>0.93</v>
@@ -1759,29 +1753,29 @@
         <v>3.7200000000000004E-4</v>
       </c>
       <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0.2558946669312</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>4.8657600000000009E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="2"/>
-        <v>0.2558946669312</v>
-      </c>
-      <c r="M13">
+        <v>0.38580430092387102</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="3"/>
-        <v>4.8657600000000009E-2</v>
-      </c>
-      <c r="N13">
-        <f>L13/$L$10</f>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0.38580430092387102</v>
-      </c>
-      <c r="P13">
-        <f>$D$30+M13</f>
         <v>6.465760000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B14">
         <f>(B13-B12)/B13</f>
@@ -1799,23 +1793,23 @@
         <v>3.7599999999999998E-4</v>
       </c>
       <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.25864622248959995</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>4.9180800000000004E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="2"/>
-        <v>0.25864622248959995</v>
-      </c>
-      <c r="M14">
+        <v>0.38169999985021291</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="3"/>
-        <v>4.9180800000000004E-2</v>
-      </c>
-      <c r="N14">
-        <f>L14/$L$10</f>
-        <v>1.0444444444444443</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0.38169999985021291</v>
-      </c>
-      <c r="P14">
-        <f>$D$30+M14</f>
         <v>6.5180800000000011E-2</v>
       </c>
     </row>
@@ -1839,35 +1833,35 @@
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.26139777804800002</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>4.9704000000000005E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="2"/>
-        <v>0.26139777804800002</v>
-      </c>
-      <c r="M15">
+        <v>0.37768210511494743</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="3"/>
-        <v>4.9704000000000005E-2</v>
-      </c>
-      <c r="N15">
-        <f>L15/$L$10</f>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>0.37768210511494743</v>
-      </c>
-      <c r="P15">
-        <f>$D$30+M15</f>
         <v>6.5704000000000012E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -1899,19 +1893,19 @@
         <v>220</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>221</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1931,7 +1925,7 @@
         <v>0.85</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K29" si="4">$B$35*J19</f>
+        <f t="shared" ref="K19:K29" si="6">$B$35*J19</f>
         <v>8.007E-4</v>
       </c>
       <c r="L19">
@@ -1943,7 +1937,7 @@
         <v>0.94444444444444453</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N23" si="5">$C$15/M19</f>
+        <f t="shared" ref="N19:N23" si="7">$C$15/M19</f>
         <v>0.31751681137460702</v>
       </c>
       <c r="O19">
@@ -1966,39 +1960,39 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J20">
         <v>0.86</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1012E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L29" si="6">K20*$C$12</f>
+        <f t="shared" ref="L20:L29" si="8">K20*$C$12</f>
         <v>0.39110143613164089</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M29" si="7">L20/$L$24</f>
+        <f t="shared" ref="M20:M29" si="9">L20/$L$24</f>
         <v>0.9555555555555556</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.31382475542839072</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O29" si="8">K20*$C$21</f>
+        <f t="shared" ref="O20:O29" si="10">K20*$C$21</f>
         <v>7.9229735999999995E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" ref="P20:P29" si="9">$D$29+O20</f>
+        <f>$D$29+O20</f>
         <v>8.922973599999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
         <f>SUM(B18:B20)</f>
@@ -2015,34 +2009,31 @@
         <v>0.87</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1954E-4</v>
       </c>
       <c r="L21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39564912724945062</v>
       </c>
       <c r="M21">
+        <f t="shared" si="9"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="7"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
         <v>0.31021757433151265</v>
       </c>
       <c r="O21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.0151011999999994E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P21:P29" si="11">$D$29+O21</f>
         <v>9.0151011999999989E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
       <c r="B22">
         <f>B21/B18</f>
         <v>1.3768421052631581</v>
@@ -2051,27 +2042,27 @@
         <v>0.88</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.2896000000000001E-4</v>
       </c>
       <c r="L22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4001968183672604</v>
       </c>
       <c r="M22">
+        <f t="shared" si="9"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="7"/>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="5"/>
         <v>0.30669237462320004</v>
       </c>
       <c r="O22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.1072287999999992E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.1072287999999987E-2</v>
       </c>
     </row>
@@ -2080,27 +2071,27 @@
         <v>0.89</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3838000000000001E-4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.40474450948507018</v>
       </c>
       <c r="M23">
+        <f t="shared" si="9"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="7"/>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="5"/>
         <v>0.30324639288586069</v>
       </c>
       <c r="O23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.1993564000000005E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.1993564E-2</v>
       </c>
     </row>
@@ -2110,15 +2101,15 @@
         <v>0.9</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.4780000000000001E-4</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.40929220060287996</v>
       </c>
       <c r="M24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N24">
@@ -2126,11 +2117,11 @@
         <v>0.29987698852046224</v>
       </c>
       <c r="O24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.2914840000000004E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.2914839999999999E-2</v>
       </c>
     </row>
@@ -2139,27 +2130,27 @@
         <v>0.91</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.5722000000000001E-4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.41383989172068975</v>
       </c>
       <c r="M25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0111111111111111</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N29" si="10">$C$15/M25</f>
+        <f t="shared" ref="N25:N29" si="12">$C$15/M25</f>
         <v>0.29658163699825935</v>
       </c>
       <c r="O25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.3836116000000002E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.3836115999999997E-2</v>
       </c>
     </row>
@@ -2168,27 +2159,27 @@
         <v>0.92</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.6664000000000001E-4</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.41838758283849953</v>
       </c>
       <c r="M26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0222222222222221</v>
       </c>
       <c r="N26">
+        <f t="shared" si="12"/>
+        <v>0.29335792355262613</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="10"/>
-        <v>0.29335792355262613</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="8"/>
         <v>8.4757392000000001E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.4757391999999996E-2</v>
       </c>
     </row>
@@ -2198,27 +2189,27 @@
         <v>0.93</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.7606000000000001E-4</v>
       </c>
       <c r="L27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42293527395630931</v>
       </c>
       <c r="M27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="N27">
+        <f t="shared" si="12"/>
+        <v>0.29020353727786663</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="10"/>
-        <v>0.29020353727786663</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="8"/>
         <v>8.5678667999999999E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.5678667999999994E-2</v>
       </c>
     </row>
@@ -2236,33 +2227,33 @@
         <v>216</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J28">
         <v>0.94</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8548000000000001E-4</v>
       </c>
       <c r="L28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42748296507411909</v>
       </c>
       <c r="M28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0444444444444445</v>
       </c>
       <c r="N28">
+        <f t="shared" si="12"/>
+        <v>0.28711626560469788</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="10"/>
-        <v>0.28711626560469788</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="8"/>
         <v>8.6599943999999998E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.6599943999999993E-2</v>
       </c>
     </row>
@@ -2284,27 +2275,27 @@
         <v>0.95</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.9490000000000001E-4</v>
       </c>
       <c r="L29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.43203065619192887</v>
       </c>
       <c r="M29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0555555555555556</v>
       </c>
       <c r="N29">
+        <f t="shared" si="12"/>
+        <v>0.28409398912464845</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="10"/>
-        <v>0.28409398912464845</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="8"/>
         <v>8.7521219999999997E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.7521219999999992E-2</v>
       </c>
     </row>
@@ -2325,7 +2316,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="20">
         <v>495</v>
@@ -2337,10 +2328,10 @@
         <v>2.6473008613171967E-2</v>
       </c>
       <c r="E31">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -2351,7 +2342,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2">
         <f>6*B31</f>
@@ -2367,70 +2358,71 @@
         <v>220</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J33">
-        <v>0.85</v>
-      </c>
-      <c r="K33">
-        <f t="shared" ref="K33:K43" si="11">$B$37*J33</f>
-        <v>2.6604999999999999E-4</v>
-      </c>
-      <c r="L33">
-        <f>K33*$B$12</f>
-        <v>0.18301283907808</v>
-      </c>
-      <c r="N33">
-        <f>$E$31-L33</f>
-        <v>0.54698716092192001</v>
-      </c>
-      <c r="O33">
-        <f>K33*$B$21</f>
-        <v>3.4799340000000005E-2</v>
-      </c>
-      <c r="P33">
-        <f>($D$31*M19)+O33</f>
-        <v>5.9801625912440197E-2</v>
+        <v>0.7</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" ref="K33:K44" si="13">$B$37*J33</f>
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" ref="L33:L44" si="14">K33*$B$12</f>
+        <v>0.19260888908799997</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" ref="N33:N44" si="15">$E$31-L33</f>
+        <v>0.50739111091199995</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" ref="O33:O44" si="16">K33*$B$21</f>
+        <v>3.6623999999999997E-2</v>
+      </c>
+      <c r="P33" s="3">
+        <f>$D$31+O33</f>
+        <v>6.3097008613171968E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J34">
-        <v>0.86</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="11"/>
-        <v>2.6917999999999999E-4</v>
-      </c>
-      <c r="L34">
-        <f t="shared" ref="L34:L43" si="12">K34*$B$12</f>
-        <v>0.18516593130252798</v>
-      </c>
-      <c r="N34">
-        <f t="shared" ref="N34:N43" si="13">$E$31-L34</f>
-        <v>0.54483406869747197</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ref="O34:O43" si="14">K34*$B$21</f>
-        <v>3.5208744E-2</v>
-      </c>
-      <c r="P34">
-        <f t="shared" ref="P34:P43" si="15">($D$31*M20)+O34</f>
-        <v>6.0505174452586546E-2</v>
+      <c r="J34" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="13"/>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="L34" s="3">
+        <f>K34*$B$12</f>
+        <v>0.23388222246400001</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3">
+        <f>$E$31-L34</f>
+        <v>0.46611777753599992</v>
+      </c>
+      <c r="O34" s="3">
+        <f>K34*$B$21</f>
+        <v>4.4472000000000005E-2</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" ref="P34:P44" si="17">$D$31+O34</f>
+        <v>7.0945008613171975E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2444,28 +2436,29 @@
       <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="J35">
-        <v>0.87</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="11"/>
-        <v>2.7231E-4</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="12"/>
-        <v>0.18731902352697599</v>
-      </c>
-      <c r="N35">
+      <c r="J35" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="K35" s="3">
         <f t="shared" si="13"/>
-        <v>0.54268097647302405</v>
-      </c>
-      <c r="O35">
+        <v>3.4400000000000001E-4</v>
+      </c>
+      <c r="L35" s="3">
         <f t="shared" si="14"/>
-        <v>3.5618148000000002E-2</v>
-      </c>
-      <c r="P35">
+        <v>0.23663377802239999</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3">
         <f t="shared" si="15"/>
-        <v>6.1208722992732903E-2</v>
+        <v>0.46336622197759997</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="16"/>
+        <v>4.4995200000000006E-2</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="17"/>
+        <v>7.1468208613171977E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2479,28 +2472,29 @@
       <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="J36">
-        <v>0.88</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="11"/>
-        <v>2.7544000000000001E-4</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="12"/>
-        <v>0.189472115751424</v>
-      </c>
-      <c r="N36">
+      <c r="J36" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="K36" s="3">
         <f t="shared" si="13"/>
-        <v>0.54052788424857601</v>
-      </c>
-      <c r="O36">
+        <v>3.48E-4</v>
+      </c>
+      <c r="L36" s="3">
         <f t="shared" si="14"/>
-        <v>3.6027552000000004E-2</v>
-      </c>
-      <c r="P36">
+        <v>0.2393853335808</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3">
         <f t="shared" si="15"/>
-        <v>6.1912271532879259E-2</v>
+        <v>0.46061466641919996</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="16"/>
+        <v>4.5518400000000007E-2</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="17"/>
+        <v>7.1991408613171978E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2508,184 +2502,217 @@
         <v>125</v>
       </c>
       <c r="B37" s="21">
-        <f>313/1000000</f>
-        <v>3.1300000000000002E-4</v>
+        <f>400/1000000</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="13"/>
+        <v>3.5200000000000005E-4</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="14"/>
+        <v>0.24213688913920003</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3">
+        <f t="shared" si="15"/>
+        <v>0.45786311086079989</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="16"/>
+        <v>4.6041600000000009E-2</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="17"/>
+        <v>7.251460861317198E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J38" s="3">
         <v>0.89</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="11"/>
-        <v>2.7857000000000001E-4</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="12"/>
-        <v>0.19162520797587199</v>
-      </c>
-      <c r="N37">
+      <c r="K38" s="3">
         <f t="shared" si="13"/>
-        <v>0.53837479202412797</v>
-      </c>
-      <c r="O37">
+        <v>3.5600000000000003E-4</v>
+      </c>
+      <c r="L38" s="3">
         <f t="shared" si="14"/>
-        <v>3.6436956000000006E-2</v>
-      </c>
-      <c r="P37">
+        <v>0.24488844469760002</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3">
         <f t="shared" si="15"/>
-        <v>6.2615820073025616E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J38">
+        <v>0.45511155530239994</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="16"/>
+        <v>4.656480000000001E-2</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="17"/>
+        <v>7.3037808613171981E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J39" s="3">
         <v>0.9</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="11"/>
-        <v>2.8170000000000002E-4</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="12"/>
-        <v>0.19377830020032</v>
-      </c>
-      <c r="N38">
+      <c r="K39" s="3">
         <f t="shared" si="13"/>
-        <v>0.53622169979968004</v>
-      </c>
-      <c r="O38">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="L39" s="3">
         <f t="shared" si="14"/>
-        <v>3.6846360000000009E-2</v>
-      </c>
-      <c r="P38">
+        <v>0.247640000256</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
         <f t="shared" si="15"/>
-        <v>6.3319368613171972E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J39">
+        <v>0.45235999974399999</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="16"/>
+        <v>4.7088000000000005E-2</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="17"/>
+        <v>7.3561008613171969E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J40" s="3">
         <v>0.91</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="11"/>
-        <v>2.8483000000000002E-4</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="12"/>
-        <v>0.19593139242476801</v>
-      </c>
-      <c r="N39">
+      <c r="K40" s="3">
         <f t="shared" si="13"/>
-        <v>0.534068607575232</v>
-      </c>
-      <c r="O39">
+        <v>3.6400000000000001E-4</v>
+      </c>
+      <c r="L40" s="3">
         <f t="shared" si="14"/>
-        <v>3.7255764000000004E-2</v>
-      </c>
-      <c r="P39">
+        <v>0.25039155581439998</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3">
         <f t="shared" si="15"/>
-        <v>6.4022917153318329E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J40">
+        <v>0.44960844418559998</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="16"/>
+        <v>4.7611200000000006E-2</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="17"/>
+        <v>7.408420861317197E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J41" s="3">
         <v>0.92</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="11"/>
-        <v>2.8796000000000003E-4</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="12"/>
-        <v>0.19808448464921602</v>
-      </c>
-      <c r="N40">
+      <c r="K41" s="3">
         <f t="shared" si="13"/>
-        <v>0.53191551535078396</v>
-      </c>
-      <c r="O40">
+        <v>3.6800000000000005E-4</v>
+      </c>
+      <c r="L41" s="3">
         <f t="shared" si="14"/>
-        <v>3.7665168000000006E-2</v>
-      </c>
-      <c r="P40">
+        <v>0.25314311137280004</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3">
         <f t="shared" si="15"/>
-        <v>6.4726465693464685E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J41">
+        <v>0.44685688862719991</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="16"/>
+        <v>4.8134400000000015E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="17"/>
+        <v>7.4607408613171985E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J42" s="3">
         <v>0.93</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="11"/>
-        <v>2.9109000000000003E-4</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="12"/>
-        <v>0.200237576873664</v>
-      </c>
-      <c r="N41">
+      <c r="K42" s="3">
         <f t="shared" si="13"/>
-        <v>0.52976242312633604</v>
-      </c>
-      <c r="O41">
+        <v>3.7200000000000004E-4</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="14"/>
-        <v>3.8074572000000008E-2</v>
-      </c>
-      <c r="P41">
+        <v>0.2558946669312</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3">
         <f t="shared" si="15"/>
-        <v>6.5430014233611042E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J42">
+        <v>0.44410533306879996</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="16"/>
+        <v>4.8657600000000009E-2</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="17"/>
+        <v>7.5130608613171973E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J43" s="3">
         <v>0.94</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="11"/>
-        <v>2.9421999999999999E-4</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="12"/>
-        <v>0.20239066909811199</v>
-      </c>
-      <c r="N42">
+      <c r="K43" s="3">
         <f t="shared" si="13"/>
-        <v>0.527609330901888</v>
-      </c>
-      <c r="O42">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="L43" s="3">
         <f t="shared" si="14"/>
-        <v>3.8483976000000003E-2</v>
-      </c>
-      <c r="P42">
+        <v>0.25864622248959995</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3">
         <f t="shared" si="15"/>
-        <v>6.6133562773757398E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J43">
+        <v>0.4413537775104</v>
+      </c>
+      <c r="O43" s="3">
+        <f t="shared" si="16"/>
+        <v>4.9180800000000004E-2</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="17"/>
+        <v>7.5653808613171974E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J44" s="3">
         <v>0.95</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="11"/>
-        <v>2.9734999999999999E-4</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="12"/>
-        <v>0.20454376132256</v>
-      </c>
-      <c r="N43">
+      <c r="K44" s="3">
         <f t="shared" si="13"/>
-        <v>0.52545623867743996</v>
-      </c>
-      <c r="O43">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="14"/>
-        <v>3.8893380000000005E-2</v>
-      </c>
-      <c r="P43">
+        <v>0.26139777804800002</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3">
         <f t="shared" si="15"/>
-        <v>6.6837111313903741E-2</v>
+        <v>0.43860222195199994</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="16"/>
+        <v>4.9704000000000005E-2</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="17"/>
+        <v>7.6177008613171976E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2695,6 +2722,7 @@
     <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2863,7 +2891,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -2883,12 +2911,12 @@
         <v>6937920000</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -2908,7 +2936,7 @@
         <v>8830080000</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3605,7 +3633,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G19">
         <v>0.16200000000000001</v>
@@ -3623,7 +3651,7 @@
         <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G20">
         <f>B20/(B19*1000*G19)</f>
@@ -4069,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C9435-D140-4ACE-89B8-673675A87D0E}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4137,7 +4165,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4">
         <v>0.18</v>
@@ -4150,22 +4178,22 @@
         <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>221</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -4192,15 +4220,15 @@
         <v>3.1110000000000002E-2</v>
       </c>
       <c r="N5">
-        <f>L5/$L$10</f>
+        <f t="shared" ref="N5:N15" si="1">L5/$L$10</f>
         <v>0.94444444444444453</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O15" si="1">$B$15/N5</f>
+        <f t="shared" ref="O5:O15" si="2">$B$15/N5</f>
         <v>0.42211529395200004</v>
       </c>
       <c r="P5">
-        <f>$D$30+M5</f>
+        <f t="shared" ref="P5:P15" si="3">$D$30+M5</f>
         <v>4.2110000000000002E-2</v>
       </c>
     </row>
@@ -4215,7 +4243,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J6">
         <v>0.86</v>
@@ -4225,23 +4253,23 @@
         <v>3.4400000000000001E-4</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L15" si="2">K6*$B$12</f>
+        <f t="shared" ref="L6:L15" si="4">K6*$B$12</f>
         <v>0.23663377802239999</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="3">K6*$B$21</f>
+        <f t="shared" ref="M6:M15" si="5">K6*$B$21</f>
         <v>3.1476000000000004E-2</v>
       </c>
       <c r="N6">
-        <f>L6/$L$10</f>
+        <f t="shared" si="1"/>
         <v>0.95555555555555549</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41720697658046524</v>
       </c>
       <c r="P6">
-        <f>$D$30+M6</f>
+        <f t="shared" si="3"/>
         <v>4.2476E-2</v>
       </c>
     </row>
@@ -4255,7 +4283,7 @@
         <v>8.4780000000000001E-4</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J7">
         <v>0.87</v>
@@ -4265,23 +4293,23 @@
         <v>3.48E-4</v>
       </c>
       <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.2393853335808</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>3.1842000000000002E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
-        <v>0.2393853335808</v>
-      </c>
-      <c r="M7">
+        <v>0.41241149409103456</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="3"/>
-        <v>3.1842000000000002E-2</v>
-      </c>
-      <c r="N7">
-        <f>L7/$L$10</f>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0.41241149409103456</v>
-      </c>
-      <c r="P7">
-        <f>$D$30+M7</f>
         <v>4.2842000000000005E-2</v>
       </c>
     </row>
@@ -4295,7 +4323,7 @@
         <v>294.88086812927577</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J8">
         <v>0.88</v>
@@ -4305,23 +4333,23 @@
         <v>3.5200000000000005E-4</v>
       </c>
       <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.24213688913920003</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>3.2208000000000007E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.97777777777777797</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="2"/>
-        <v>0.24213688913920003</v>
-      </c>
-      <c r="M8">
+        <v>0.40772499983999999</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="3"/>
-        <v>3.2208000000000007E-2</v>
-      </c>
-      <c r="N8">
-        <f>L8/$L$10</f>
-        <v>0.97777777777777797</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0.40772499983999999</v>
-      </c>
-      <c r="P8">
-        <f>$D$30+M8</f>
         <v>4.320800000000001E-2</v>
       </c>
     </row>
@@ -4336,7 +4364,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J9">
         <v>0.89</v>
@@ -4346,23 +4374,23 @@
         <v>3.5600000000000003E-4</v>
       </c>
       <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.24488844469760002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>3.2574000000000006E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="2"/>
-        <v>0.24488844469760002</v>
-      </c>
-      <c r="M9">
+        <v>0.40314382006651689</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="3"/>
-        <v>3.2574000000000006E-2</v>
-      </c>
-      <c r="N9">
-        <f>L9/$L$10</f>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0.40314382006651689</v>
-      </c>
-      <c r="P9">
-        <f>$D$30+M9</f>
         <v>4.3574000000000002E-2</v>
       </c>
     </row>
@@ -4387,23 +4415,23 @@
         <v>3.6000000000000002E-4</v>
       </c>
       <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0.247640000256</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>3.2940000000000004E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="2"/>
-        <v>0.247640000256</v>
-      </c>
-      <c r="M10">
+        <v>0.39866444428800007</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="3"/>
-        <v>3.2940000000000004E-2</v>
-      </c>
-      <c r="N10">
-        <f>L10/$L$10</f>
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0.39866444428800007</v>
-      </c>
-      <c r="P10">
-        <f>$D$30+M10</f>
         <v>4.3940000000000007E-2</v>
       </c>
     </row>
@@ -4430,29 +4458,29 @@
         <v>3.6400000000000001E-4</v>
       </c>
       <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.25039155581439998</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>3.3306000000000002E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.0111111111111111</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="2"/>
-        <v>0.25039155581439998</v>
-      </c>
-      <c r="M11">
+        <v>0.39428351632879127</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="3"/>
-        <v>3.3306000000000002E-2</v>
-      </c>
-      <c r="N11">
-        <f>L11/$L$10</f>
-        <v>1.0111111111111111</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0.39428351632879127</v>
-      </c>
-      <c r="P11">
-        <f>$D$30+M11</f>
         <v>4.4305999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12">
         <f>SUM(B8:B11)</f>
@@ -4477,25 +4505,25 @@
         <v>0.25314311137280004</v>
       </c>
       <c r="M12">
+        <f t="shared" si="5"/>
+        <v>3.3672000000000007E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>1.0222222222222224</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0.38999782593391308</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="3"/>
-        <v>3.3672000000000007E-2</v>
-      </c>
-      <c r="N12">
-        <f>L12/$L$10</f>
-        <v>1.0222222222222224</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>0.38999782593391308</v>
-      </c>
-      <c r="P12">
-        <f>$D$30+M12</f>
         <v>4.4672000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13">
         <f>1/B36</f>
@@ -4506,7 +4534,7 @@
         <v>1061.5711252653928</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J13">
         <v>0.93</v>
@@ -4516,29 +4544,29 @@
         <v>3.7200000000000004E-4</v>
       </c>
       <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0.2558946669312</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>3.4038000000000006E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="2"/>
-        <v>0.2558946669312</v>
-      </c>
-      <c r="M13">
+        <v>0.38580430092387102</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="3"/>
-        <v>3.4038000000000006E-2</v>
-      </c>
-      <c r="N13">
-        <f>L13/$L$10</f>
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0.38580430092387102</v>
-      </c>
-      <c r="P13">
-        <f>$D$30+M13</f>
         <v>4.5038000000000009E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B14">
         <f>(B13-B12)/B13</f>
@@ -4556,23 +4584,23 @@
         <v>3.7599999999999998E-4</v>
       </c>
       <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.25864622248959995</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>3.4403999999999997E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1.0444444444444443</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="2"/>
-        <v>0.25864622248959995</v>
-      </c>
-      <c r="M14">
+        <v>0.38169999985021291</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="3"/>
-        <v>3.4403999999999997E-2</v>
-      </c>
-      <c r="N14">
-        <f>L14/$L$10</f>
-        <v>1.0444444444444443</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0.38169999985021291</v>
-      </c>
-      <c r="P14">
-        <f>$D$30+M14</f>
         <v>4.5404E-2</v>
       </c>
     </row>
@@ -4596,35 +4624,35 @@
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0.26139777804800002</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>3.4770000000000002E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="2"/>
-        <v>0.26139777804800002</v>
-      </c>
-      <c r="M15">
+        <v>0.37768210511494743</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="3"/>
-        <v>3.4770000000000002E-2</v>
-      </c>
-      <c r="N15">
-        <f>L15/$L$10</f>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>0.37768210511494743</v>
-      </c>
-      <c r="P15">
-        <f>$D$30+M15</f>
         <v>4.5770000000000005E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4656,19 +4684,19 @@
         <v>220</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>221</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -4688,7 +4716,7 @@
         <v>0.85</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K29" si="4">$B$35*J19</f>
+        <f t="shared" ref="K19:K29" si="6">$B$35*J19</f>
         <v>8.007E-4</v>
       </c>
       <c r="L19">
@@ -4700,7 +4728,7 @@
         <v>0.94444444444444453</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N23" si="5">$C$15/M19</f>
+        <f t="shared" ref="N19:N23" si="7">$C$15/M19</f>
         <v>0.31751681137460702</v>
       </c>
       <c r="O19">
@@ -4723,39 +4751,39 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J20">
         <v>0.86</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1012E-4</v>
       </c>
       <c r="L20">
-        <f t="shared" ref="L20:L29" si="6">K20*$C$12</f>
+        <f t="shared" ref="L20:L29" si="8">K20*$C$12</f>
         <v>0.39110143613164089</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M29" si="7">L20/$L$24</f>
+        <f t="shared" ref="M20:M29" si="9">L20/$L$24</f>
         <v>0.9555555555555556</v>
       </c>
       <c r="N20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.31382475542839072</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:O29" si="8">K20*$C$21</f>
+        <f t="shared" ref="O20:O29" si="10">K20*$C$21</f>
         <v>4.6581900000000002E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" ref="P20:P29" si="9">$D$29+O20</f>
+        <f t="shared" ref="P20:P29" si="11">$D$29+O20</f>
         <v>5.5581900000000004E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2">
         <f>SUM(B18:B20)</f>
@@ -4772,34 +4800,31 @@
         <v>0.87</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1954E-4</v>
       </c>
       <c r="L21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.39564912724945062</v>
       </c>
       <c r="M21">
+        <f t="shared" si="9"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="7"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
         <v>0.31021757433151265</v>
       </c>
       <c r="O21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.712355E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.6123550000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
       <c r="B22">
         <f>B21/B18</f>
         <v>1.22</v>
@@ -4808,27 +4833,27 @@
         <v>0.88</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.2896000000000001E-4</v>
       </c>
       <c r="L22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.4001968183672604</v>
       </c>
       <c r="M22">
+        <f t="shared" si="9"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="7"/>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="5"/>
         <v>0.30669237462320004</v>
       </c>
       <c r="O22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.7665199999999998E-2</v>
       </c>
       <c r="P22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.6665199999999999E-2</v>
       </c>
     </row>
@@ -4837,27 +4862,27 @@
         <v>0.89</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3838000000000001E-4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.40474450948507018</v>
       </c>
       <c r="M23">
+        <f t="shared" si="9"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="7"/>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="5"/>
         <v>0.30324639288586069</v>
       </c>
       <c r="O23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.8206850000000002E-2</v>
       </c>
       <c r="P23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.7206850000000004E-2</v>
       </c>
     </row>
@@ -4867,15 +4892,15 @@
         <v>0.9</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.4780000000000001E-4</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.40929220060287996</v>
       </c>
       <c r="M24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N24">
@@ -4883,11 +4908,11 @@
         <v>0.29987698852046224</v>
       </c>
       <c r="O24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.87485E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.7748500000000001E-2</v>
       </c>
     </row>
@@ -4896,27 +4921,27 @@
         <v>0.91</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.5722000000000001E-4</v>
       </c>
       <c r="L25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.41383989172068975</v>
       </c>
       <c r="M25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0111111111111111</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N29" si="10">$C$15/M25</f>
+        <f t="shared" ref="N25:N29" si="12">$C$15/M25</f>
         <v>0.29658163699825935</v>
       </c>
       <c r="O25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9290149999999998E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.8290149999999999E-2</v>
       </c>
     </row>
@@ -4925,27 +4950,27 @@
         <v>0.92</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.6664000000000001E-4</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.41838758283849953</v>
       </c>
       <c r="M26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0222222222222221</v>
       </c>
       <c r="N26">
+        <f t="shared" si="12"/>
+        <v>0.29335792355262613</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="10"/>
-        <v>0.29335792355262613</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="8"/>
         <v>4.9831800000000002E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.8831800000000004E-2</v>
       </c>
     </row>
@@ -4955,27 +4980,27 @@
         <v>0.93</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.7606000000000001E-4</v>
       </c>
       <c r="L27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42293527395630931</v>
       </c>
       <c r="M27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="N27">
+        <f t="shared" si="12"/>
+        <v>0.29020353727786663</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="10"/>
-        <v>0.29020353727786663</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="8"/>
         <v>5.037345E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.9373450000000001E-2</v>
       </c>
     </row>
@@ -4993,33 +5018,33 @@
         <v>216</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J28">
         <v>0.94</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.8548000000000001E-4</v>
       </c>
       <c r="L28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.42748296507411909</v>
       </c>
       <c r="M28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0444444444444445</v>
       </c>
       <c r="N28">
+        <f t="shared" si="12"/>
+        <v>0.28711626560469788</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="10"/>
-        <v>0.28711626560469788</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="8"/>
         <v>5.0915099999999998E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.9915099999999999E-2</v>
       </c>
     </row>
@@ -5041,27 +5066,27 @@
         <v>0.95</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.9490000000000001E-4</v>
       </c>
       <c r="L29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.43203065619192887</v>
       </c>
       <c r="M29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0555555555555556</v>
       </c>
       <c r="N29">
+        <f t="shared" si="12"/>
+        <v>0.28409398912464845</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="10"/>
-        <v>0.28409398912464845</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="8"/>
         <v>5.1456750000000002E-2</v>
       </c>
       <c r="P29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.0456750000000004E-2</v>
       </c>
     </row>
@@ -5082,7 +5107,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B31" s="20">
         <v>495</v>
@@ -5094,10 +5119,10 @@
         <v>2.6473008613171967E-2</v>
       </c>
       <c r="E31">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -5108,7 +5133,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2">
         <f>2*B31</f>
@@ -5124,42 +5149,37 @@
         <v>220</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J33">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="K33">
-        <f t="shared" ref="K33:K43" si="11">$B$37*J33</f>
-        <v>2.6604999999999999E-4</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="L33">
-        <f>K33*$B$12</f>
-        <v>0.18301283907808</v>
+        <v>0.19260888908799997</v>
       </c>
       <c r="N33">
-        <f>$E$31-L33</f>
-        <v>0.54698716092192001</v>
+        <v>0.53739111091199998</v>
       </c>
       <c r="O33">
-        <f>K33*$B$21</f>
-        <v>2.4343574999999999E-2</v>
+        <v>3.6623999999999997E-2</v>
       </c>
       <c r="P33">
-        <f>($D$31*M19)+O33</f>
-        <v>4.9345860912440191E-2</v>
+        <v>6.3097008613171968E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -5167,27 +5187,22 @@
         <v>217</v>
       </c>
       <c r="J34">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K34">
-        <f t="shared" si="11"/>
-        <v>2.6917999999999999E-4</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L43" si="12">K34*$B$12</f>
-        <v>0.18516593130252798</v>
+        <v>0.23388222246400001</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N43" si="13">$E$31-L34</f>
-        <v>0.54483406869747197</v>
+        <v>0.49611777753599995</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O43" si="14">K34*$B$21</f>
-        <v>2.4629970000000001E-2</v>
+        <v>4.4472000000000005E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P43" si="15">($D$31*M20)+O34</f>
-        <v>4.9926400452586547E-2</v>
+        <v>7.0945008613171975E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -5202,27 +5217,22 @@
         <v>70</v>
       </c>
       <c r="J35">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K35">
-        <f t="shared" si="11"/>
-        <v>2.7231E-4</v>
+        <v>3.4400000000000001E-4</v>
       </c>
       <c r="L35">
-        <f t="shared" si="12"/>
-        <v>0.18731902352697599</v>
+        <v>0.23663377802239999</v>
       </c>
       <c r="N35">
-        <f t="shared" si="13"/>
-        <v>0.54268097647302405</v>
+        <v>0.49336622197759999</v>
       </c>
       <c r="O35">
-        <f t="shared" si="14"/>
-        <v>2.4916364999999999E-2</v>
+        <v>4.4995200000000006E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="15"/>
-        <v>5.0506939992732897E-2</v>
+        <v>7.1468208613171977E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -5237,27 +5247,22 @@
         <v>70</v>
       </c>
       <c r="J36">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K36">
-        <f t="shared" si="11"/>
-        <v>2.7544000000000001E-4</v>
+        <v>3.48E-4</v>
       </c>
       <c r="L36">
-        <f t="shared" si="12"/>
-        <v>0.189472115751424</v>
+        <v>0.2393853335808</v>
       </c>
       <c r="N36">
-        <f t="shared" si="13"/>
-        <v>0.54052788424857601</v>
+        <v>0.49061466641919999</v>
       </c>
       <c r="O36">
-        <f t="shared" si="14"/>
-        <v>2.5202760000000001E-2</v>
+        <v>4.5518400000000007E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="15"/>
-        <v>5.108747953287926E-2</v>
+        <v>7.1991408613171978E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -5272,177 +5277,162 @@
         <v>70</v>
       </c>
       <c r="J37">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K37">
-        <f t="shared" si="11"/>
-        <v>2.7857000000000001E-4</v>
+        <v>3.5200000000000005E-4</v>
       </c>
       <c r="L37">
-        <f t="shared" si="12"/>
-        <v>0.19162520797587199</v>
+        <v>0.24213688913920003</v>
       </c>
       <c r="N37">
-        <f t="shared" si="13"/>
-        <v>0.53837479202412797</v>
+        <v>0.48786311086079992</v>
       </c>
       <c r="O37">
-        <f t="shared" si="14"/>
-        <v>2.5489154999999999E-2</v>
+        <v>4.6041600000000009E-2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="15"/>
-        <v>5.1668019073025609E-2</v>
+        <v>7.251460861317198E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J38">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K38">
-        <f t="shared" si="11"/>
-        <v>2.8170000000000002E-4</v>
+        <v>3.5600000000000003E-4</v>
       </c>
       <c r="L38">
-        <f t="shared" si="12"/>
-        <v>0.19377830020032</v>
+        <v>0.24488844469760002</v>
       </c>
       <c r="N38">
-        <f t="shared" si="13"/>
-        <v>0.53622169979968004</v>
+        <v>0.48511155530239997</v>
       </c>
       <c r="O38">
-        <f t="shared" si="14"/>
-        <v>2.5775550000000001E-2</v>
+        <v>4.656480000000001E-2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="15"/>
-        <v>5.2248558613171972E-2</v>
+        <v>7.3037808613171981E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J39">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K39">
-        <f t="shared" si="11"/>
-        <v>2.8483000000000002E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="L39">
-        <f t="shared" si="12"/>
-        <v>0.19593139242476801</v>
+        <v>0.247640000256</v>
       </c>
       <c r="N39">
-        <f t="shared" si="13"/>
-        <v>0.534068607575232</v>
+        <v>0.48235999974400001</v>
       </c>
       <c r="O39">
-        <f t="shared" si="14"/>
-        <v>2.6061945000000003E-2</v>
+        <v>4.7088000000000005E-2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="15"/>
-        <v>5.2829098153318321E-2</v>
+        <v>7.3561008613171969E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J40">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K40">
-        <f t="shared" si="11"/>
-        <v>2.8796000000000003E-4</v>
+        <v>3.6400000000000001E-4</v>
       </c>
       <c r="L40">
-        <f t="shared" si="12"/>
-        <v>0.19808448464921602</v>
+        <v>0.25039155581439998</v>
       </c>
       <c r="N40">
-        <f t="shared" si="13"/>
-        <v>0.53191551535078396</v>
+        <v>0.4796084441856</v>
       </c>
       <c r="O40">
-        <f t="shared" si="14"/>
-        <v>2.6348340000000001E-2</v>
+        <v>4.7611200000000006E-2</v>
       </c>
       <c r="P40">
-        <f t="shared" si="15"/>
-        <v>5.3409637693464677E-2</v>
+        <v>7.408420861317197E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J41">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K41">
-        <f t="shared" si="11"/>
-        <v>2.9109000000000003E-4</v>
+        <v>3.6800000000000005E-4</v>
       </c>
       <c r="L41">
-        <f t="shared" si="12"/>
-        <v>0.200237576873664</v>
+        <v>0.25314311137280004</v>
       </c>
       <c r="N41">
-        <f t="shared" si="13"/>
-        <v>0.52976242312633604</v>
+        <v>0.47685688862719994</v>
       </c>
       <c r="O41">
-        <f t="shared" si="14"/>
-        <v>2.6634735000000003E-2</v>
+        <v>4.8134400000000015E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="15"/>
-        <v>5.3990177233611034E-2</v>
+        <v>7.4607408613171985E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J42">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="K42">
-        <f t="shared" si="11"/>
-        <v>2.9421999999999999E-4</v>
+        <v>3.7200000000000004E-4</v>
       </c>
       <c r="L42">
-        <f t="shared" si="12"/>
-        <v>0.20239066909811199</v>
+        <v>0.2558946669312</v>
       </c>
       <c r="N42">
-        <f t="shared" si="13"/>
-        <v>0.527609330901888</v>
+        <v>0.47410533306879998</v>
       </c>
       <c r="O42">
-        <f t="shared" si="14"/>
-        <v>2.6921129999999998E-2</v>
+        <v>4.8657600000000009E-2</v>
       </c>
       <c r="P42">
-        <f t="shared" si="15"/>
-        <v>5.4570716773757383E-2</v>
+        <v>7.5130608613171973E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J43">
+        <v>0.94</v>
+      </c>
+      <c r="K43">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="L43">
+        <v>0.25864622248959995</v>
+      </c>
+      <c r="N43">
+        <v>0.47135377751040003</v>
+      </c>
+      <c r="O43">
+        <v>4.9180800000000004E-2</v>
+      </c>
+      <c r="P43">
+        <v>7.5653808613171974E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J44">
         <v>0.95</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="11"/>
-        <v>2.9734999999999999E-4</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="12"/>
-        <v>0.20454376132256</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="13"/>
-        <v>0.52545623867743996</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="14"/>
-        <v>2.7207525E-2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="15"/>
-        <v>5.5151256313903746E-2</v>
+      <c r="K44">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="L44">
+        <v>0.26139777804800002</v>
+      </c>
+      <c r="N44">
+        <v>0.46860222195199996</v>
+      </c>
+      <c r="O44">
+        <v>4.9704000000000005E-2</v>
+      </c>
+      <c r="P44">
+        <v>7.6177008613171976E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5460,7 +5450,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6152,12 +6142,13 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
@@ -6875,7 +6866,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -6916,7 +6907,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B12">
         <f>450*I1</f>
@@ -6928,7 +6919,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13">
         <f>B12/F11</f>
@@ -6937,7 +6928,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14">
         <f>I8/B13</f>
@@ -6950,7 +6941,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B15" s="22">
         <f>F8/B13</f>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC18CE-A958-4B3C-AAFF-1F99E5852BF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FB379-1C6E-4F59-BBDC-19F34217ED84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS_Costs_Early" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="258">
   <si>
     <t>H2 Method</t>
   </si>
@@ -806,6 +806,18 @@
   </si>
   <si>
     <t>Cap Cost(MUSD/GWh)</t>
+  </si>
+  <si>
+    <t>H2 Cost</t>
+  </si>
+  <si>
+    <t>Total Generation</t>
+  </si>
+  <si>
+    <t>Annual Generation</t>
+  </si>
+  <si>
+    <t>Cap</t>
   </si>
 </sst>
 </file>
@@ -816,7 +828,7 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000E+00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +906,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -950,7 +970,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -990,6 +1010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1308,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B25EB-4023-477D-80C4-74718858ACC8}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,13 +2340,13 @@
         <v>239</v>
       </c>
       <c r="B31" s="20">
-        <v>495</v>
-      </c>
-      <c r="C31" s="20">
-        <v>4</v>
-      </c>
-      <c r="D31" s="20">
-        <v>2.6473008613171967E-2</v>
+        <v>764</v>
+      </c>
+      <c r="C31">
+        <v>6.214611477952583</v>
+      </c>
+      <c r="D31">
+        <v>4.084030751199931E-2</v>
       </c>
       <c r="E31">
         <v>0.7</v>
@@ -2346,7 +2367,7 @@
       </c>
       <c r="B32" s="2">
         <f>6*B31</f>
-        <v>2970</v>
+        <v>4584</v>
       </c>
       <c r="C32" s="21">
         <v>33</v>
@@ -2393,7 +2414,7 @@
       </c>
       <c r="P33" s="3">
         <f>$D$31+O33</f>
-        <v>6.3097008613171968E-2</v>
+        <v>7.7464307511999314E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2422,7 +2443,7 @@
       </c>
       <c r="P34" s="3">
         <f t="shared" ref="P34:P44" si="17">$D$31+O34</f>
-        <v>7.0945008613171975E-2</v>
+        <v>8.5312307511999308E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2458,7 +2479,7 @@
       </c>
       <c r="P35" s="3">
         <f t="shared" si="17"/>
-        <v>7.1468208613171977E-2</v>
+        <v>8.5835507511999309E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2494,7 +2515,7 @@
       </c>
       <c r="P36" s="3">
         <f t="shared" si="17"/>
-        <v>7.1991408613171978E-2</v>
+        <v>8.6358707511999311E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2530,7 +2551,7 @@
       </c>
       <c r="P37" s="3">
         <f t="shared" si="17"/>
-        <v>7.251460861317198E-2</v>
+        <v>8.6881907511999312E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2556,7 +2577,7 @@
       </c>
       <c r="P38" s="3">
         <f t="shared" si="17"/>
-        <v>7.3037808613171981E-2</v>
+        <v>8.7405107511999314E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2582,7 +2603,7 @@
       </c>
       <c r="P39" s="3">
         <f t="shared" si="17"/>
-        <v>7.3561008613171969E-2</v>
+        <v>8.7928307511999315E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2608,7 +2629,7 @@
       </c>
       <c r="P40" s="3">
         <f t="shared" si="17"/>
-        <v>7.408420861317197E-2</v>
+        <v>8.8451507511999317E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2634,7 +2655,7 @@
       </c>
       <c r="P41" s="3">
         <f t="shared" si="17"/>
-        <v>7.4607408613171985E-2</v>
+        <v>8.8974707511999318E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -2660,7 +2681,7 @@
       </c>
       <c r="P42" s="3">
         <f t="shared" si="17"/>
-        <v>7.5130608613171973E-2</v>
+        <v>8.9497907511999319E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -2686,7 +2707,7 @@
       </c>
       <c r="P43" s="3">
         <f t="shared" si="17"/>
-        <v>7.5653808613171974E-2</v>
+        <v>9.0021107511999321E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -2712,7 +2733,7 @@
       </c>
       <c r="P44" s="3">
         <f t="shared" si="17"/>
-        <v>7.6177008613171976E-2</v>
+        <v>9.0544307511999322E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4099,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C9435-D140-4ACE-89B8-673675A87D0E}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5110,7 +5131,7 @@
         <v>239</v>
       </c>
       <c r="B31" s="20">
-        <v>495</v>
+        <v>764</v>
       </c>
       <c r="C31" s="20">
         <v>4</v>
@@ -5137,7 +5158,7 @@
       </c>
       <c r="B32" s="2">
         <f>2*B31</f>
-        <v>990</v>
+        <v>1528</v>
       </c>
       <c r="C32" s="21">
         <v>4</v>
@@ -6719,10 +6740,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5DFEF8-915B-4056-B382-3EF1CD6D8429}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F33:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6832,387 +6853,444 @@
         <v>88</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6">
+        <v>44.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7">
+        <f>(133815+(B21*70004))*1000</f>
+        <v>2233935000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="B8">
-        <v>2.5</v>
+        <f>B7/B6</f>
+        <v>50656122.448979594</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8">
-        <f>B8*(365*24*60*60)</f>
-        <v>78840000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8">
-        <f>(D8*I3/(1000000))</f>
-        <v>2320.7342400000002</v>
-      </c>
-      <c r="G8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8">
-        <f>F8/8760</f>
-        <v>0.26492400000000005</v>
-      </c>
-      <c r="J8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9">
+        <f>B8/(B21*1000)</f>
+        <v>1688.5374149659865</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10">
+        <f>B9/8760</f>
+        <v>0.19275541266735005</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12">
+        <f>B12*(365*24*60*60)</f>
+        <v>78840000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>1688.5374149659865</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12">
+        <v>0.19275541266735</v>
+      </c>
+      <c r="J12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>225</v>
       </c>
-      <c r="B9">
+      <c r="B13">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>132</v>
       </c>
-      <c r="D9">
-        <f>B9*B17*365*24*3600/1000000000</f>
+      <c r="D13">
+        <f>B13*B21*365*24*3600/1000000000</f>
         <v>22.705919999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <f>133815/1000</f>
         <v>133.815</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="D11">
-        <f>B11/I8</f>
-        <v>505.10712506228191</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D15">
+        <f>B15/I12</f>
+        <v>694.22175049855991</v>
+      </c>
+      <c r="E15" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="15">
-        <f>D11*I1</f>
-        <v>555.61783756851014</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F15" s="15">
+        <f>D15*I1</f>
+        <v>763.64392554841595</v>
+      </c>
+      <c r="G15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="B12">
+      <c r="B16" s="3">
         <f>450*I1</f>
         <v>495.00000000000006</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13">
-        <f>B12/F11</f>
-        <v>0.89090012330456247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B14">
-        <f>I8/B13</f>
-        <v>0.29736666666666667</v>
-      </c>
-      <c r="D14">
-        <f>B11/B14</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="22">
-        <f>F8/B13</f>
-        <v>2604.9319999999998</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17">
+        <f>B16/F15</f>
+        <v>0.64820786683337073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18">
+        <f>I12/B17</f>
+        <v>0.29736666666666667</v>
+      </c>
+      <c r="D18">
+        <f>B15/B18</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="22">
+        <f>F12/B17</f>
+        <v>2604.9320000000007</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I23" t="s">
         <v>152</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J23" t="s">
         <v>153</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>138</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <f>61753*1000</f>
         <v>61753000</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>141</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>143</v>
       </c>
-      <c r="F20">
-        <f>B20/(D20*1000)</f>
+      <c r="F24">
+        <f>B24/(D24*1000)</f>
         <v>3087.65</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G24" t="s">
         <v>22</v>
       </c>
-      <c r="I20">
-        <f>B15/F21</f>
-        <v>73.44733082706766</v>
-      </c>
-      <c r="J20">
-        <f>B15/(F21+F20)</f>
-        <v>0.83408091276342533</v>
-      </c>
-      <c r="K20" s="15">
-        <f>F21/F20</f>
+      <c r="I24">
+        <f>B19/F25</f>
+        <v>73.447330827067688</v>
+      </c>
+      <c r="J24">
+        <f>F12/(F25+F24)</f>
+        <v>0.5406578092288109</v>
+      </c>
+      <c r="K24" s="15">
+        <f>F25/F24</f>
         <v>1.1486621432696928E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21">
-        <v>1064000</v>
-      </c>
-      <c r="C21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" s="2">
-        <f>B21/(D21*1000)</f>
-        <v>35.466666666666669</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23">
-        <v>1089000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23">
-        <f>B23/1000000</f>
-        <v>1.089</v>
-      </c>
-      <c r="E23" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25">
+        <v>1064000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="2">
+        <f>B25/(D25*1000)</f>
+        <v>35.466666666666669</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27">
+        <v>1089000</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27">
+        <f>B27/1000000</f>
+        <v>1.089</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>144</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <v>12</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <f>B25*(365*24*60*60)</f>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f>B29*(365*24*60*60)</f>
         <v>378432000</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <f>B26*0.3</f>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f>B30*0.3</f>
         <v>113529600</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="D27">
-        <f>B27*G1/(1000000)</f>
+      <c r="D31">
+        <f>B31*G1/(1000000)</f>
         <v>1.0320872727272727</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E31" t="s">
         <v>145</v>
       </c>
-      <c r="F27">
-        <f>D27/I1</f>
+      <c r="F31">
+        <f>D31/I1</f>
         <v>0.93826115702479329</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G31" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B29">
-        <f>(B20/1000000)+F27</f>
+      <c r="B33">
+        <f>(B24/1000000)+F31</f>
         <v>62.69126115702479</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>147</v>
       </c>
-      <c r="D29">
-        <f>B29*I1</f>
+      <c r="D33">
+        <f>B33*I1</f>
         <v>68.960387272727274</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E33" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="15">
-        <f>D29/B15</f>
-        <v>2.6473008613171967E-2</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F33" s="15">
+        <f>D33/F12</f>
+        <v>4.084030751199931E-2</v>
+      </c>
+      <c r="G33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B32">
-        <f>D23</f>
+      <c r="B36">
+        <f>D27</f>
         <v>1.089</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>147</v>
       </c>
-      <c r="D32">
-        <f>B32*I1</f>
+      <c r="D36">
+        <f>B36*I1</f>
         <v>1.1979</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E36" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="15">
-        <f>D32/B14</f>
-        <v>4.028360049321825</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F36" s="15">
+        <f>D36/I12</f>
+        <v>6.214611477952583</v>
+      </c>
+      <c r="G36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B35">
-        <f>F8*B17*1000</f>
-        <v>69622027.200000018</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B39">
+        <f>F12*B21*1000</f>
+        <v>50656122.448979594</v>
+      </c>
+      <c r="C39" t="s">
         <v>156</v>
       </c>
-      <c r="D35">
-        <f>D9/(B35/1000)</f>
-        <v>3.2613126783530364E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="D39">
+        <f>D13/(B39/1000)</f>
+        <v>4.4823644018290594E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B36">
-        <f>(B11*1000000)+(70005000*B17)</f>
+      <c r="B40">
+        <f>(B15*1000000)+(70005000*B21)</f>
         <v>2233965000</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="22">
-        <f>B36/B35</f>
-        <v>32.08704327988886</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="B41" s="22">
+        <f>B40/B39</f>
+        <v>44.100592228511573</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D41" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/i2cner-tech-data.xlsx
+++ b/data/i2cner-tech-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\i2cner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FB379-1C6E-4F59-BBDC-19F34217ED84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF8BB48-A49D-4892-9B2E-70D6B8B6F54E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
+    <workbookView xWindow="36000" yWindow="2625" windowWidth="21600" windowHeight="11325" firstSheet="7" activeTab="13" xr2:uid="{ECBC9880-2B97-44EA-9887-629A306A84A1}"/>
   </bookViews>
   <sheets>
     <sheet name="CCS_Costs_Early" sheetId="14" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet name="Keipi_electrolysis" sheetId="8" r:id="rId11"/>
     <sheet name="Simons_PEMFC" sheetId="10" r:id="rId12"/>
     <sheet name="EIA_LCOE" sheetId="11" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId14"/>
+    <sheet name="Photoconversion" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="292">
   <si>
     <t>H2 Method</t>
   </si>
@@ -818,6 +819,108 @@
   </si>
   <si>
     <t>Cap</t>
+  </si>
+  <si>
+    <t>Japan area</t>
+  </si>
+  <si>
+    <t>sq km</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Solar cost</t>
+  </si>
+  <si>
+    <t>acres/MW</t>
+  </si>
+  <si>
+    <t>sq km/acre</t>
+  </si>
+  <si>
+    <t>sq km/GW</t>
+  </si>
+  <si>
+    <t>Solar land</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>kgH2/day</t>
+  </si>
+  <si>
+    <t>kgH2/year</t>
+  </si>
+  <si>
+    <t>kg/lifetime</t>
+  </si>
+  <si>
+    <t>Area cost</t>
+  </si>
+  <si>
+    <t>sqkm</t>
+  </si>
+  <si>
+    <t>% of forest</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Unit area cost</t>
+  </si>
+  <si>
+    <t>Area for photoH2</t>
+  </si>
+  <si>
+    <t>H2 cost</t>
+  </si>
+  <si>
+    <t>Correction factor</t>
+  </si>
+  <si>
+    <t>GWh/year</t>
+  </si>
+  <si>
+    <t>GWh/lifetime</t>
+  </si>
+  <si>
+    <t>Cap lim</t>
+  </si>
+  <si>
+    <t>Target:</t>
+  </si>
+  <si>
+    <t>$3/kgH2</t>
+  </si>
+  <si>
+    <t>$/kg-H2</t>
+  </si>
+  <si>
+    <t>MUSD/GW/year</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijhydene.2010.12.035</t>
+  </si>
+  <si>
+    <t>LCA emissions</t>
+  </si>
+  <si>
+    <t>gCO2eq/kgH2</t>
+  </si>
+  <si>
+    <t>Emissions -Lb</t>
+  </si>
+  <si>
+    <t>Emissions -Ub</t>
+  </si>
+  <si>
+    <t>nuclear based</t>
+  </si>
+  <si>
+    <t>biomass</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1107,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1329,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B25EB-4023-477D-80C4-74718858ACC8}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33:P44"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,15 +1486,15 @@
       <c r="C3" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1881,15 +1984,15 @@
       <c r="C17" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -2351,15 +2454,15 @@
       <c r="E31">
         <v>0.7</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -3851,10 +3954,10 @@
         <v>2025</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="25">
+      <c r="E3" s="26">
         <v>2040</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="26"/>
       <c r="G3" t="s">
         <v>197</v>
       </c>
@@ -4103,6 +4206,341 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403B81F9-D657-42BD-96F8-D40A873BAE34}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1">
+        <v>377970</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2">
+        <v>251000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3">
+        <v>7.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3">
+        <v>4.0468600000000002E-3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f>B3*I3*1000</f>
+        <v>30.351450000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5">
+        <f>300*B4</f>
+        <v>9105.4350000000013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5">
+        <f>B5*100/B2</f>
+        <v>3.6276633466135464</v>
+      </c>
+      <c r="E5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6">
+        <f>D6*B2/100</f>
+        <v>12550</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11">
+        <f>365.25*B11*B9*B8</f>
+        <v>65745</v>
+      </c>
+      <c r="E11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11">
+        <f>D11*B10</f>
+        <v>1314900</v>
+      </c>
+      <c r="G11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>30*D11/1000000</f>
+        <v>1.97235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12">
+        <f>B12*B10</f>
+        <v>39.447000000000003</v>
+      </c>
+      <c r="E12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13">
+        <f>222881/1000000</f>
+        <v>0.222881</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14">
+        <f>B12/8760</f>
+        <v>2.2515410958904111E-4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15">
+        <f>B13/B14</f>
+        <v>989.90420564301462</v>
+      </c>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16">
+        <f>B6/B15</f>
+        <v>12.67799442456946</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <f>4.291722*1.3445</f>
+        <v>5.7702202290000004</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18">
+        <f>B17/B14</f>
+        <v>25627.869904449009</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19">
+        <f>(B17*1000000)/F11</f>
+        <v>4.3883338877481179</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20">
+        <f>F11*F20/(1000000*B10)</f>
+        <v>6.5744999999999998E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25">
+        <v>411.8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25">
+        <f>B25/30</f>
+        <v>13.726666666666667</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26">
+        <v>3000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>287</v>
+      </c>
+      <c r="E26">
+        <f>B26/30</f>
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{D7C525A3-6A36-47B4-A753-318099DBAD41}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6C6BEB-6091-4743-A766-86BDD24D0263}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4174,15 +4612,15 @@
       <c r="C3" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4672,15 +5110,15 @@
       <c r="C17" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -5142,15 +5580,15 @@
       <c r="E31">
         <v>0.7</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -5794,10 +6232,10 @@
       <c r="G10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="26"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="11">
         <f>L9/G5</f>
         <v>122583.35123523093</v>
@@ -5807,10 +6245,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="11">
         <f>M4*L10</f>
         <v>4086438.5967776584</v>
@@ -6984,7 +7422,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="25" t="s">
         <v>244</v>
       </c>
       <c r="B16" s="3">
